--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="211" activeTab="1"/>
@@ -12,7 +12,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -42,12 +42,68 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAQUE P/ IR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PROTEÇÃO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>REINVESTIMENTO</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>ATIVO</t>
   </si>
@@ -211,9 +267,6 @@
     <t>OUTRAS BOVESPA</t>
   </si>
   <si>
-    <t>IRRF DAY TRADE</t>
-  </si>
-  <si>
     <t>DATA DE LIQUIDAÇÃO</t>
   </si>
   <si>
@@ -239,21 +292,31 @@
   </si>
   <si>
     <t>LUCRO</t>
+  </si>
+  <si>
+    <t>IRRF DAYTRADE BASE</t>
+  </si>
+  <si>
+    <t>PETRC25</t>
+  </si>
+  <si>
+    <t>VALEC43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -297,6 +360,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -402,16 +466,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -423,31 +487,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,10 +518,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -484,782 +544,705 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1278,159 +1261,96 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1449,121 +1369,254 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1582,26 +1635,45 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1620,26 +1692,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1658,7 +1730,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1677,7 +1768,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1696,20 +1787,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1728,25 +1806,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1761,7 +1821,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40969.946527199078" createdVersion="1" refreshedVersion="4" recordCount="28" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q65514" sheet="Planilha1"/>
+    <worksheetSource ref="A1:Q65517" sheet="Planilha1"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="Nº NOTA" numFmtId="0">
@@ -2494,96 +2554,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AG9" totalsRowCount="1" headerRowDxfId="68" dataDxfId="67" totalsRowDxfId="66">
-  <autoFilter ref="A1:AG8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AG12" totalsRowCount="1" headerRowDxfId="41" dataDxfId="39" totalsRowDxfId="40">
+  <autoFilter ref="A1:AG11"/>
   <sortState ref="A2:AG8">
     <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="65" totalsRowDxfId="32"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="64" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="OPER/TIPO" dataDxfId="63" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="DATA" dataDxfId="62" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="61" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="60" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="59" totalsRowDxfId="26"/>
-    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="44" totalsRowDxfId="25">
+    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="68" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="67" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="OPER/TIPO" dataDxfId="66" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="DATA" dataDxfId="65" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="64" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="63" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="62" totalsRowDxfId="26"/>
+    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="61" totalsRowDxfId="25">
       <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],3,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="DATA BASE" dataDxfId="42" totalsRowDxfId="24">
+    <tableColumn id="31" name="DATA BASE" dataDxfId="60" totalsRowDxfId="24">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="43" totalsRowDxfId="23">
-      <calculatedColumnFormula>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</calculatedColumnFormula>
+    <tableColumn id="21" name="PAR" dataDxfId="59" totalsRowDxfId="23">
+      <calculatedColumnFormula>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="58" totalsRowDxfId="22">
-      <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
+      <calculatedColumnFormula>[QTDE]*[PREÇO]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="57" totalsRowDxfId="21">
-      <calculatedColumnFormula>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
+      <calculatedColumnFormula>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="47" totalsRowDxfId="20">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
+    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="56" totalsRowDxfId="20">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="46" totalsRowDxfId="19">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
+    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="55" totalsRowDxfId="19">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="45" totalsRowDxfId="18">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
+    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="54" totalsRowDxfId="18">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORRETAGEM" dataDxfId="56" totalsRowDxfId="17">
-      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
+    <tableColumn id="12" name="CORRETAGEM" dataDxfId="53" totalsRowDxfId="17">
+      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="55" totalsRowDxfId="16">
-      <calculatedColumnFormula>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
+    <tableColumn id="13" name="ISS" dataDxfId="52" totalsRowDxfId="16">
+      <calculatedColumnFormula>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="51" totalsRowDxfId="15">
-      <calculatedColumnFormula>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND([CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="50" totalsRowDxfId="14">
-      <calculatedColumnFormula>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</calculatedColumnFormula>
+      <calculatedColumnFormula>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="IRRF DAY TRADE" dataDxfId="49" totalsRowDxfId="13">
-      <calculatedColumnFormula>IF(AND(NC['[D/N']]="D",    NC[OPER/TIPO]="CV"),    NC[LÍQUIDO BASE]*0.01,    0)</calculatedColumnFormula>
+    <tableColumn id="33" name="IRRF DAYTRADE BASE" dataDxfId="49" totalsRowDxfId="13">
+      <calculatedColumnFormula>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="35" name="LÍQUIDO" dataDxfId="48" totalsRowDxfId="12">
-      <calculatedColumnFormula>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF DAY TRADE])</calculatedColumnFormula>
+      <calculatedColumnFormula>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="41" totalsRowDxfId="11">
-      <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
+    <tableColumn id="17" name="VALOR P/ OP" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="11">
+      <calculatedColumnFormula>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</calculatedColumnFormula>
+      <totalsRowFormula>329.35</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="54" totalsRowDxfId="10">
+    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="47" totalsRowDxfId="10">
       <calculatedColumnFormula>ABS(V2)/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="9">
-      <calculatedColumnFormula>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     K2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="9">
+      <calculatedColumnFormula>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="52" totalsRowDxfId="8">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</calculatedColumnFormula>
+    <tableColumn id="24" name="SALDO" dataDxfId="45" totalsRowDxfId="8">
+      <calculatedColumnFormula>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="35" totalsRowDxfId="7">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",      IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
+    <tableColumn id="22" name="MED CP" dataDxfId="44" totalsRowDxfId="7">
+      <calculatedColumnFormula>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="36" totalsRowDxfId="6">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
+    <tableColumn id="23" name="MED VD" dataDxfId="43" totalsRowDxfId="6">
+      <calculatedColumnFormula>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="5">
-      <calculatedColumnFormula>IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0)</calculatedColumnFormula>
+    <tableColumn id="25" name="LUCRO" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="5">
+      <calculatedColumnFormula>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="LUCRO MÊS NORMAL" dataDxfId="34" totalsRowDxfId="4">
-      <calculatedColumnFormula>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="N"),    NC[LUCRO])</calculatedColumnFormula>
+    <tableColumn id="37" name="LUCRO MÊS NORMAL" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="4">
+      <calculatedColumnFormula>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</calculatedColumnFormula>
+      <totalsRowFormula>SUMPRODUCT(N([ID]=NC[[#Totals],[ID]]),[IRRF NORMAL] + [IRRF DAYTRADE])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="39" name="LUCRO MÊS DAYTRADE" dataDxfId="33" totalsRowDxfId="3">
-      <calculatedColumnFormula>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="D"),    NC[LUCRO]) + SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</calculatedColumnFormula>
+    <tableColumn id="39" name="LUCRO MÊS DAYTRADE" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</calculatedColumnFormula>
+      <totalsRowFormula>NC[[#Totals],[LUCRO MÊS NORMAL]]+8.9</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="IRRF NORMAL" dataDxfId="39" totalsRowDxfId="2" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(NC[LUCRO MÊS NORMAL]*0.15,    2)</calculatedColumnFormula>
+    <tableColumn id="32" name="IRRF NORMAL" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="2" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</calculatedColumnFormula>
+      <totalsRowFormula>NC[[#Totals],[LUCRO]]-NC[[#Totals],[LUCRO MÊS DAYTRADE]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" name="IRRF DAYTRADE" dataDxfId="38" totalsRowDxfId="1" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(NC[LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</calculatedColumnFormula>
+    <tableColumn id="38" name="IRRF DAYTRADE" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</calculatedColumnFormula>
+      <totalsRowFormula>NC[[#Totals],[IRRF NORMAL]]/2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" name="RENTABILIDADE" dataDxfId="37" totalsRowDxfId="0" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>IF(NC[MED CP] = 0,    0,    NC[LUCRO] / ABS(NC[QTDE] * NC[MED CP]))</calculatedColumnFormula>
+    <tableColumn id="30" name="RENTABILIDADE" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</calculatedColumnFormula>
+      <totalsRowFormula>NC[[#Totals],[IRRF DAYTRADE]]+NC[[#Totals],[VALOR P/ OP]]</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2900,7 +2966,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2942,7 +3008,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2961,14 +3027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -2978,13 +3044,13 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -2992,7 +3058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -3000,7 +3066,7 @@
         <v>-862.45000000000027</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3008,7 +3074,7 @@
         <v>-130.13999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3016,7 +3082,7 @@
         <v>205.45000000000027</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -3024,7 +3090,7 @@
         <v>-1201.19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3098,7 @@
         <v>-121.93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -3040,7 +3106,7 @@
         <v>-21.560000000000855</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -3048,7 +3114,7 @@
         <v>-81.129999999999654</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
@@ -3056,7 +3122,7 @@
         <v>-255.90999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -3064,7 +3130,7 @@
         <v>-88.079999999999814</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
@@ -3072,13 +3138,13 @@
         <v>-150.42000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
@@ -3092,17 +3158,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="15" bestFit="1" customWidth="1"/>
@@ -3123,7 +3189,7 @@
     <col min="17" max="17" width="6.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="15" style="15" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" style="15" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.85546875" style="15" hidden="1" customWidth="1"/>
@@ -3131,7 +3197,7 @@
     <col min="25" max="25" width="8.5703125" style="15" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="9.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="11.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
@@ -3140,7 +3206,7 @@
     <col min="34" max="16384" width="11.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
@@ -3163,10 +3229,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>35</v>
@@ -3199,7 +3265,7 @@
         <v>47</v>
       </c>
       <c r="T1" s="20" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="U1" s="20" t="s">
         <v>5</v>
@@ -3208,7 +3274,7 @@
         <v>31</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X1" s="18" t="s">
         <v>32</v>
@@ -3223,25 +3289,25 @@
         <v>34</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AE1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -3267,108 +3333,108 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40983</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="32">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
       <c r="J2" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="K2" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>168.00000000000003</v>
       </c>
       <c r="L2" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-168.00000000000003</v>
       </c>
       <c r="M2" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
       <c r="N2" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.06</v>
       </c>
       <c r="O2" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.11</v>
       </c>
       <c r="P2" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="Q2" s="23">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="R2" s="23">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="S2" s="23">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-183.98000000000005</v>
       </c>
       <c r="T2" s="23">
-        <f>IF(AND(NC['[D/N']]="D",    NC[OPER/TIPO]="CV"),    NC[LÍQUIDO BASE]*0.01,    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
         <v>0</v>
       </c>
       <c r="U2" s="23">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF DAY TRADE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
         <v>-183.98000000000005</v>
       </c>
       <c r="V2" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-183.98000000000005</v>
       </c>
       <c r="W2" s="23">
-        <f>ABS(V2)/E2</f>
+        <f t="shared" ref="W2:W8" si="0">ABS(V2)/E2</f>
         <v>0.30663333333333342</v>
       </c>
       <c r="X2" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     K2*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K2*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>600</v>
       </c>
       <c r="Z2" s="24">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.30663333333333342</v>
       </c>
       <c r="AA2" s="24">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
       <c r="AB2" s="23">
-        <f>IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0)</f>
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="23">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="N"),    NC[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
         <v>262.40999999999985</v>
       </c>
       <c r="AD2" s="23">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="D"),    NC[LUCRO]) + SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>197.30999999999995</v>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <v>478.50999999999988</v>
       </c>
       <c r="AE2" s="29">
-        <f>ROUND(NC[LUCRO MÊS NORMAL]*0.15,    2)</f>
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
         <v>39.36</v>
       </c>
       <c r="AF2" s="29">
-        <f>ROUND(NC[LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>37.486899999999999</v>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <v>90.914900000000003</v>
       </c>
       <c r="AG2" s="28">
-        <f>IF(NC[MED CP] = 0,    0,    NC[LUCRO] / ABS(NC[QTDE] * NC[MED CP]))</f>
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -3394,235 +3460,235 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40983</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="32">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
       <c r="J3" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="K3" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>160</v>
       </c>
       <c r="L3" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-328</v>
       </c>
       <c r="M3" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.09</v>
       </c>
       <c r="N3" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.12</v>
       </c>
       <c r="O3" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.22</v>
       </c>
       <c r="P3" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="Q3" s="23">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="R3" s="23">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="S3" s="23">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-359.98</v>
       </c>
       <c r="T3" s="23">
-        <f>IF(AND(NC['[D/N']]="D",    NC[OPER/TIPO]="CV"),    NC[LÍQUIDO BASE]*0.01,    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
         <v>0</v>
       </c>
       <c r="U3" s="23">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF DAY TRADE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
         <v>-359.98</v>
       </c>
       <c r="V3" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-175.99999999999997</v>
       </c>
       <c r="W3" s="23">
-        <f>ABS(V3)/E3</f>
+        <f t="shared" si="0"/>
         <v>0.43999999999999995</v>
       </c>
       <c r="X3" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     K3*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K3*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>400</v>
       </c>
       <c r="Z3" s="24">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.43999999999999995</v>
       </c>
       <c r="AA3" s="24">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
       <c r="AB3" s="23">
-        <f>IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0)</f>
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="23">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="N"),    NC[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
         <v>262.40999999999985</v>
       </c>
       <c r="AD3" s="23">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="D"),    NC[LUCRO]) + SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>197.30999999999995</v>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <v>478.50999999999988</v>
       </c>
       <c r="AE3" s="29">
-        <f>ROUND(NC[LUCRO MÊS NORMAL]*0.15,    2)</f>
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
         <v>39.36</v>
       </c>
       <c r="AF3" s="29">
-        <f>ROUND(NC[LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>37.486899999999999</v>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <v>90.914900000000003</v>
       </c>
       <c r="AG3" s="28">
-        <f>IF(NC[MED CP] = 0,    0,    NC[LUCRO] / ABS(NC[QTDE] * NC[MED CP]))</f>
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
+    <row r="4" spans="1:33">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="22">
         <v>40981</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="21">
         <v>1200</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="23">
         <v>0.19</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="22">
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="32">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="J4" s="30">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="J4" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="32">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="K4" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>228</v>
       </c>
-      <c r="L4" s="32">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+      <c r="L4" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-228</v>
       </c>
-      <c r="M4" s="32">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+      <c r="M4" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
-      <c r="N4" s="32">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+      <c r="N4" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.02</v>
       </c>
-      <c r="O4" s="32">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+      <c r="O4" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.03</v>
       </c>
-      <c r="P4" s="32">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P4" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="Q4" s="32">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+      <c r="Q4" s="23">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="R4" s="32">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+      <c r="R4" s="23">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="S4" s="32">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+      <c r="S4" s="23">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-243.28</v>
       </c>
-      <c r="T4" s="32">
-        <f>IF(AND(NC['[D/N']]="D",    NC[OPER/TIPO]="CV"),    NC[LÍQUIDO BASE]*0.01,    0)</f>
+      <c r="T4" s="23">
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="32">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF DAY TRADE])</f>
+      <c r="U4" s="23">
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
         <v>-245.25309999999999</v>
       </c>
-      <c r="V4" s="32">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="V4" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-245.25309999999999</v>
       </c>
-      <c r="W4" s="32">
-        <f>ABS(V4)/E4</f>
+      <c r="W4" s="23">
+        <f t="shared" si="0"/>
         <v>0.20437758333333333</v>
       </c>
-      <c r="X4" s="32">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     K4*SETUP!$H$3,     0),2)</f>
+      <c r="X4" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K4*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="30">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="Y4" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="33">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)))</f>
+      <c r="Z4" s="24">
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.20437758333333333</v>
       </c>
-      <c r="AA4" s="33">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)))</f>
+      <c r="AA4" s="24">
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="32">
-        <f>IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0)</f>
+      <c r="AB4" s="23">
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="32">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="N"),    NC[LUCRO])</f>
+      <c r="AC4" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
         <v>262.40999999999985</v>
       </c>
-      <c r="AD4" s="32">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="D"),    NC[LUCRO]) + SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>197.30999999999995</v>
-      </c>
-      <c r="AE4" s="34">
-        <f>ROUND(NC[LUCRO MÊS NORMAL]*0.15,    2)</f>
+      <c r="AD4" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE4" s="30">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
         <v>39.36</v>
       </c>
-      <c r="AF4" s="34">
-        <f>ROUND(NC[LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>37.486899999999999</v>
-      </c>
-      <c r="AG4" s="35">
-        <f>IF(NC[MED CP] = 0,    0,    NC[LUCRO] / ABS(NC[QTDE] * NC[MED CP]))</f>
+      <c r="AF4" s="30">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <v>90.914900000000003</v>
+      </c>
+      <c r="AG4" s="28">
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -3648,362 +3714,362 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="32">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
       <c r="J5" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>0</v>
       </c>
       <c r="K5" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>456</v>
       </c>
       <c r="L5" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>228</v>
       </c>
       <c r="M5" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.12</v>
       </c>
       <c r="N5" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.08</v>
       </c>
       <c r="O5" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.1</v>
       </c>
       <c r="P5" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="Q5" s="23">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="R5" s="23">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="S5" s="23">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>197.30999999999997</v>
       </c>
       <c r="T5" s="23">
-        <f>IF(AND(NC['[D/N']]="D",    NC[OPER/TIPO]="CV"),    NC[LÍQUIDO BASE]*0.01,    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
         <v>1.9730999999999999</v>
       </c>
       <c r="U5" s="23">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF DAY TRADE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
         <v>195.33689999999999</v>
       </c>
       <c r="V5" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>440.59</v>
       </c>
       <c r="W5" s="23">
-        <f>ABS(V5)/E5</f>
+        <f t="shared" si="0"/>
         <v>0.36715833333333331</v>
       </c>
       <c r="X5" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     K5*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K5*SETUP!$H$3,     0),2)</f>
         <v>0.02</v>
       </c>
       <c r="Y5" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="Z5" s="24">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.20437758333333333</v>
       </c>
       <c r="AA5" s="24">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
         <v>0.36715833333333331</v>
       </c>
       <c r="AB5" s="23">
-        <f>IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0)</f>
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
         <v>195.33689999999996</v>
       </c>
       <c r="AC5" s="23">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="N"),    NC[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
         <v>262.40999999999985</v>
       </c>
       <c r="AD5" s="23">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="D"),    NC[LUCRO]) + SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>197.30999999999995</v>
-      </c>
-      <c r="AE5" s="39">
-        <f>ROUND(NC[LUCRO MÊS NORMAL]*0.15,    2)</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE5" s="30">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
         <v>39.36</v>
       </c>
-      <c r="AF5" s="39">
-        <f>ROUND(NC[LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>37.486899999999999</v>
+      <c r="AF5" s="30">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <v>90.914900000000003</v>
       </c>
       <c r="AG5" s="28">
-        <f>IF(NC[MED CP] = 0,    0,    NC[LUCRO] / ABS(NC[QTDE] * NC[MED CP]))</f>
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0.79647066642582687</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+    <row r="6" spans="1:33">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="22">
         <v>40981</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="21">
         <v>400</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="23">
         <v>0.8</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="22">
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="32">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="J6" s="30">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="J6" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="32">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="K6" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>320</v>
       </c>
-      <c r="L6" s="32">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+      <c r="L6" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>548</v>
       </c>
-      <c r="M6" s="32">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+      <c r="M6" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.21</v>
       </c>
-      <c r="N6" s="32">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+      <c r="N6" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.2</v>
       </c>
-      <c r="O6" s="32">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+      <c r="O6" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.32</v>
       </c>
-      <c r="P6" s="32">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P6" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
-      <c r="Q6" s="32">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+      <c r="Q6" s="23">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
-      <c r="R6" s="32">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+      <c r="R6" s="23">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
-      <c r="S6" s="32">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+      <c r="S6" s="23">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>499.93999999999988</v>
       </c>
-      <c r="T6" s="32">
-        <f>IF(AND(NC['[D/N']]="D",    NC[OPER/TIPO]="CV"),    NC[LÍQUIDO BASE]*0.01,    0)</f>
+      <c r="T6" s="23">
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="32">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF DAY TRADE])</f>
+      <c r="U6" s="23">
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
         <v>497.9668999999999</v>
       </c>
-      <c r="V6" s="32">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="V6" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>302.62999999999988</v>
       </c>
-      <c r="W6" s="32">
-        <f>ABS(V6)/E6</f>
+      <c r="W6" s="23">
+        <f t="shared" si="0"/>
         <v>0.75657499999999966</v>
       </c>
-      <c r="X6" s="32">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     K6*SETUP!$H$3,     0),2)</f>
+      <c r="X6" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K6*SETUP!$H$3,     0),2)</f>
         <v>0.01</v>
       </c>
-      <c r="Y6" s="30">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="Y6" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="33">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)))</f>
+      <c r="Z6" s="24">
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.43999999999999995</v>
       </c>
-      <c r="AA6" s="33">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)))</f>
+      <c r="AA6" s="24">
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
         <v>0.75657499999999966</v>
       </c>
-      <c r="AB6" s="32">
-        <f>IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0)</f>
+      <c r="AB6" s="23">
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
         <v>126.62999999999988</v>
       </c>
-      <c r="AC6" s="32">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="N"),    NC[LUCRO])</f>
+      <c r="AC6" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
         <v>262.40999999999985</v>
       </c>
-      <c r="AD6" s="32">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="D"),    NC[LUCRO]) + SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>197.30999999999995</v>
-      </c>
-      <c r="AE6" s="34">
-        <f>ROUND(NC[LUCRO MÊS NORMAL]*0.15,    2)</f>
+      <c r="AD6" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE6" s="30">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
         <v>39.36</v>
       </c>
-      <c r="AF6" s="34">
-        <f>ROUND(NC[LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>37.486899999999999</v>
-      </c>
-      <c r="AG6" s="35">
-        <f>IF(NC[MED CP] = 0,    0,    NC[LUCRO] / ABS(NC[QTDE] * NC[MED CP]))</f>
+      <c r="AF6" s="30">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <v>90.914900000000003</v>
+      </c>
+      <c r="AG6" s="28">
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0.7194886363636358</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+    <row r="7" spans="1:33">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="22">
         <v>40981</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="21">
         <v>200</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="23">
         <v>0.8</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="22">
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="32">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="J7" s="30">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="J7" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="K7" s="32">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="K7" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>160</v>
       </c>
-      <c r="L7" s="32">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+      <c r="L7" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>388</v>
       </c>
-      <c r="M7" s="32">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+      <c r="M7" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.25</v>
       </c>
-      <c r="N7" s="32">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+      <c r="N7" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.25</v>
       </c>
-      <c r="O7" s="32">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+      <c r="O7" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.43</v>
       </c>
-      <c r="P7" s="32">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P7" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>59.6</v>
       </c>
-      <c r="Q7" s="32">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+      <c r="Q7" s="23">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>1.19</v>
       </c>
-      <c r="R7" s="32">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+      <c r="R7" s="23">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="S7" s="32">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+      <c r="S7" s="23">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>323.95999999999998</v>
       </c>
-      <c r="T7" s="32">
-        <f>IF(AND(NC['[D/N']]="D",    NC[OPER/TIPO]="CV"),    NC[LÍQUIDO BASE]*0.01,    0)</f>
+      <c r="T7" s="23">
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="32">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF DAY TRADE])</f>
+      <c r="U7" s="23">
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
         <v>321.98689999999999</v>
       </c>
-      <c r="V7" s="32">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="V7" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-175.9799999999999</v>
       </c>
-      <c r="W7" s="32">
-        <f>ABS(V7)/E7</f>
+      <c r="W7" s="23">
+        <f t="shared" si="0"/>
         <v>0.87989999999999957</v>
       </c>
-      <c r="X7" s="32">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     K7*SETUP!$H$3,     0),2)</f>
+      <c r="X7" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K7*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="30">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="Y7" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>200</v>
       </c>
-      <c r="Z7" s="33">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)))</f>
+      <c r="Z7" s="24">
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.87989999999999957</v>
       </c>
-      <c r="AA7" s="33">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)))</f>
+      <c r="AA7" s="24">
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="32">
-        <f>IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0)</f>
+      <c r="AB7" s="23">
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="32">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="N"),    NC[LUCRO])</f>
+      <c r="AC7" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
         <v>262.40999999999985</v>
       </c>
-      <c r="AD7" s="32">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="D"),    NC[LUCRO]) + SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>197.30999999999995</v>
-      </c>
-      <c r="AE7" s="34">
-        <f>ROUND(NC[LUCRO MÊS NORMAL]*0.15,    2)</f>
+      <c r="AD7" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE7" s="30">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
         <v>39.36</v>
       </c>
-      <c r="AF7" s="34">
-        <f>ROUND(NC[LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>37.486899999999999</v>
-      </c>
-      <c r="AG7" s="35">
-        <f>IF(NC[MED CP] = 0,    0,    NC[LUCRO] / ABS(NC[QTDE] * NC[MED CP]))</f>
+      <c r="AF7" s="30">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <v>90.914900000000003</v>
+      </c>
+      <c r="AG7" s="28">
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -4029,152 +4095,552 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="32">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
       <c r="J8" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="K8" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>336.00000000000006</v>
       </c>
       <c r="L8" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>724</v>
       </c>
       <c r="M8" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.34</v>
       </c>
       <c r="N8" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.38</v>
       </c>
       <c r="O8" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.66</v>
       </c>
       <c r="P8" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>74.5</v>
       </c>
       <c r="Q8" s="23">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>1.49</v>
       </c>
       <c r="R8" s="23">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>2.91</v>
       </c>
       <c r="S8" s="23">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>643.72</v>
       </c>
       <c r="T8" s="23">
-        <f>IF(AND(NC['[D/N']]="D",    NC[OPER/TIPO]="CV"),    NC[LÍQUIDO BASE]*0.01,    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
         <v>0</v>
       </c>
       <c r="U8" s="23">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF DAY TRADE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
         <v>641.74689999999998</v>
       </c>
       <c r="V8" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>319.76</v>
       </c>
       <c r="W8" s="23">
-        <f>ABS(V8)/E8</f>
+        <f t="shared" si="0"/>
         <v>0.53293333333333337</v>
       </c>
       <c r="X8" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     K8*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K8*SETUP!$H$3,     0),2)</f>
         <v>0.01</v>
       </c>
       <c r="Y8" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="Z8" s="24">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.30663333333333342</v>
       </c>
       <c r="AA8" s="24">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
         <v>0.53293333333333337</v>
       </c>
       <c r="AB8" s="23">
-        <f>IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0)</f>
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
         <v>135.77999999999997</v>
       </c>
       <c r="AC8" s="23">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="N"),    NC[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
         <v>262.40999999999985</v>
       </c>
       <c r="AD8" s="23">
-        <f>SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(NC['[D/N']]="D"),    NC[LUCRO]) + SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>197.30999999999995</v>
-      </c>
-      <c r="AE8" s="39">
-        <f>ROUND(NC[LUCRO MÊS NORMAL]*0.15,    2)</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE8" s="30">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
         <v>39.36</v>
       </c>
-      <c r="AF8" s="39">
-        <f>ROUND(NC[LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF DAY TRADE])</f>
-        <v>37.486899999999999</v>
+      <c r="AF8" s="30">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <v>90.914900000000003</v>
       </c>
       <c r="AG8" s="28">
-        <f>IF(NC[MED CP] = 0,    0,    NC[LUCRO] / ABS(NC[QTDE] * NC[MED CP]))</f>
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0.73801500163061173</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+    <row r="9" spans="1:33">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22">
+        <v>40982</v>
+      </c>
+      <c r="E9" s="21">
+        <v>2400</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
+        <v>40987</v>
+      </c>
+      <c r="I9" s="37">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="J9" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>312</v>
+      </c>
+      <c r="L9" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>-312</v>
+      </c>
+      <c r="M9" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="N9" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="O9" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="P9" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="Q9" s="23">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R9" s="23">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S9" s="23">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>-327.31</v>
+      </c>
+      <c r="T9" s="23">
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="23">
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <v>-330.12200000000001</v>
+      </c>
+      <c r="V9" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>-330.12200000000001</v>
+      </c>
+      <c r="W9" s="23">
+        <f>ABS(V9)/E9</f>
+        <v>0.13755083333333334</v>
+      </c>
       <c r="X9" s="23">
-        <f>SUBTOTAL(109,NC[IRRF])</f>
-        <v>0.04</v>
-      </c>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K9*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="24">
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.13755083333333334</v>
+      </c>
+      <c r="AA9" s="24">
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
+        <v>0</v>
+      </c>
       <c r="AB9" s="23">
-        <f>SUBTOTAL(109,NC[LUCRO])</f>
-        <v>457.74689999999981</v>
-      </c>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="28"/>
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
+        <v>262.40999999999985</v>
+      </c>
+      <c r="AD9" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE9" s="30">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
+        <v>39.36</v>
+      </c>
+      <c r="AF9" s="29">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <v>90.914900000000003</v>
+      </c>
+      <c r="AG9" s="28">
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D10" s="27"/>
+    <row r="10" spans="1:33">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="22">
+        <v>40982</v>
+      </c>
+      <c r="E10" s="21">
+        <v>2400</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
+        <v>40987</v>
+      </c>
+      <c r="I10" s="37">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="J10" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>624</v>
+      </c>
+      <c r="L10" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>312</v>
+      </c>
+      <c r="M10" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="N10" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="O10" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P10" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>29.8</v>
+      </c>
+      <c r="Q10" s="23">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="R10" s="23">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S10" s="23">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>281.2</v>
+      </c>
+      <c r="T10" s="23">
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
+        <v>2.8119999999999998</v>
+      </c>
+      <c r="U10" s="23">
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <v>278.38799999999998</v>
+      </c>
+      <c r="V10" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>608.51</v>
+      </c>
+      <c r="W10" s="23">
+        <f>ABS(V10)/E10</f>
+        <v>0.2535458333333333</v>
+      </c>
+      <c r="X10" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K10*SETUP!$H$3,     0),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y10" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="24">
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.13755083333333334</v>
+      </c>
+      <c r="AA10" s="24">
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
+        <v>0.2535458333333333</v>
+      </c>
+      <c r="AB10" s="23">
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
+        <v>278.38799999999992</v>
+      </c>
+      <c r="AC10" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
+        <v>262.40999999999985</v>
+      </c>
+      <c r="AD10" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE10" s="30">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
+        <v>39.36</v>
+      </c>
+      <c r="AF10" s="29">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <v>90.914900000000003</v>
+      </c>
+      <c r="AG10" s="28">
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
+        <v>0.84328823889349969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="22">
+        <v>40982</v>
+      </c>
+      <c r="E11" s="21">
+        <v>800</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0.39</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
+        <v>40987</v>
+      </c>
+      <c r="I11" s="37">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="J11" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="23">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>312</v>
+      </c>
+      <c r="L11" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N11" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="O11" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="P11" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>44.7</v>
+      </c>
+      <c r="Q11" s="23">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.89</v>
+      </c>
+      <c r="R11" s="23">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>1.74</v>
+      </c>
+      <c r="S11" s="23">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>-48.150000000000006</v>
+      </c>
+      <c r="T11" s="23">
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="23">
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <v>-50.962000000000003</v>
+      </c>
+      <c r="V11" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>-329.34999999999997</v>
+      </c>
+      <c r="W11" s="23">
+        <f>ABS(V11)/E11</f>
+        <v>0.41168749999999998</v>
+      </c>
+      <c r="X11" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K11*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>800</v>
+      </c>
+      <c r="Z11" s="24">
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.41168749999999998</v>
+      </c>
+      <c r="AA11" s="24">
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="23">
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
+        <v>262.40999999999985</v>
+      </c>
+      <c r="AD11" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE11" s="29">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
+        <v>39.36</v>
+      </c>
+      <c r="AF11" s="29">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <v>90.914900000000003</v>
+      </c>
+      <c r="AG11" s="28">
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="31">
+        <f>SUBTOTAL(104,[ID])</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="23">
+        <f>329.35</f>
+        <v>329.35</v>
+      </c>
+      <c r="W12" s="31"/>
+      <c r="X12" s="23">
+        <f>SUBTOTAL(109,[IRRF])</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="23">
+        <f>SUBTOTAL(109,[LUCRO])</f>
+        <v>736.13489999999979</v>
+      </c>
+      <c r="AC12" s="36">
+        <f>SUMPRODUCT(N([ID]=NC[[#Totals],[ID]]),[IRRF NORMAL] + [IRRF DAYTRADE])</f>
+        <v>130.2749</v>
+      </c>
+      <c r="AD12" s="36">
+        <f>NC[[#Totals],[LUCRO MÊS NORMAL]]+8.9</f>
+        <v>139.17490000000001</v>
+      </c>
+      <c r="AE12" s="23">
+        <f>NC[[#Totals],[LUCRO]]-NC[[#Totals],[LUCRO MÊS DAYTRADE]]</f>
+        <v>596.95999999999981</v>
+      </c>
+      <c r="AF12" s="23">
+        <f>NC[[#Totals],[IRRF NORMAL]]/2</f>
+        <v>298.4799999999999</v>
+      </c>
+      <c r="AG12" s="38">
+        <f>NC[[#Totals],[IRRF DAYTRADE]]+NC[[#Totals],[VALOR P/ OP]]</f>
+        <v>627.82999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="D13" s="27"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4192,14 +4658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -4212,32 +4678,32 @@
     <col min="10" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -4250,13 +4716,13 @@
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>7.0000000000000007E-5</v>
       </c>
@@ -4285,29 +4751,29 @@
         <v>6765.77</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
@@ -4327,7 +4793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -4372,12 +4838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -42,7 +42,50 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC12" authorId="0">
+    <comment ref="U14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TOTAL APLICADO RF
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>APORTE MENSAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LUCRO BRUTO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD12" authorId="0">
+    <comment ref="AD14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +113,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF12" authorId="0">
+    <comment ref="AE14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LUCRO LÍQUIDO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG12" authorId="0">
+    <comment ref="AG14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>ATIVO</t>
   </si>
@@ -294,13 +351,16 @@
     <t>LUCRO</t>
   </si>
   <si>
-    <t>IRRF DAYTRADE BASE</t>
-  </si>
-  <si>
     <t>PETRC25</t>
   </si>
   <si>
     <t>VALEC43</t>
+  </si>
+  <si>
+    <t>IRRF FONTE</t>
+  </si>
+  <si>
+    <t>VALED43</t>
   </si>
 </sst>
 </file>
@@ -316,7 +376,7 @@
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -357,6 +417,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -469,7 +535,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -507,8 +573,16 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,32 +592,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -767,42 +842,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -840,312 +879,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1165,6 +898,349 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1184,25 +1260,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1260,43 +1317,68 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1330,7 +1412,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1349,7 +1431,197 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1387,6 +1659,63 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1406,234 +1735,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1653,27 +1754,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1710,25 +1792,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1748,30 +1811,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1791,22 +1849,21 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1821,7 +1878,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40969.946527199078" createdVersion="1" refreshedVersion="4" recordCount="28" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q65517" sheet="Planilha1"/>
+    <worksheetSource ref="A1:Q65519" sheet="Planilha1"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="Nº NOTA" numFmtId="0">
@@ -2465,7 +2522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B16" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -2554,81 +2611,82 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AG12" totalsRowCount="1" headerRowDxfId="41" dataDxfId="39" totalsRowDxfId="40">
-  <autoFilter ref="A1:AG11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AG14" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
+  <autoFilter ref="A1:AG13"/>
   <sortState ref="A2:AG8">
     <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="68" totalsRowDxfId="32"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="67" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="OPER/TIPO" dataDxfId="66" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="DATA" dataDxfId="65" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="64" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="63" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="62" totalsRowDxfId="26"/>
-    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="61" totalsRowDxfId="25">
+    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="64" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="63" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="OPER/TIPO" dataDxfId="62" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="DATA" dataDxfId="61" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="60" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="59" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="58" totalsRowDxfId="26"/>
+    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="57" totalsRowDxfId="25">
       <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],3,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="DATA BASE" dataDxfId="60" totalsRowDxfId="24">
+    <tableColumn id="31" name="DATA BASE" dataDxfId="56" totalsRowDxfId="24">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="59" totalsRowDxfId="23">
+    <tableColumn id="21" name="PAR" dataDxfId="55" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="58" totalsRowDxfId="22">
+    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="54" totalsRowDxfId="22">
       <calculatedColumnFormula>[QTDE]*[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="57" totalsRowDxfId="21">
+    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="53" totalsRowDxfId="21">
       <calculatedColumnFormula>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="56" totalsRowDxfId="20">
+    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="52" totalsRowDxfId="20">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="55" totalsRowDxfId="19">
+    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="51" totalsRowDxfId="19">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="54" totalsRowDxfId="18">
+    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="50" totalsRowDxfId="18">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORRETAGEM" dataDxfId="53" totalsRowDxfId="17">
+    <tableColumn id="12" name="CORRETAGEM" dataDxfId="49" totalsRowDxfId="17">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="52" totalsRowDxfId="16">
+    <tableColumn id="13" name="ISS" dataDxfId="48" totalsRowDxfId="16">
       <calculatedColumnFormula>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="51" totalsRowDxfId="15">
+    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="47" totalsRowDxfId="15">
       <calculatedColumnFormula>ROUND([CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="50" totalsRowDxfId="14">
+    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="46" totalsRowDxfId="14">
       <calculatedColumnFormula>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="IRRF DAYTRADE BASE" dataDxfId="49" totalsRowDxfId="13">
+    <tableColumn id="33" name="IRRF FONTE" dataDxfId="45" totalsRowDxfId="13">
       <calculatedColumnFormula>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="LÍQUIDO" dataDxfId="48" totalsRowDxfId="12">
-      <calculatedColumnFormula>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</calculatedColumnFormula>
+    <tableColumn id="35" name="LÍQUIDO" totalsRowFunction="custom" totalsRowDxfId="12">
+      <calculatedColumnFormula>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</calculatedColumnFormula>
+      <totalsRowFormula>298.48</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="11">
+    <tableColumn id="17" name="VALOR P/ OP" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</calculatedColumnFormula>
-      <totalsRowFormula>329.35</totalsRowFormula>
+      <totalsRowFormula>380</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="47" totalsRowDxfId="10">
+    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="43" totalsRowDxfId="10">
       <calculatedColumnFormula>ABS(V2)/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="9">
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="9">
       <calculatedColumnFormula>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="45" totalsRowDxfId="8">
+    <tableColumn id="24" name="SALDO" dataDxfId="41" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="44" totalsRowDxfId="7">
+    <tableColumn id="22" name="MED CP" dataDxfId="40" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="43" totalsRowDxfId="6">
+    <tableColumn id="23" name="MED VD" dataDxfId="39" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="5">
+    <tableColumn id="25" name="LUCRO" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="37" name="LUCRO MÊS NORMAL" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="4">
@@ -2636,20 +2694,20 @@
       <totalsRowFormula>SUMPRODUCT(N([ID]=NC[[#Totals],[ID]]),[IRRF NORMAL] + [IRRF DAYTRADE])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="39" name="LUCRO MÊS DAYTRADE" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="3">
-      <calculatedColumnFormula>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</calculatedColumnFormula>
       <totalsRowFormula>NC[[#Totals],[LUCRO MÊS NORMAL]]+8.9</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="IRRF NORMAL" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="32" name="IRRF NORMAL" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</calculatedColumnFormula>
       <totalsRowFormula>NC[[#Totals],[LUCRO]]-NC[[#Totals],[LUCRO MÊS DAYTRADE]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" name="IRRF DAYTRADE" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="1" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</calculatedColumnFormula>
-      <totalsRowFormula>NC[[#Totals],[IRRF NORMAL]]/2</totalsRowFormula>
+    <tableColumn id="38" name="IRRF DAYTRADE" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</calculatedColumnFormula>
+      <totalsRowFormula>ROUND(NC[[#Totals],[IRRF NORMAL]] * 0.5,    2) - NC[[#Totals],[LÍQUIDO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" name="RENTABILIDADE" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="30" name="RENTABILIDADE" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</calculatedColumnFormula>
-      <totalsRowFormula>NC[[#Totals],[IRRF DAYTRADE]]+NC[[#Totals],[VALOR P/ OP]]</totalsRowFormula>
+      <totalsRowFormula>NC[[#Totals],[VALOR P/ OP]] + NC[[#Totals],[IRRF NORMAL]] - (NC[[#Totals],[LÍQUIDO]] + NC[[#Totals],[IRRF DAYTRADE]])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3159,13 +3217,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
+      <selection pane="bottomRight" activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -3189,8 +3247,8 @@
     <col min="17" max="17" width="6.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="15" style="15" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="8.28515625" style="15" hidden="1" customWidth="1"/>
@@ -3265,7 +3323,7 @@
         <v>47</v>
       </c>
       <c r="T1" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U1" s="20" t="s">
         <v>5</v>
@@ -3333,7 +3391,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40983</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -3382,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="23">
-        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>-183.98000000000005</v>
       </c>
       <c r="V2" s="23">
@@ -3415,18 +3473,18 @@
       </c>
       <c r="AC2" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>262.40999999999985</v>
+        <v>85.079999999999842</v>
       </c>
       <c r="AD2" s="23">
-        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AE2" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>39.36</v>
+        <v>12.76</v>
       </c>
       <c r="AF2" s="29">
-        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
       <c r="AG2" s="28">
@@ -3460,7 +3518,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40983</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -3509,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="23">
-        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>-359.98</v>
       </c>
       <c r="V3" s="23">
@@ -3542,18 +3600,18 @@
       </c>
       <c r="AC3" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>262.40999999999985</v>
+        <v>85.079999999999842</v>
       </c>
       <c r="AD3" s="23">
-        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AE3" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>39.36</v>
+        <v>12.76</v>
       </c>
       <c r="AF3" s="29">
-        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
       <c r="AG3" s="28">
@@ -3587,7 +3645,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -3636,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="23">
-        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>-245.25309999999999</v>
       </c>
       <c r="V4" s="23">
@@ -3669,18 +3727,18 @@
       </c>
       <c r="AC4" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>262.40999999999985</v>
+        <v>85.079999999999842</v>
       </c>
       <c r="AD4" s="23">
-        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AE4" s="30">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>39.36</v>
+        <v>12.76</v>
       </c>
       <c r="AF4" s="30">
-        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
       <c r="AG4" s="28">
@@ -3714,7 +3772,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -3763,7 +3821,7 @@
         <v>1.9730999999999999</v>
       </c>
       <c r="U5" s="23">
-        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>195.33689999999999</v>
       </c>
       <c r="V5" s="23">
@@ -3796,18 +3854,18 @@
       </c>
       <c r="AC5" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>262.40999999999985</v>
+        <v>85.079999999999842</v>
       </c>
       <c r="AD5" s="23">
-        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AE5" s="30">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>39.36</v>
+        <v>12.76</v>
       </c>
       <c r="AF5" s="30">
-        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
       <c r="AG5" s="28">
@@ -3841,7 +3899,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -3890,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="23">
-        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>497.9668999999999</v>
       </c>
       <c r="V6" s="23">
@@ -3923,18 +3981,18 @@
       </c>
       <c r="AC6" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>262.40999999999985</v>
+        <v>85.079999999999842</v>
       </c>
       <c r="AD6" s="23">
-        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AE6" s="30">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>39.36</v>
+        <v>12.76</v>
       </c>
       <c r="AF6" s="30">
-        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
       <c r="AG6" s="28">
@@ -3968,7 +4026,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4017,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="23">
-        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>321.98689999999999</v>
       </c>
       <c r="V7" s="23">
@@ -4050,18 +4108,18 @@
       </c>
       <c r="AC7" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>262.40999999999985</v>
+        <v>85.079999999999842</v>
       </c>
       <c r="AD7" s="23">
-        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AE7" s="30">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>39.36</v>
+        <v>12.76</v>
       </c>
       <c r="AF7" s="30">
-        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
       <c r="AG7" s="28">
@@ -4095,7 +4153,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4144,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="23">
-        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>641.74689999999998</v>
       </c>
       <c r="V8" s="23">
@@ -4177,18 +4235,18 @@
       </c>
       <c r="AC8" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>262.40999999999985</v>
+        <v>85.079999999999842</v>
       </c>
       <c r="AD8" s="23">
-        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AE8" s="30">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>39.36</v>
+        <v>12.76</v>
       </c>
       <c r="AF8" s="30">
-        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
       <c r="AG8" s="28">
@@ -4201,7 +4259,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>39</v>
@@ -4222,7 +4280,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40987</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="32">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4271,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="23">
-        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>-330.12200000000001</v>
       </c>
       <c r="V9" s="23">
@@ -4304,18 +4362,18 @@
       </c>
       <c r="AC9" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>262.40999999999985</v>
+        <v>85.079999999999842</v>
       </c>
       <c r="AD9" s="23">
-        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AE9" s="30">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>39.36</v>
+        <v>12.76</v>
       </c>
       <c r="AF9" s="29">
-        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
       <c r="AG9" s="28">
@@ -4328,7 +4386,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>40</v>
@@ -4349,7 +4407,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40987</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="32">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4398,7 +4456,7 @@
         <v>2.8119999999999998</v>
       </c>
       <c r="U10" s="23">
-        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>278.38799999999998</v>
       </c>
       <c r="V10" s="23">
@@ -4431,18 +4489,18 @@
       </c>
       <c r="AC10" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>262.40999999999985</v>
+        <v>85.079999999999842</v>
       </c>
       <c r="AD10" s="23">
-        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AE10" s="30">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>39.36</v>
+        <v>12.76</v>
       </c>
       <c r="AF10" s="29">
-        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
       <c r="AG10" s="28">
@@ -4455,7 +4513,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>39</v>
@@ -4476,7 +4534,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40987</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="32">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4525,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="23">
-        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF DAYTRADE BASE])</f>
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>-50.962000000000003</v>
       </c>
       <c r="V11" s="23">
@@ -4558,18 +4616,18 @@
       </c>
       <c r="AC11" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>262.40999999999985</v>
+        <v>85.079999999999842</v>
       </c>
       <c r="AD11" s="23">
-        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE])</f>
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AE11" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>39.36</v>
+        <v>12.76</v>
       </c>
       <c r="AF11" s="29">
-        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF DAYTRADE BASE]),    0)</f>
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
       <c r="AG11" s="28">
@@ -4578,69 +4636,326 @@
       </c>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="31">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="34">
+        <v>40983</v>
+      </c>
+      <c r="E12" s="33">
+        <v>500</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0.72</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="34">
+        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
+        <v>40988</v>
+      </c>
+      <c r="I12" s="36">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="J12" s="33">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="35">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>360</v>
+      </c>
+      <c r="L12" s="35">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>-360</v>
+      </c>
+      <c r="M12" s="35">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="N12" s="35">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="O12" s="35">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="P12" s="35">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="Q12" s="35">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R12" s="35">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S12" s="35">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>-376.23999999999995</v>
+      </c>
+      <c r="T12" s="35">
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="23">
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
+        <v>-376.23999999999995</v>
+      </c>
+      <c r="V12" s="35">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>-376.23999999999995</v>
+      </c>
+      <c r="W12" s="35">
+        <f>ABS(V12)/E12</f>
+        <v>0.75247999999999993</v>
+      </c>
+      <c r="X12" s="35">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K12*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="33">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>500</v>
+      </c>
+      <c r="Z12" s="37">
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.75247999999999993</v>
+      </c>
+      <c r="AA12" s="37">
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="35">
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="35">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
+        <v>85.079999999999842</v>
+      </c>
+      <c r="AD12" s="35">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE12" s="38">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
+        <v>12.76</v>
+      </c>
+      <c r="AF12" s="38">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
+        <v>90.914900000000003</v>
+      </c>
+      <c r="AG12" s="39">
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="22">
+        <v>40984</v>
+      </c>
+      <c r="E13" s="21">
+        <v>800</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
+        <v>40989</v>
+      </c>
+      <c r="I13" s="32">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="J13" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="23">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>168</v>
+      </c>
+      <c r="L13" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>168</v>
+      </c>
+      <c r="M13" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N13" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="O13" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="P13" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="Q13" s="23">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R13" s="23">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S13" s="23">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>152.01999999999998</v>
+      </c>
+      <c r="T13" s="23">
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="23">
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
+        <v>152.01999999999998</v>
+      </c>
+      <c r="V13" s="30">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>152.01999999999998</v>
+      </c>
+      <c r="W13" s="23">
+        <f>ABS(V13)/E13</f>
+        <v>0.19002499999999997</v>
+      </c>
+      <c r="X13" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K13*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="24">
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.41168749999999998</v>
+      </c>
+      <c r="AA13" s="24">
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
+        <v>0.19002499999999997</v>
+      </c>
+      <c r="AB13" s="23">
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
+        <v>-177.33</v>
+      </c>
+      <c r="AC13" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
+        <v>85.079999999999842</v>
+      </c>
+      <c r="AD13" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE13" s="30">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
+        <v>12.76</v>
+      </c>
+      <c r="AF13" s="30">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
+        <v>90.914900000000003</v>
+      </c>
+      <c r="AG13" s="44">
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
+        <v>-0.53842416881736765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="45">
         <f>SUBTOTAL(104,[ID])</f>
-        <v>10</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="23">
-        <f>329.35</f>
-        <v>329.35</v>
-      </c>
-      <c r="W12" s="31"/>
-      <c r="X12" s="23">
+        <v>12</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="23">
+        <f>298.48</f>
+        <v>298.48</v>
+      </c>
+      <c r="V14" s="23">
+        <f>380</f>
+        <v>380</v>
+      </c>
+      <c r="W14" s="45"/>
+      <c r="X14" s="23">
         <f>SUBTOTAL(109,[IRRF])</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="23">
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="23">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>736.13489999999979</v>
-      </c>
-      <c r="AC12" s="36">
+        <v>558.80489999999975</v>
+      </c>
+      <c r="AC14" s="40">
         <f>SUMPRODUCT(N([ID]=NC[[#Totals],[ID]]),[IRRF NORMAL] + [IRRF DAYTRADE])</f>
-        <v>130.2749</v>
-      </c>
-      <c r="AD12" s="36">
+        <v>103.67490000000001</v>
+      </c>
+      <c r="AD14" s="40">
         <f>NC[[#Totals],[LUCRO MÊS NORMAL]]+8.9</f>
-        <v>139.17490000000001</v>
-      </c>
-      <c r="AE12" s="23">
+        <v>112.57490000000001</v>
+      </c>
+      <c r="AE14" s="23">
         <f>NC[[#Totals],[LUCRO]]-NC[[#Totals],[LUCRO MÊS DAYTRADE]]</f>
-        <v>596.95999999999981</v>
-      </c>
-      <c r="AF12" s="23">
-        <f>NC[[#Totals],[IRRF NORMAL]]/2</f>
-        <v>298.4799999999999</v>
-      </c>
-      <c r="AG12" s="38">
-        <f>NC[[#Totals],[IRRF DAYTRADE]]+NC[[#Totals],[VALOR P/ OP]]</f>
-        <v>627.82999999999993</v>
+        <v>446.22999999999973</v>
+      </c>
+      <c r="AF14" s="23">
+        <f>ROUND(NC[[#Totals],[IRRF NORMAL]] * 0.5,    2) - NC[[#Totals],[LÍQUIDO]]</f>
+        <v>-75.360000000000014</v>
+      </c>
+      <c r="AG14" s="46">
+        <f>NC[[#Totals],[VALOR P/ OP]] + NC[[#Totals],[IRRF NORMAL]] - (NC[[#Totals],[LÍQUIDO]] + NC[[#Totals],[IRRF DAYTRADE]])</f>
+        <v>603.10999999999979</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
-      <c r="D13" s="27"/>
+    <row r="15" spans="1:33">
+      <c r="D15" s="27"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4679,27 +4994,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="42" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4716,11 +5031,11 @@
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4">
@@ -4752,26 +5067,26 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="26" t="s">

--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U14" authorId="0">
+    <comment ref="U16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V14" authorId="0">
+    <comment ref="V16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB14" authorId="0">
+    <comment ref="AB16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC14" authorId="0">
+    <comment ref="AC16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD14" authorId="0">
+    <comment ref="AD16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE14" authorId="0">
+    <comment ref="AE16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF14" authorId="0">
+    <comment ref="AF16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG14" authorId="0">
+    <comment ref="AG16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>ATIVO</t>
   </si>
@@ -376,7 +376,7 @@
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -417,12 +417,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -535,7 +529,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -569,20 +563,12 @@
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,8 +578,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1222,6 +1208,57 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1813,57 +1850,6 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2522,7 +2508,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B16" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -2611,103 +2597,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AG14" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
-  <autoFilter ref="A1:AG13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AG16" totalsRowCount="1" headerRowDxfId="35" dataDxfId="33" totalsRowDxfId="34">
+  <autoFilter ref="A1:AG15"/>
   <sortState ref="A2:AG8">
     <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="64" totalsRowDxfId="32"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="63" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="OPER/TIPO" dataDxfId="62" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="DATA" dataDxfId="61" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="60" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="59" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="58" totalsRowDxfId="26"/>
-    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="57" totalsRowDxfId="25">
+    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="67" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="66" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="OPER/TIPO" dataDxfId="65" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="DATA" dataDxfId="64" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="63" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="62" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="61" totalsRowDxfId="26"/>
+    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="60" totalsRowDxfId="25">
       <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],3,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="DATA BASE" dataDxfId="56" totalsRowDxfId="24">
+    <tableColumn id="31" name="DATA BASE" dataDxfId="59" totalsRowDxfId="24">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="55" totalsRowDxfId="23">
+    <tableColumn id="21" name="PAR" dataDxfId="58" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="54" totalsRowDxfId="22">
+    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="57" totalsRowDxfId="22">
       <calculatedColumnFormula>[QTDE]*[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="53" totalsRowDxfId="21">
+    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="56" totalsRowDxfId="21">
       <calculatedColumnFormula>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="52" totalsRowDxfId="20">
+    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="55" totalsRowDxfId="20">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="51" totalsRowDxfId="19">
+    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="54" totalsRowDxfId="19">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="50" totalsRowDxfId="18">
+    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="53" totalsRowDxfId="18">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORRETAGEM" dataDxfId="49" totalsRowDxfId="17">
+    <tableColumn id="12" name="CORRETAGEM" dataDxfId="52" totalsRowDxfId="17">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="48" totalsRowDxfId="16">
+    <tableColumn id="13" name="ISS" dataDxfId="51" totalsRowDxfId="16">
       <calculatedColumnFormula>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="47" totalsRowDxfId="15">
+    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="50" totalsRowDxfId="15">
       <calculatedColumnFormula>ROUND([CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="46" totalsRowDxfId="14">
+    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="49" totalsRowDxfId="14">
       <calculatedColumnFormula>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="IRRF FONTE" dataDxfId="45" totalsRowDxfId="13">
+    <tableColumn id="33" name="IRRF FONTE" dataDxfId="48" totalsRowDxfId="13">
       <calculatedColumnFormula>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="35" name="LÍQUIDO" totalsRowFunction="custom" totalsRowDxfId="12">
       <calculatedColumnFormula>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</calculatedColumnFormula>
-      <totalsRowFormula>298.48</totalsRowFormula>
+      <totalsRowFormula>119.16+86.11+92.33+179.97</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="17" name="VALOR P/ OP" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</calculatedColumnFormula>
       <totalsRowFormula>380</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="43" totalsRowDxfId="10">
+    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="46" totalsRowDxfId="10">
       <calculatedColumnFormula>ABS(V2)/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="9">
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="9">
       <calculatedColumnFormula>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="41" totalsRowDxfId="8">
+    <tableColumn id="24" name="SALDO" dataDxfId="44" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="40" totalsRowDxfId="7">
+    <tableColumn id="22" name="MED CP" dataDxfId="43" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="39" totalsRowDxfId="6">
+    <tableColumn id="23" name="MED VD" dataDxfId="42" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="5">
+    <tableColumn id="25" name="LUCRO" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="LUCRO MÊS NORMAL" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="4">
+    <tableColumn id="37" name="LUCRO MÊS NORMAL" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="4">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(N([ID]=NC[[#Totals],[ID]]),[IRRF NORMAL] + [IRRF DAYTRADE])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="39" name="LUCRO MÊS DAYTRADE" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="3">
+    <tableColumn id="39" name="LUCRO MÊS DAYTRADE" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="3">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</calculatedColumnFormula>
       <totalsRowFormula>NC[[#Totals],[LUCRO MÊS NORMAL]]+8.9</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="IRRF NORMAL" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="32" name="IRRF NORMAL" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</calculatedColumnFormula>
       <totalsRowFormula>NC[[#Totals],[LUCRO]]-NC[[#Totals],[LUCRO MÊS DAYTRADE]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" name="IRRF DAYTRADE" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="38" name="IRRF DAYTRADE" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</calculatedColumnFormula>
-      <totalsRowFormula>ROUND(NC[[#Totals],[IRRF NORMAL]] * 0.5,    2) - NC[[#Totals],[LÍQUIDO]]</totalsRowFormula>
+      <totalsRowFormula>ROUND(NC[[#Totals],[IRRF NORMAL]] * 0.8,    2) - NC[[#Totals],[LÍQUIDO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" name="RENTABILIDADE" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="30" name="RENTABILIDADE" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</calculatedColumnFormula>
-      <totalsRowFormula>NC[[#Totals],[VALOR P/ OP]] + NC[[#Totals],[IRRF NORMAL]] - (NC[[#Totals],[LÍQUIDO]] + NC[[#Totals],[IRRF DAYTRADE]])</totalsRowFormula>
+      <totalsRowFormula>NC[[#Totals],[VALOR P/ OP]] + NC[[#Totals],[IRRF NORMAL]] - NC[[#Totals],[LÍQUIDO]]</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3217,13 +3203,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE20" sqref="AE20"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -3391,7 +3377,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40983</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -3473,21 +3459,21 @@
       </c>
       <c r="AC2" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD2" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE2" s="29">
+      <c r="AE2" s="28">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF2" s="29">
+        <v>2.21</v>
+      </c>
+      <c r="AF2" s="28">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG2" s="28">
+      <c r="AG2" s="27">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
@@ -3518,7 +3504,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40983</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -3600,21 +3586,21 @@
       </c>
       <c r="AC3" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD3" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE3" s="29">
+      <c r="AE3" s="28">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF3" s="29">
+        <v>2.21</v>
+      </c>
+      <c r="AF3" s="28">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG3" s="28">
+      <c r="AG3" s="27">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
@@ -3645,7 +3631,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -3727,21 +3713,21 @@
       </c>
       <c r="AC4" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD4" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE4" s="30">
+      <c r="AE4" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF4" s="30">
+        <v>2.21</v>
+      </c>
+      <c r="AF4" s="29">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG4" s="28">
+      <c r="AG4" s="27">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
@@ -3772,7 +3758,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -3854,21 +3840,21 @@
       </c>
       <c r="AC5" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD5" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE5" s="30">
+      <c r="AE5" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF5" s="30">
+        <v>2.21</v>
+      </c>
+      <c r="AF5" s="29">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG5" s="28">
+      <c r="AG5" s="27">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0.79647066642582687</v>
       </c>
@@ -3899,7 +3885,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -3981,21 +3967,21 @@
       </c>
       <c r="AC6" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD6" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE6" s="30">
+      <c r="AE6" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF6" s="30">
+        <v>2.21</v>
+      </c>
+      <c r="AF6" s="29">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG6" s="28">
+      <c r="AG6" s="27">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0.7194886363636358</v>
       </c>
@@ -4026,7 +4012,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4108,21 +4094,21 @@
       </c>
       <c r="AC7" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD7" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE7" s="30">
+      <c r="AE7" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF7" s="30">
+        <v>2.21</v>
+      </c>
+      <c r="AF7" s="29">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG7" s="28">
+      <c r="AG7" s="27">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
@@ -4153,7 +4139,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40984</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4235,21 +4221,21 @@
       </c>
       <c r="AC8" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD8" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE8" s="30">
+      <c r="AE8" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF8" s="30">
+        <v>2.21</v>
+      </c>
+      <c r="AF8" s="29">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG8" s="28">
+      <c r="AG8" s="27">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0.73801500163061173</v>
       </c>
@@ -4280,7 +4266,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40987</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4337,7 +4323,7 @@
         <v>-330.12200000000001</v>
       </c>
       <c r="W9" s="23">
-        <f>ABS(V9)/E9</f>
+        <f t="shared" ref="W9:W14" si="1">ABS(V9)/E9</f>
         <v>0.13755083333333334</v>
       </c>
       <c r="X9" s="23">
@@ -4362,21 +4348,21 @@
       </c>
       <c r="AC9" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD9" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE9" s="30">
+      <c r="AE9" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF9" s="29">
+        <v>2.21</v>
+      </c>
+      <c r="AF9" s="28">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG9" s="28">
+      <c r="AG9" s="27">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
@@ -4407,7 +4393,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40987</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4464,7 +4450,7 @@
         <v>608.51</v>
       </c>
       <c r="W10" s="23">
-        <f>ABS(V10)/E10</f>
+        <f t="shared" si="1"/>
         <v>0.2535458333333333</v>
       </c>
       <c r="X10" s="23">
@@ -4489,21 +4475,21 @@
       </c>
       <c r="AC10" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD10" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE10" s="30">
+      <c r="AE10" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF10" s="29">
+        <v>2.21</v>
+      </c>
+      <c r="AF10" s="28">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG10" s="28">
+      <c r="AG10" s="27">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0.84328823889349969</v>
       </c>
@@ -4534,7 +4520,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40987</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4591,7 +4577,7 @@
         <v>-329.34999999999997</v>
       </c>
       <c r="W11" s="23">
-        <f>ABS(V11)/E11</f>
+        <f t="shared" si="1"/>
         <v>0.41168749999999998</v>
       </c>
       <c r="X11" s="23">
@@ -4616,96 +4602,96 @@
       </c>
       <c r="AC11" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD11" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE11" s="29">
+      <c r="AE11" s="28">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF11" s="29">
+        <v>2.21</v>
+      </c>
+      <c r="AF11" s="28">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG11" s="28">
+      <c r="AG11" s="27">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="33">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="22">
         <v>40983</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="21">
         <v>500</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="23">
         <v>0.72</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="22">
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40988</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="21">
         <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="23">
         <f>[QTDE]*[PREÇO]</f>
         <v>360</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="23">
         <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-360</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="23">
         <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.09</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="23">
         <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.13</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="23">
         <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.25</v>
       </c>
-      <c r="P12" s="35">
+      <c r="P12" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="23">
         <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12" s="23">
         <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12" s="23">
         <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-376.23999999999995</v>
       </c>
-      <c r="T12" s="35">
+      <c r="T12" s="23">
         <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
         <v>0</v>
       </c>
@@ -4713,51 +4699,51 @@
         <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>-376.23999999999995</v>
       </c>
-      <c r="V12" s="35">
+      <c r="V12" s="23">
         <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-376.23999999999995</v>
       </c>
-      <c r="W12" s="35">
-        <f>ABS(V12)/E12</f>
+      <c r="W12" s="23">
+        <f t="shared" si="1"/>
         <v>0.75247999999999993</v>
       </c>
-      <c r="X12" s="35">
+      <c r="X12" s="23">
         <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K12*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="33">
+      <c r="Y12" s="21">
         <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>500</v>
       </c>
-      <c r="Z12" s="37">
+      <c r="Z12" s="24">
         <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.75247999999999993</v>
       </c>
-      <c r="AA12" s="37">
+      <c r="AA12" s="24">
         <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="35">
+      <c r="AB12" s="23">
         <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="35">
+      <c r="AC12" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
-      </c>
-      <c r="AD12" s="35">
+        <v>14.719999999999906</v>
+      </c>
+      <c r="AD12" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE12" s="38">
+      <c r="AE12" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF12" s="38">
+        <v>2.21</v>
+      </c>
+      <c r="AF12" s="29">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG12" s="39">
+      <c r="AG12" s="32">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>0</v>
       </c>
@@ -4788,7 +4774,7 @@
         <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
         <v>40989</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
@@ -4840,12 +4826,12 @@
         <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
         <v>152.01999999999998</v>
       </c>
-      <c r="V13" s="30">
+      <c r="V13" s="29">
         <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>152.01999999999998</v>
       </c>
       <c r="W13" s="23">
-        <f>ABS(V13)/E13</f>
+        <f t="shared" si="1"/>
         <v>0.19002499999999997</v>
       </c>
       <c r="X13" s="23">
@@ -4870,92 +4856,343 @@
       </c>
       <c r="AC13" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
-        <v>85.079999999999842</v>
+        <v>14.719999999999906</v>
       </c>
       <c r="AD13" s="23">
         <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AE13" s="30">
+      <c r="AE13" s="29">
         <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
-        <v>12.76</v>
-      </c>
-      <c r="AF13" s="30">
+        <v>2.21</v>
+      </c>
+      <c r="AF13" s="29">
         <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.914900000000003</v>
       </c>
-      <c r="AG13" s="44">
+      <c r="AG13" s="32">
         <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
         <v>-0.53842416881736765</v>
       </c>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="45">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="22">
+        <v>40984</v>
+      </c>
+      <c r="E14" s="21">
+        <v>500</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.64</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
+        <v>40989</v>
+      </c>
+      <c r="I14" s="31">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="J14" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="23">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>320</v>
+      </c>
+      <c r="L14" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>488</v>
+      </c>
+      <c r="M14" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="N14" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="O14" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="P14" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>29.8</v>
+      </c>
+      <c r="Q14" s="23">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="R14" s="23">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S14" s="23">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>455.81</v>
+      </c>
+      <c r="T14" s="23">
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="23">
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
+        <v>455.81</v>
+      </c>
+      <c r="V14" s="29">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>303.79000000000002</v>
+      </c>
+      <c r="W14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.60758000000000001</v>
+      </c>
+      <c r="X14" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K14*SETUP!$H$3,     0),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y14" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="24">
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.75247999999999993</v>
+      </c>
+      <c r="AA14" s="24">
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
+        <v>0.60758000000000001</v>
+      </c>
+      <c r="AB14" s="23">
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
+        <v>-72.44999999999996</v>
+      </c>
+      <c r="AC14" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
+        <v>14.719999999999906</v>
+      </c>
+      <c r="AD14" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE14" s="29">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
+        <v>2.21</v>
+      </c>
+      <c r="AF14" s="29">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
+        <v>90.914900000000003</v>
+      </c>
+      <c r="AG14" s="32">
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
+        <v>-0.19256325749521574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="21">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="22">
+        <v>40984</v>
+      </c>
+      <c r="E15" s="21">
+        <v>100</v>
+      </c>
+      <c r="F15" s="23">
+        <v>1.06</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
+        <v>40989</v>
+      </c>
+      <c r="I15" s="31">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="J15" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="23">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>106</v>
+      </c>
+      <c r="L15" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>594</v>
+      </c>
+      <c r="M15" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="N15" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="O15" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="P15" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>44.7</v>
+      </c>
+      <c r="Q15" s="23">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.89</v>
+      </c>
+      <c r="R15" s="23">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>1.74</v>
+      </c>
+      <c r="S15" s="23">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>545.89</v>
+      </c>
+      <c r="T15" s="23">
+        <f>IF(AND(['[D/N']]="D",    [OPER/TIPO]="CV"),    [LÍQUIDO BASE]*0.01,    0)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="23">
+        <f>[LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE])</f>
+        <v>545.89</v>
+      </c>
+      <c r="V15" s="29">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>90.079999999999984</v>
+      </c>
+      <c r="W15" s="23">
+        <f>ABS(V15)/E15</f>
+        <v>0.90079999999999982</v>
+      </c>
+      <c r="X15" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     K15*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>100</v>
+      </c>
+      <c r="Z15" s="24">
+        <f>IF(['[D/N']]="D",      IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.87989999999999957</v>
+      </c>
+      <c r="AA15" s="24">
+        <f>IF(['[D/N']]="D",     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)),     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO P/ OP],0)))</f>
+        <v>0.90079999999999982</v>
+      </c>
+      <c r="AB15" s="23">
+        <f>IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0)</f>
+        <v>2.0900000000000252</v>
+      </c>
+      <c r="AC15" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="N"),    [LUCRO])</f>
+        <v>14.719999999999906</v>
+      </c>
+      <c r="AD15" s="23">
+        <f>SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    N(['[D/N']]="D"),    [LUCRO]) + SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE])</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AE15" s="29">
+        <f>IF([LUCRO MÊS NORMAL] &gt; 0,     ROUND([LUCRO MÊS NORMAL]*0.15,    2),    0)</f>
+        <v>2.21</v>
+      </c>
+      <c r="AF15" s="29">
+        <f>IF([LUCRO MÊS DAYTRADE] &gt; 0,     ROUND([LUCRO MÊS DAYTRADE]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
+        <v>90.914900000000003</v>
+      </c>
+      <c r="AG15" s="32">
+        <f>IF([MED CP] = 0,    0,    [LUCRO] / ABS([QTDE] * [MED CP]))</f>
+        <v>2.3752699170360568E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="36">
         <f>SUBTOTAL(104,[ID])</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="23">
-        <f>298.48</f>
-        <v>298.48</v>
-      </c>
-      <c r="V14" s="23">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="23">
+        <f>119.16+86.11+92.33+179.97</f>
+        <v>477.56999999999994</v>
+      </c>
+      <c r="V16" s="23">
         <f>380</f>
         <v>380</v>
       </c>
-      <c r="W14" s="45"/>
-      <c r="X14" s="23">
+      <c r="W16" s="36"/>
+      <c r="X16" s="23">
         <f>SUBTOTAL(109,[IRRF])</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="23">
+        <v>0.08</v>
+      </c>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="23">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>558.80489999999975</v>
-      </c>
-      <c r="AC14" s="40">
+        <v>488.44489999999985</v>
+      </c>
+      <c r="AC16" s="37">
         <f>SUMPRODUCT(N([ID]=NC[[#Totals],[ID]]),[IRRF NORMAL] + [IRRF DAYTRADE])</f>
-        <v>103.67490000000001</v>
-      </c>
-      <c r="AD14" s="40">
+        <v>93.124899999999997</v>
+      </c>
+      <c r="AD16" s="37">
         <f>NC[[#Totals],[LUCRO MÊS NORMAL]]+8.9</f>
-        <v>112.57490000000001</v>
-      </c>
-      <c r="AE14" s="23">
+        <v>102.0249</v>
+      </c>
+      <c r="AE16" s="23">
         <f>NC[[#Totals],[LUCRO]]-NC[[#Totals],[LUCRO MÊS DAYTRADE]]</f>
-        <v>446.22999999999973</v>
-      </c>
-      <c r="AF14" s="23">
-        <f>ROUND(NC[[#Totals],[IRRF NORMAL]] * 0.5,    2) - NC[[#Totals],[LÍQUIDO]]</f>
-        <v>-75.360000000000014</v>
-      </c>
-      <c r="AG14" s="46">
-        <f>NC[[#Totals],[VALOR P/ OP]] + NC[[#Totals],[IRRF NORMAL]] - (NC[[#Totals],[LÍQUIDO]] + NC[[#Totals],[IRRF DAYTRADE]])</f>
-        <v>603.10999999999979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="D15" s="27"/>
+        <v>386.41999999999985</v>
+      </c>
+      <c r="AF16" s="23">
+        <f>ROUND(NC[[#Totals],[IRRF NORMAL]] * 0.8,    2) - NC[[#Totals],[LÍQUIDO]]</f>
+        <v>-168.42999999999995</v>
+      </c>
+      <c r="AG16" s="38">
+        <f>NC[[#Totals],[VALOR P/ OP]] + NC[[#Totals],[IRRF NORMAL]] - NC[[#Totals],[LÍQUIDO]]</f>
+        <v>288.84999999999991</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4994,27 +5231,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="34" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5031,11 +5268,11 @@
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4">
@@ -5067,26 +5304,26 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="26" t="s">

--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -423,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -475,6 +475,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -497,6 +498,60 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -534,25 +589,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -571,591 +608,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1194,80 +646,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1301,6 +679,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1320,83 +717,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1476,7 +797,156 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1571,6 +1041,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1628,6 +1116,320 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1647,7 +1449,43 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1685,6 +1523,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1704,6 +1560,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1723,6 +1597,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1742,6 +1634,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1761,6 +1671,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1780,7 +1708,80 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2510,7 +2511,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B16" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -2605,96 +2606,96 @@
     <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="36">
-    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="70" totalsRowDxfId="36"/>
-    <tableColumn id="36" name="U" dataDxfId="39" totalsRowDxfId="35"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="69" totalsRowDxfId="34"/>
-    <tableColumn id="3" name="T" dataDxfId="68" totalsRowDxfId="33"/>
-    <tableColumn id="4" name="DATA" dataDxfId="67" totalsRowDxfId="32"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="66" totalsRowDxfId="31"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="65" totalsRowDxfId="30"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="64" totalsRowDxfId="29"/>
-    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="63" totalsRowDxfId="28">
+    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="36" name="U" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="3" name="T" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="4" name="DATA" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],3,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="DATA BASE" dataDxfId="62" totalsRowDxfId="27">
+    <tableColumn id="31" name="DATA BASE" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="61" totalsRowDxfId="26">
+    <tableColumn id="21" name="PAR" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="60" totalsRowDxfId="25">
+    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="59" totalsRowDxfId="24">
+    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="58" totalsRowDxfId="23">
+    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="57" totalsRowDxfId="22">
+    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="56" totalsRowDxfId="21">
+    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORRETAGEM" dataDxfId="55" totalsRowDxfId="20">
+    <tableColumn id="12" name="CORRETAGEM" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="54" totalsRowDxfId="19">
+    <tableColumn id="13" name="ISS" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="53" totalsRowDxfId="18">
+    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="52" totalsRowDxfId="17">
+    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="IRRF FONTE" dataDxfId="51" totalsRowDxfId="16">
+    <tableColumn id="33" name="IRRF FONTE" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="LÍQUIDO" totalsRowDxfId="15">
+    <tableColumn id="35" name="LÍQUIDO" totalsRowDxfId="28">
       <calculatedColumnFormula>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="50" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="49" totalsRowDxfId="13">
+    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>ABS(W2)/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="12">
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="47" totalsRowDxfId="11">
+    <tableColumn id="24" name="SALDO" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="46" totalsRowDxfId="10">
+    <tableColumn id="22" name="MED CP" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="45" totalsRowDxfId="9">
+    <tableColumn id="23" name="MED VD" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="8">
+    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="LUCRO TRIB. N" dataDxfId="38" totalsRowDxfId="7">
+    <tableColumn id="37" name="LUCRO TRIB. N" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="37" totalsRowDxfId="6">
+    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="IR DEVIDO N" dataDxfId="44" totalsRowDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="32" name="IR DEVIDO N" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="43" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="IR DEVIDO" dataDxfId="42" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="14" name="IR DEVIDO" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="RESGATE" dataDxfId="0" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="26" name="RESGATE" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="LUCRO LÍQUIDO" dataDxfId="41" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="27" name="LUCRO LÍQUIDO" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3205,13 +3206,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD15" sqref="AD15"/>
+      <selection pane="bottomRight" activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5318,6 +5319,9 @@
       <c r="AI16" s="33"/>
       <c r="AJ16" s="33"/>
     </row>
+    <row r="17" spans="31:31" x14ac:dyDescent="0.2">
+      <c r="AE17" s="37"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan3" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>ATIVO</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>OGXPD17</t>
+  </si>
+  <si>
+    <t>BVMFD12</t>
   </si>
 </sst>
 </file>
@@ -466,6 +472,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,7 +482,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -516,24 +522,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -552,6 +540,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -571,43 +577,628 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -646,7 +1237,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -679,25 +1270,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -717,7 +1289,102 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFFF0000"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -797,156 +1464,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1041,24 +1559,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1116,320 +1616,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1449,43 +1635,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1523,24 +1673,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1560,24 +1692,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1597,24 +1711,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1634,24 +1730,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1671,24 +1749,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1708,24 +1768,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1745,43 +1787,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1867,7 +1873,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40969.946527199078" createdVersion="1" refreshedVersion="4" recordCount="28" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q65519" sheet="Planilha1"/>
+    <worksheetSource ref="A1:Q65521" sheet="Planilha1"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="Nº NOTA" numFmtId="0">
@@ -2511,7 +2517,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B16" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -2600,102 +2606,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AJ16" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
-  <autoFilter ref="A1:AJ15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AJ18" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
+  <autoFilter ref="A1:AJ17"/>
   <sortState ref="A2:AG8">
     <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="36">
-    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="36" name="U" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="3" name="T" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="4" name="DATA" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="70" totalsRowDxfId="35"/>
+    <tableColumn id="36" name="U" dataDxfId="69" totalsRowDxfId="34"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="68" totalsRowDxfId="33"/>
+    <tableColumn id="3" name="T" dataDxfId="67" totalsRowDxfId="32"/>
+    <tableColumn id="4" name="DATA" dataDxfId="66" totalsRowDxfId="31"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="65" totalsRowDxfId="30"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="64" totalsRowDxfId="29"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="63" totalsRowDxfId="28"/>
+    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="62" totalsRowDxfId="27">
       <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],3,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="DATA BASE" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="31" name="DATA BASE" dataDxfId="61" totalsRowDxfId="26">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="21" name="PAR" dataDxfId="60" totalsRowDxfId="25">
       <calculatedColumnFormula>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="59" totalsRowDxfId="24">
       <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="58" totalsRowDxfId="23">
       <calculatedColumnFormula>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="57" totalsRowDxfId="22">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="56" totalsRowDxfId="21">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="55" totalsRowDxfId="20">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORRETAGEM" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="12" name="CORRETAGEM" dataDxfId="54" totalsRowDxfId="19">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="13" name="ISS" dataDxfId="53" totalsRowDxfId="18">
       <calculatedColumnFormula>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="52" totalsRowDxfId="17">
       <calculatedColumnFormula>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="51" totalsRowDxfId="16">
       <calculatedColumnFormula>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="IRRF FONTE" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="33" name="IRRF FONTE" dataDxfId="50" totalsRowDxfId="15">
       <calculatedColumnFormula>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="LÍQUIDO" totalsRowDxfId="28">
+    <tableColumn id="35" name="LÍQUIDO" totalsRowDxfId="14">
       <calculatedColumnFormula>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Moeda">
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="49" totalsRowDxfId="13" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="48" totalsRowDxfId="12">
       <calculatedColumnFormula>ABS(W2)/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="11">
       <calculatedColumnFormula>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="24" name="SALDO" dataDxfId="46" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="22" name="MED CP" dataDxfId="45" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="23" name="MED VD" dataDxfId="44" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="LUCRO TRIB. N" dataDxfId="13" totalsRowDxfId="12">
-      <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
+    <tableColumn id="37" name="LUCRO TRIB. N" dataDxfId="42" totalsRowDxfId="6">
+      <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="41" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="IR DEVIDO N" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="32" name="IR DEVIDO N" dataDxfId="40" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="39" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="IR DEVIDO" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="14" name="IR DEVIDO" dataDxfId="38" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="RESGATE" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="26" name="RESGATE" dataDxfId="37" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="LUCRO LÍQUIDO" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="27" name="LUCRO LÍQUIDO" dataDxfId="36" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3075,6 +3081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan1"/>
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3206,13 +3213,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ17"/>
+  <sheetPr codeName="Plan2"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC17" sqref="AC17"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3238,7 +3246,7 @@
     <col min="19" max="19" width="12.5703125" style="15" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" style="15" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.85546875" style="15" customWidth="1"/>
     <col min="24" max="24" width="11.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="8.5703125" style="15" hidden="1" customWidth="1"/>
@@ -3474,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="23">
@@ -3610,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="23">
@@ -3746,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="23">
@@ -3882,7 +3890,7 @@
         <v>197.30999999999997</v>
       </c>
       <c r="AD5" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="23">
@@ -4018,7 +4026,7 @@
         <v>126.62999999999988</v>
       </c>
       <c r="AD6" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="23">
@@ -4154,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE7" s="23">
@@ -4290,7 +4298,7 @@
         <v>135.77999999999997</v>
       </c>
       <c r="AD8" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="23">
@@ -4426,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="23">
@@ -4562,7 +4570,7 @@
         <v>281.19999999999993</v>
       </c>
       <c r="AD10" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="23">
@@ -4698,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE11" s="23">
@@ -4834,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="23">
@@ -4970,7 +4978,7 @@
         <v>-177.33000000000004</v>
       </c>
       <c r="AD13" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="23">
@@ -5106,7 +5114,7 @@
         <v>-72.44999999999996</v>
       </c>
       <c r="AD14" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE14" s="23">
@@ -5138,9 +5146,7 @@
       <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>69</v>
-      </c>
+      <c r="B15" s="21"/>
       <c r="C15" s="21" t="s">
         <v>45</v>
       </c>
@@ -5244,83 +5250,357 @@
         <v>2.0900000000000252</v>
       </c>
       <c r="AD15" s="23">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
-        <v>14.719999999999878</v>
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
       </c>
       <c r="AE15" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
-        <v>478.50999999999988</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="28">
         <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
-        <v>90.92</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="27">
         <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>93.13</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="27">
         <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
-        <v>102.03</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="27">
         <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
-        <v>391.1999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="22">
+        <v>40990</v>
+      </c>
+      <c r="F16" s="21">
+        <v>700</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
+        <v>40995</v>
+      </c>
+      <c r="J16" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="K16" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>420</v>
+      </c>
+      <c r="M16" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>-420</v>
+      </c>
+      <c r="N16" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="O16" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.15</v>
+      </c>
+      <c r="P16" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q16" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R16" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S16" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T16" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>-436.32</v>
+      </c>
+      <c r="U16" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>-436.32</v>
+      </c>
+      <c r="W16" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>-436.32</v>
+      </c>
+      <c r="X16" s="23">
+        <f>ABS(W16)/F16</f>
+        <v>0.62331428571428571</v>
+      </c>
+      <c r="Y16" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L16*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>700</v>
+      </c>
+      <c r="AA16" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.62331428571428571</v>
+      </c>
+      <c r="AB16" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="28">
+        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="27">
+        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="28">
+        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="27">
+        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="22">
+        <v>40991</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
+        <v>40996</v>
+      </c>
+      <c r="J17" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="K17" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>442</v>
+      </c>
+      <c r="M17" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>-442</v>
+      </c>
+      <c r="N17" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="O17" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="P17" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q17" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R17" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S17" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T17" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>-458.35</v>
+      </c>
+      <c r="U17" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>-458.35</v>
+      </c>
+      <c r="W17" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>-458.35</v>
+      </c>
+      <c r="X17" s="23">
+        <f>ABS(W17)/F17</f>
+        <v>0.26961764705882352</v>
+      </c>
+      <c r="Y17" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L17*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>1700</v>
+      </c>
+      <c r="AA17" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.26961764705882352</v>
+      </c>
+      <c r="AB17" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>14.719999999999878</v>
+      </c>
+      <c r="AE17" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>478.50999999999988</v>
+      </c>
+      <c r="AF17" s="28">
+        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
+        <v>2.21</v>
+      </c>
+      <c r="AG17" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>90.92</v>
+      </c>
+      <c r="AH17" s="27">
+        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
+        <v>93.13</v>
+      </c>
+      <c r="AI17" s="28">
+        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>102.03</v>
+      </c>
+      <c r="AJ17" s="27">
+        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>391.1999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18" s="31">
         <f>SUBTOTAL(104,NC[ID])</f>
-        <v>14</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="23">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="23">
         <f>SUBTOTAL(109,NC[IRRF])</f>
         <v>0.08</v>
       </c>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="23">
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="23">
         <f>SUBTOTAL(109,NC[LUCRO P/ OP])</f>
         <v>493.22999999999979</v>
       </c>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
     </row>
-    <row r="17" spans="31:31" x14ac:dyDescent="0.2">
-      <c r="AE17" s="37"/>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AE19" s="34"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -5339,6 +5619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan3"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5359,27 +5640,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5396,11 +5677,11 @@
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -5432,26 +5713,26 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
@@ -5519,6 +5800,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>ATIVO</t>
   </si>
@@ -247,12 +247,6 @@
     <t>LUCRO TRIB. DT</t>
   </si>
   <si>
-    <t>IR DEVIDO N</t>
-  </si>
-  <si>
-    <t>LUCRO TRIB. N</t>
-  </si>
-  <si>
     <t>LUCRO LÍQUIDO</t>
   </si>
   <si>
@@ -263,6 +257,18 @@
   </si>
   <si>
     <t>BVMFD12</t>
+  </si>
+  <si>
+    <t>OGXPD16</t>
+  </si>
+  <si>
+    <t>LUCRO [N]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRIB. [N]</t>
+  </si>
+  <si>
+    <t>IR [N]</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -482,28 +488,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -611,7 +621,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFFF0000"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -653,42 +663,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -708,6 +682,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -727,24 +737,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -764,6 +756,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -783,24 +793,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -838,348 +830,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1217,6 +867,427 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1275,7 +1346,64 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1312,7 +1440,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1331,7 +1459,197 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1369,293 +1687,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1873,7 +1906,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40969.946527199078" createdVersion="1" refreshedVersion="4" recordCount="28" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q65521" sheet="Planilha1"/>
+    <worksheetSource ref="A1:Q65524" sheet="Planilha1"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="Nº NOTA" numFmtId="0">
@@ -2517,7 +2550,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B16" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -2606,103 +2639,106 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AJ18" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
-  <autoFilter ref="A1:AJ17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AK21" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
+  <autoFilter ref="A1:AK20"/>
   <sortState ref="A2:AG8">
     <sortCondition ref="A1:A8"/>
   </sortState>
-  <tableColumns count="36">
-    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="70" totalsRowDxfId="35"/>
-    <tableColumn id="36" name="U" dataDxfId="69" totalsRowDxfId="34"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="68" totalsRowDxfId="33"/>
-    <tableColumn id="3" name="T" dataDxfId="67" totalsRowDxfId="32"/>
-    <tableColumn id="4" name="DATA" dataDxfId="66" totalsRowDxfId="31"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="65" totalsRowDxfId="30"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="64" totalsRowDxfId="29"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="63" totalsRowDxfId="28"/>
-    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="62" totalsRowDxfId="27">
-      <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],3,1)</calculatedColumnFormula>
+  <tableColumns count="37">
+    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="72" totalsRowDxfId="36"/>
+    <tableColumn id="36" name="U" dataDxfId="71" totalsRowDxfId="35"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="70" totalsRowDxfId="34"/>
+    <tableColumn id="3" name="T" dataDxfId="69" totalsRowDxfId="33"/>
+    <tableColumn id="4" name="DATA" dataDxfId="68" totalsRowDxfId="32"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="67" totalsRowDxfId="31"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="66" totalsRowDxfId="30"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="65" totalsRowDxfId="29"/>
+    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="41" totalsRowDxfId="28">
+      <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="DATA BASE" dataDxfId="61" totalsRowDxfId="26">
+    <tableColumn id="31" name="DATA BASE" dataDxfId="64" totalsRowDxfId="27">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="60" totalsRowDxfId="25">
+    <tableColumn id="21" name="PAR" dataDxfId="63" totalsRowDxfId="26">
       <calculatedColumnFormula>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="59" totalsRowDxfId="24">
+    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="62" totalsRowDxfId="25">
       <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="58" totalsRowDxfId="23">
+    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="61" totalsRowDxfId="24">
       <calculatedColumnFormula>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="57" totalsRowDxfId="22">
+    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="60" totalsRowDxfId="23">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="56" totalsRowDxfId="21">
+    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="59" totalsRowDxfId="22">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="55" totalsRowDxfId="20">
+    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="58" totalsRowDxfId="21">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORRETAGEM" dataDxfId="54" totalsRowDxfId="19">
+    <tableColumn id="12" name="CORRETAGEM" dataDxfId="57" totalsRowDxfId="20">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="53" totalsRowDxfId="18">
+    <tableColumn id="13" name="ISS" dataDxfId="56" totalsRowDxfId="19">
       <calculatedColumnFormula>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="52" totalsRowDxfId="17">
+    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="55" totalsRowDxfId="18">
       <calculatedColumnFormula>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="51" totalsRowDxfId="16">
+    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="54" totalsRowDxfId="17">
       <calculatedColumnFormula>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="IRRF FONTE" dataDxfId="50" totalsRowDxfId="15">
+    <tableColumn id="33" name="IRRF FONTE" dataDxfId="53" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="LÍQUIDO" totalsRowDxfId="14">
+    <tableColumn id="35" name="LÍQUIDO" totalsRowDxfId="15">
       <calculatedColumnFormula>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="49" totalsRowDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="52" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="48" totalsRowDxfId="12">
+    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="51" totalsRowDxfId="13">
       <calculatedColumnFormula>ABS(W2)/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="11">
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="12">
       <calculatedColumnFormula>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="46" totalsRowDxfId="10">
+    <tableColumn id="24" name="SALDO" dataDxfId="49" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="45" totalsRowDxfId="9">
+    <tableColumn id="22" name="MED CP" dataDxfId="48" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="44" totalsRowDxfId="8">
+    <tableColumn id="23" name="MED VD" dataDxfId="47" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="7">
+    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="LUCRO TRIB. N" dataDxfId="42" totalsRowDxfId="6">
+    <tableColumn id="1" name="LUCRO [N]" dataDxfId="40" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="41" totalsRowDxfId="5">
+    <tableColumn id="37" name=" TRIB. [N]" dataDxfId="39" totalsRowDxfId="6">
+      <calculatedColumnFormula>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="45" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="IR DEVIDO N" dataDxfId="40" totalsRowDxfId="4" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</calculatedColumnFormula>
+    <tableColumn id="32" name="IR [N]" dataDxfId="44" totalsRowDxfId="4" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="39" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="43" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="IR DEVIDO" dataDxfId="38" totalsRowDxfId="2" dataCellStyle="Moeda">
-      <calculatedColumnFormula>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</calculatedColumnFormula>
+    <tableColumn id="14" name="IR DEVIDO" dataDxfId="42" totalsRowDxfId="2" dataCellStyle="Moeda">
+      <calculatedColumnFormula>NC[IR '[N']] + NC[IR DEVIDO DT]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="26" name="RESGATE" dataDxfId="37" totalsRowDxfId="1" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="LUCRO LÍQUIDO" dataDxfId="36" totalsRowDxfId="0" dataCellStyle="Moeda">
-      <calculatedColumnFormula>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</calculatedColumnFormula>
+    <tableColumn id="27" name="LUCRO LÍQUIDO" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3214,13 +3250,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan2"/>
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3228,13 +3264,12 @@
     <col min="1" max="1" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="16" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="15" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" style="17" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" style="15" hidden="1" customWidth="1"/>
@@ -3253,23 +3288,24 @@
     <col min="26" max="26" width="9.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="11.140625" style="15" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="11.7109375" style="15" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" style="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9" style="15" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="11.5703125" style="15"/>
+    <col min="29" max="29" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="11.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>0</v>
@@ -3353,28 +3389,31 @@
         <v>62</v>
       </c>
       <c r="AD1" s="18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AE1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AG1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -3398,8 +3437,8 @@
         <v>7</v>
       </c>
       <c r="I2" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40983</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40981</v>
       </c>
       <c r="J2" s="29">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -3486,31 +3525,35 @@
         <v>0</v>
       </c>
       <c r="AE2" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="27">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG2" s="27">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="27">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI2" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -3534,8 +3577,8 @@
         <v>7</v>
       </c>
       <c r="I3" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40983</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40981</v>
       </c>
       <c r="J3" s="29">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -3622,31 +3665,35 @@
         <v>0</v>
       </c>
       <c r="AE3" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="27">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG3" s="27">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="27">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI3" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -3670,8 +3717,8 @@
         <v>16</v>
       </c>
       <c r="I4" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40984</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40982</v>
       </c>
       <c r="J4" s="29">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -3758,31 +3805,35 @@
         <v>0</v>
       </c>
       <c r="AE4" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG4" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI4" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -3806,8 +3857,8 @@
         <v>16</v>
       </c>
       <c r="I5" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40984</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40982</v>
       </c>
       <c r="J5" s="29">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -3894,31 +3945,35 @@
         <v>0</v>
       </c>
       <c r="AE5" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG5" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI5" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -3942,8 +3997,8 @@
         <v>7</v>
       </c>
       <c r="I6" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40984</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40982</v>
       </c>
       <c r="J6" s="29">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -4030,31 +4085,35 @@
         <v>0</v>
       </c>
       <c r="AE6" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG6" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI6" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -4078,8 +4137,8 @@
         <v>7</v>
       </c>
       <c r="I7" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40984</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40982</v>
       </c>
       <c r="J7" s="29">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -4166,31 +4225,35 @@
         <v>0</v>
       </c>
       <c r="AE7" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG7" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI7" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -4214,8 +4277,8 @@
         <v>7</v>
       </c>
       <c r="I8" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40984</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40982</v>
       </c>
       <c r="J8" s="29">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -4302,31 +4365,35 @@
         <v>0</v>
       </c>
       <c r="AE8" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG8" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI8" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -4350,8 +4417,8 @@
         <v>16</v>
       </c>
       <c r="I9" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40987</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40983</v>
       </c>
       <c r="J9" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -4438,31 +4505,35 @@
         <v>0</v>
       </c>
       <c r="AE9" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="27">
+      <c r="AG9" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="27">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI9" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -4486,8 +4557,8 @@
         <v>16</v>
       </c>
       <c r="I10" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40987</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40983</v>
       </c>
       <c r="J10" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -4574,31 +4645,35 @@
         <v>0</v>
       </c>
       <c r="AE10" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="27">
+      <c r="AG10" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="27">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI10" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -4622,8 +4697,8 @@
         <v>7</v>
       </c>
       <c r="I11" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40987</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40983</v>
       </c>
       <c r="J11" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -4710,31 +4785,35 @@
         <v>0</v>
       </c>
       <c r="AE11" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="27">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG11" s="27">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="27">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI11" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -4758,8 +4837,8 @@
         <v>7</v>
       </c>
       <c r="I12" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40988</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40984</v>
       </c>
       <c r="J12" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -4846,31 +4925,35 @@
         <v>0</v>
       </c>
       <c r="AE12" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG12" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI12" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -4894,8 +4977,8 @@
         <v>7</v>
       </c>
       <c r="I13" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40989</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40987</v>
       </c>
       <c r="J13" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -4982,31 +5065,35 @@
         <v>0</v>
       </c>
       <c r="AE13" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG13" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI13" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -5030,8 +5117,8 @@
         <v>7</v>
       </c>
       <c r="I14" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40989</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40987</v>
       </c>
       <c r="J14" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -5118,31 +5205,35 @@
         <v>0</v>
       </c>
       <c r="AE14" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG14" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI14" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -5166,8 +5257,8 @@
         <v>7</v>
       </c>
       <c r="I15" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40989</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40987</v>
       </c>
       <c r="J15" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -5254,37 +5345,41 @@
         <v>0</v>
       </c>
       <c r="AE15" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG15" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
       <c r="AI15" s="27">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>15</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>38</v>
@@ -5302,8 +5397,8 @@
         <v>7</v>
       </c>
       <c r="I16" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40995</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40991</v>
       </c>
       <c r="J16" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -5390,39 +5485,41 @@
         <v>0</v>
       </c>
       <c r="AE16" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
       <c r="AG16" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="28">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+      <c r="AI16" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>38</v>
@@ -5440,8 +5537,8 @@
         <v>7</v>
       </c>
       <c r="I17" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],3,1)</f>
-        <v>40996</v>
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40994</v>
       </c>
       <c r="J17" s="30">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
@@ -5525,82 +5622,512 @@
       </c>
       <c r="AD17" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
-        <v>14.719999999999878</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="22">
+        <v>40994</v>
+      </c>
+      <c r="F18" s="21">
+        <v>700</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40995</v>
+      </c>
+      <c r="J18" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="K18" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>119.00000000000001</v>
+      </c>
+      <c r="M18" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>119.00000000000001</v>
+      </c>
+      <c r="N18" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="O18" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="P18" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="Q18" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R18" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S18" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T18" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>103.08</v>
+      </c>
+      <c r="U18" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>103.08</v>
+      </c>
+      <c r="W18" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>103.08</v>
+      </c>
+      <c r="X18" s="23">
+        <f>ABS(W18)/F18</f>
+        <v>0.14725714285714286</v>
+      </c>
+      <c r="Y18" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L18*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.62331428571428571</v>
+      </c>
+      <c r="AB18" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>0.14725714285714286</v>
+      </c>
+      <c r="AC18" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>-333.24</v>
+      </c>
+      <c r="AD18" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="22">
+        <v>40997</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1700</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0.08</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40998</v>
+      </c>
+      <c r="J19" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="K19" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>136</v>
+      </c>
+      <c r="M19" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>136</v>
+      </c>
+      <c r="N19" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="O19" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="P19" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="Q19" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R19" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S19" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T19" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>120.05999999999997</v>
+      </c>
+      <c r="U19" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>120.05999999999997</v>
+      </c>
+      <c r="W19" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>120.05999999999997</v>
+      </c>
+      <c r="X19" s="23">
+        <f>ABS(W19)/F19</f>
+        <v>7.0623529411764696E-2</v>
+      </c>
+      <c r="Y19" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L19*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.26961764705882352</v>
+      </c>
+      <c r="AB19" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>7.0623529411764696E-2</v>
+      </c>
+      <c r="AC19" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>-338.29</v>
+      </c>
+      <c r="AD19" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="22">
+        <v>40997</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1900</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>40998</v>
+      </c>
+      <c r="J20" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="K20" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>456</v>
+      </c>
+      <c r="M20" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>-320</v>
+      </c>
+      <c r="N20" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="O20" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="P20" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="Q20" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>29.8</v>
+      </c>
+      <c r="R20" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="S20" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="T20" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>-352.33000000000004</v>
+      </c>
+      <c r="U20" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>-352.33000000000004</v>
+      </c>
+      <c r="W20" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>-472.39</v>
+      </c>
+      <c r="X20" s="23">
+        <f>ABS(W20)/F20</f>
+        <v>0.24862631578947367</v>
+      </c>
+      <c r="Y20" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L20*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>1900</v>
+      </c>
+      <c r="AA20" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.24862631578947367</v>
+      </c>
+      <c r="AB20" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>-656.81000000000017</v>
+      </c>
+      <c r="AE20" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>-656.81000000000017</v>
+      </c>
+      <c r="AF20" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AF17" s="28">
-        <f>IF(NC[LUCRO TRIB. N] &gt; 0,     ROUND(NC[LUCRO TRIB. N]*0.15,    2),    0)</f>
-        <v>2.21</v>
-      </c>
-      <c r="AG17" s="28">
+      <c r="AG20" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="28">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>90.92</v>
       </c>
-      <c r="AH17" s="27">
-        <f>NC[IR DEVIDO N] + NC[IR DEVIDO DT]</f>
-        <v>93.13</v>
-      </c>
-      <c r="AI17" s="28">
-        <f>IF(NC[U] = "U", NC[IR DEVIDO] + 8.9, 0)</f>
-        <v>102.03</v>
-      </c>
-      <c r="AJ17" s="27">
-        <f>NC[LUCRO TRIB. N]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
-        <v>391.1999999999997</v>
+      <c r="AI20" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>90.92</v>
+      </c>
+      <c r="AJ20" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>99.820000000000007</v>
+      </c>
+      <c r="AK20" s="27">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>-278.12000000000029</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" s="31">
         <f>SUBTOTAL(104,NC[ID])</f>
-        <v>16</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="23">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="23">
         <f>SUBTOTAL(109,NC[IRRF])</f>
         <v>0.08</v>
       </c>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="23">
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="23">
         <f>SUBTOTAL(109,NC[LUCRO P/ OP])</f>
-        <v>493.22999999999979</v>
-      </c>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
+        <v>-178.30000000000024</v>
+      </c>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="38">
+        <f>SUBTOTAL(109,NC[LUCRO LÍQUIDO])</f>
+        <v>-278.12000000000029</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AE19" s="34"/>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AE22" s="34"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
   <si>
     <t>ATIVO</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>IR [N]</t>
+  </si>
+  <si>
+    <t>VALED42</t>
   </si>
 </sst>
 </file>
@@ -479,6 +482,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,9 +494,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1214,9 +1217,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1232,6 +1232,84 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1251,444 +1329,369 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1906,7 +1909,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40969.946527199078" createdVersion="1" refreshedVersion="4" recordCount="28" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q65524" sheet="Planilha1"/>
+    <worksheetSource ref="A1:Q65531" sheet="Planilha1"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="Nº NOTA" numFmtId="0">
@@ -2639,8 +2642,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AK21" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
-  <autoFilter ref="A1:AK20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AK28" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
+  <autoFilter ref="A1:AK27"/>
   <sortState ref="A2:AG8">
     <sortCondition ref="A1:A8"/>
   </sortState>
@@ -2653,91 +2656,91 @@
     <tableColumn id="5" name="QTDE" dataDxfId="67" totalsRowDxfId="31"/>
     <tableColumn id="6" name="PREÇO" dataDxfId="66" totalsRowDxfId="30"/>
     <tableColumn id="7" name="[D/N]" dataDxfId="65" totalsRowDxfId="29"/>
-    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="41" totalsRowDxfId="28">
+    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="64" totalsRowDxfId="28">
       <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="DATA BASE" dataDxfId="64" totalsRowDxfId="27">
+    <tableColumn id="31" name="DATA BASE" dataDxfId="63" totalsRowDxfId="27">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="63" totalsRowDxfId="26">
+    <tableColumn id="21" name="PAR" dataDxfId="62" totalsRowDxfId="26">
       <calculatedColumnFormula>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="62" totalsRowDxfId="25">
+    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="61" totalsRowDxfId="25">
       <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="61" totalsRowDxfId="24">
+    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="60" totalsRowDxfId="24">
       <calculatedColumnFormula>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="60" totalsRowDxfId="23">
+    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="59" totalsRowDxfId="23">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="59" totalsRowDxfId="22">
+    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="58" totalsRowDxfId="22">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="58" totalsRowDxfId="21">
+    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="57" totalsRowDxfId="21">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORRETAGEM" dataDxfId="57" totalsRowDxfId="20">
+    <tableColumn id="12" name="CORRETAGEM" dataDxfId="56" totalsRowDxfId="20">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="56" totalsRowDxfId="19">
+    <tableColumn id="13" name="ISS" dataDxfId="55" totalsRowDxfId="19">
       <calculatedColumnFormula>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="55" totalsRowDxfId="18">
+    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="54" totalsRowDxfId="18">
       <calculatedColumnFormula>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="54" totalsRowDxfId="17">
+    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="53" totalsRowDxfId="17">
       <calculatedColumnFormula>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="IRRF FONTE" dataDxfId="53" totalsRowDxfId="16">
+    <tableColumn id="33" name="IRRF FONTE" dataDxfId="52" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="35" name="LÍQUIDO" totalsRowDxfId="15">
       <calculatedColumnFormula>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="52" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="51" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="51" totalsRowDxfId="13">
+    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="50" totalsRowDxfId="13">
       <calculatedColumnFormula>ABS(W2)/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="12">
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="12">
       <calculatedColumnFormula>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="49" totalsRowDxfId="11">
+    <tableColumn id="24" name="SALDO" dataDxfId="48" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="48" totalsRowDxfId="10">
+    <tableColumn id="22" name="MED CP" dataDxfId="47" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="47" totalsRowDxfId="9">
+    <tableColumn id="23" name="MED VD" dataDxfId="46" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="8">
+    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="LUCRO [N]" dataDxfId="40" totalsRowDxfId="7">
+    <tableColumn id="1" name="LUCRO [N]" dataDxfId="44" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name=" TRIB. [N]" dataDxfId="39" totalsRowDxfId="6">
+    <tableColumn id="37" name=" TRIB. [N]" dataDxfId="43" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="45" totalsRowDxfId="5">
+    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="42" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="IR [N]" dataDxfId="44" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="32" name="IR [N]" dataDxfId="41" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="43" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="40" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="IR DEVIDO" dataDxfId="42" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="14" name="IR DEVIDO" dataDxfId="39" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[IR '[N']] + NC[IR DEVIDO DT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="RESGATE" dataDxfId="37" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="26" name="RESGATE" dataDxfId="38" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="LUCRO LÍQUIDO" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="27" name="LUCRO LÍQUIDO" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3250,13 +3253,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan2"/>
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3290,7 +3293,7 @@
     <col min="28" max="28" width="11.7109375" style="15" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" style="15" bestFit="1" customWidth="1"/>
@@ -4146,7 +4149,7 @@
       </c>
       <c r="K7" s="21">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
@@ -5266,7 +5269,7 @@
       </c>
       <c r="K15" s="21">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
@@ -5317,7 +5320,7 @@
         <v>90.079999999999984</v>
       </c>
       <c r="X15" s="23">
-        <f>ABS(W15)/F15</f>
+        <f t="shared" ref="X15:X20" si="2">ABS(W15)/F15</f>
         <v>0.90079999999999982</v>
       </c>
       <c r="Y15" s="23">
@@ -5457,7 +5460,7 @@
         <v>-436.32</v>
       </c>
       <c r="X16" s="23">
-        <f>ABS(W16)/F16</f>
+        <f t="shared" si="2"/>
         <v>0.62331428571428571</v>
       </c>
       <c r="Y16" s="23">
@@ -5546,7 +5549,7 @@
       </c>
       <c r="K17" s="21">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
@@ -5597,7 +5600,7 @@
         <v>-458.35</v>
       </c>
       <c r="X17" s="23">
-        <f>ABS(W17)/F17</f>
+        <f t="shared" si="2"/>
         <v>0.26961764705882352</v>
       </c>
       <c r="Y17" s="23">
@@ -5737,7 +5740,7 @@
         <v>103.08</v>
       </c>
       <c r="X18" s="23">
-        <f>ABS(W18)/F18</f>
+        <f t="shared" si="2"/>
         <v>0.14725714285714286</v>
       </c>
       <c r="Y18" s="23">
@@ -5826,7 +5829,7 @@
       </c>
       <c r="K19" s="21">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
@@ -5877,7 +5880,7 @@
         <v>120.05999999999997</v>
       </c>
       <c r="X19" s="23">
-        <f>ABS(W19)/F19</f>
+        <f t="shared" si="2"/>
         <v>7.0623529411764696E-2</v>
       </c>
       <c r="Y19" s="23">
@@ -6019,7 +6022,7 @@
         <v>-472.39</v>
       </c>
       <c r="X20" s="23">
-        <f>ABS(W20)/F20</f>
+        <f t="shared" si="2"/>
         <v>0.24862631578947367</v>
       </c>
       <c r="Y20" s="23">
@@ -6076,58 +6079,1040 @@
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="22">
+        <v>40998</v>
+      </c>
+      <c r="F21" s="21">
+        <v>1200</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0.38</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41001</v>
+      </c>
+      <c r="J21" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41029</v>
+      </c>
+      <c r="K21" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>2</v>
+      </c>
+      <c r="L21" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>456</v>
+      </c>
+      <c r="M21" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>-456</v>
+      </c>
+      <c r="N21" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="O21" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="P21" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="Q21" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R21" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S21" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T21" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>-472.36</v>
+      </c>
+      <c r="U21" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>-472.36</v>
+      </c>
+      <c r="W21" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>-472.36</v>
+      </c>
+      <c r="X21" s="23">
+        <f>ABS(W21)/F21</f>
+        <v>0.39363333333333334</v>
+      </c>
+      <c r="Y21" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L21*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>1300</v>
+      </c>
+      <c r="AA21" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.46309999999999996</v>
+      </c>
+      <c r="AB21" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="28">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="22">
+        <v>41001</v>
+      </c>
+      <c r="F22" s="21">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41002</v>
+      </c>
+      <c r="J22" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41029</v>
+      </c>
+      <c r="K22" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>3</v>
+      </c>
+      <c r="L22" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>480</v>
+      </c>
+      <c r="M22" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>-480</v>
+      </c>
+      <c r="N22" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="O22" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="P22" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="Q22" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R22" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S22" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T22" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>-496.4</v>
+      </c>
+      <c r="U22" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>-496.4</v>
+      </c>
+      <c r="W22" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>-496.4</v>
+      </c>
+      <c r="X22" s="23">
+        <f>ABS(W22)/F22</f>
+        <v>0.16546666666666665</v>
+      </c>
+      <c r="Y22" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L22*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>3000</v>
+      </c>
+      <c r="AA22" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.16546666666666665</v>
+      </c>
+      <c r="AB22" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="28">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="22">
+        <v>41002</v>
+      </c>
+      <c r="F23" s="21">
+        <v>1900</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41003</v>
+      </c>
+      <c r="J23" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41029</v>
+      </c>
+      <c r="K23" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>171</v>
+      </c>
+      <c r="M23" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>171</v>
+      </c>
+      <c r="N23" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="O23" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="P23" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="Q23" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R23" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S23" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T23" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>155.01999999999998</v>
+      </c>
+      <c r="U23" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>155.01999999999998</v>
+      </c>
+      <c r="W23" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>155.01999999999998</v>
+      </c>
+      <c r="X23" s="23">
+        <f>ABS(W23)/F23</f>
+        <v>8.1589473684210517E-2</v>
+      </c>
+      <c r="Y23" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L23*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.24862631578947367</v>
+      </c>
+      <c r="AB23" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>8.1589473684210517E-2</v>
+      </c>
+      <c r="AC23" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>-317.37</v>
+      </c>
+      <c r="AD23" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="28">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="22">
+        <v>41003</v>
+      </c>
+      <c r="F24" s="21">
+        <v>1300</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41004</v>
+      </c>
+      <c r="J24" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41029</v>
+      </c>
+      <c r="K24" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>65</v>
+      </c>
+      <c r="M24" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>65</v>
+      </c>
+      <c r="N24" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="O24" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="P24" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="Q24" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R24" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S24" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T24" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>49.16</v>
+      </c>
+      <c r="U24" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>49.16</v>
+      </c>
+      <c r="W24" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>49.16</v>
+      </c>
+      <c r="X24" s="23">
+        <f>ABS(W24)/F24</f>
+        <v>3.7815384615384612E-2</v>
+      </c>
+      <c r="Y24" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L24*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.46309999999999996</v>
+      </c>
+      <c r="AB24" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>3.7815384615384612E-2</v>
+      </c>
+      <c r="AC24" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>-552.87</v>
+      </c>
+      <c r="AD24" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="28">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="22">
+        <v>41004</v>
+      </c>
+      <c r="F25" s="21">
+        <v>800</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41005</v>
+      </c>
+      <c r="J25" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41029</v>
+      </c>
+      <c r="K25" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>400</v>
+      </c>
+      <c r="M25" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>-400</v>
+      </c>
+      <c r="N25" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="O25" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P25" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="Q25" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R25" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S25" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T25" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>-416.28999999999996</v>
+      </c>
+      <c r="U25" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>-416.28999999999996</v>
+      </c>
+      <c r="W25" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>-416.28999999999996</v>
+      </c>
+      <c r="X25" s="23">
+        <f>ABS(W25)/F25</f>
+        <v>0.52036249999999995</v>
+      </c>
+      <c r="Y25" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L25*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>800</v>
+      </c>
+      <c r="AA25" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.52036249999999995</v>
+      </c>
+      <c r="AB25" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="28">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="22">
+        <v>41010</v>
+      </c>
+      <c r="F26" s="21">
+        <v>3000</v>
+      </c>
+      <c r="G26" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41011</v>
+      </c>
+      <c r="J26" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41029</v>
+      </c>
+      <c r="K26" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>3</v>
+      </c>
+      <c r="L26" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>30</v>
+      </c>
+      <c r="M26" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>30</v>
+      </c>
+      <c r="N26" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="P26" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="Q26" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R26" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S26" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T26" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>14.2</v>
+      </c>
+      <c r="U26" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>14.2</v>
+      </c>
+      <c r="W26" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>14.2</v>
+      </c>
+      <c r="X26" s="23">
+        <f>ABS(W26)/F26</f>
+        <v>4.7333333333333333E-3</v>
+      </c>
+      <c r="Y26" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L26*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.16546666666666665</v>
+      </c>
+      <c r="AB26" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>4.7333333333333333E-3</v>
+      </c>
+      <c r="AC26" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>-482.19999999999993</v>
+      </c>
+      <c r="AD26" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="28">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="22">
+        <v>41010</v>
+      </c>
+      <c r="F27" s="21">
+        <v>800</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41011</v>
+      </c>
+      <c r="J27" s="30">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41029</v>
+      </c>
+      <c r="K27" s="21">
+        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L27" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>152</v>
+      </c>
+      <c r="M27" s="23">
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <v>182</v>
+      </c>
+      <c r="N27" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="O27" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="P27" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="Q27" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>29.8</v>
+      </c>
+      <c r="R27" s="23">
+        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="S27" s="23">
+        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="T27" s="23">
+        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <v>150.21999999999997</v>
+      </c>
+      <c r="U27" s="23">
+        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="23">
+        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <v>150.21999999999997</v>
+      </c>
+      <c r="W27" s="28">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>136.01999999999998</v>
+      </c>
+      <c r="X27" s="23">
+        <f>ABS(W27)/F27</f>
+        <v>0.17002499999999998</v>
+      </c>
+      <c r="Y27" s="23">
+        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L27*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="21">
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="24">
+        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <v>0.52036249999999995</v>
+      </c>
+      <c r="AB27" s="24">
+        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <v>0.17002499999999998</v>
+      </c>
+      <c r="AC27" s="23">
+        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <v>-280.27</v>
+      </c>
+      <c r="AD27" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>-1632.71</v>
+      </c>
+      <c r="AE27" s="23">
+        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <v>-2289.5200000000004</v>
+      </c>
+      <c r="AF27" s="23">
+        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="28">
+        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="28">
+        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="27">
+        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="28">
+        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="28">
+        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <v>-1632.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A28" s="31">
         <f>SUBTOTAL(104,NC[ID])</f>
-        <v>19</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="23">
+        <v>26</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="23">
         <f>SUBTOTAL(109,NC[IRRF])</f>
         <v>0.08</v>
       </c>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="23">
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="23">
         <f>SUBTOTAL(109,NC[LUCRO P/ OP])</f>
-        <v>-178.30000000000024</v>
-      </c>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="38">
+        <v>-1811.0100000000002</v>
+      </c>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="35">
         <f>SUBTOTAL(109,NC[LUCRO LÍQUIDO])</f>
-        <v>-278.12000000000029</v>
+        <v>-1910.8300000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="AE22" s="34"/>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AE29" s="34"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6167,27 +7152,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6204,11 +7189,11 @@
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -6240,26 +7225,26 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">

--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="16380" windowHeight="8010" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan3" sheetId="6" r:id="rId1"/>
@@ -3259,7 +3259,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6162,7 +6162,7 @@
         <v>-472.36</v>
       </c>
       <c r="X21" s="23">
-        <f>ABS(W21)/F21</f>
+        <f t="shared" ref="X21:X27" si="3">ABS(W21)/F21</f>
         <v>0.39363333333333334</v>
       </c>
       <c r="Y21" s="23">
@@ -6302,7 +6302,7 @@
         <v>-496.4</v>
       </c>
       <c r="X22" s="23">
-        <f>ABS(W22)/F22</f>
+        <f t="shared" si="3"/>
         <v>0.16546666666666665</v>
       </c>
       <c r="Y22" s="23">
@@ -6442,7 +6442,7 @@
         <v>155.01999999999998</v>
       </c>
       <c r="X23" s="23">
-        <f>ABS(W23)/F23</f>
+        <f t="shared" si="3"/>
         <v>8.1589473684210517E-2</v>
       </c>
       <c r="Y23" s="23">
@@ -6582,7 +6582,7 @@
         <v>49.16</v>
       </c>
       <c r="X24" s="23">
-        <f>ABS(W24)/F24</f>
+        <f t="shared" si="3"/>
         <v>3.7815384615384612E-2</v>
       </c>
       <c r="Y24" s="23">
@@ -6722,7 +6722,7 @@
         <v>-416.28999999999996</v>
       </c>
       <c r="X25" s="23">
-        <f>ABS(W25)/F25</f>
+        <f t="shared" si="3"/>
         <v>0.52036249999999995</v>
       </c>
       <c r="Y25" s="23">
@@ -6862,7 +6862,7 @@
         <v>14.2</v>
       </c>
       <c r="X26" s="23">
-        <f>ABS(W26)/F26</f>
+        <f t="shared" si="3"/>
         <v>4.7333333333333333E-3</v>
       </c>
       <c r="Y26" s="23">
@@ -6938,7 +6938,7 @@
         <v>800</v>
       </c>
       <c r="G27" s="23">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>7</v>
@@ -6957,23 +6957,23 @@
       </c>
       <c r="L27" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
-        <v>152</v>
+        <v>800</v>
       </c>
       <c r="M27" s="23">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
-        <v>182</v>
+        <v>830</v>
       </c>
       <c r="N27" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="O27" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="P27" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
-        <v>0.12</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="Q27" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="T27" s="23">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
-        <v>150.21999999999997</v>
+        <v>797.36</v>
       </c>
       <c r="U27" s="23">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
@@ -6997,19 +6997,19 @@
       </c>
       <c r="V27" s="23">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
-        <v>150.21999999999997</v>
+        <v>797.36</v>
       </c>
       <c r="W27" s="28">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
-        <v>136.01999999999998</v>
+        <v>783.16</v>
       </c>
       <c r="X27" s="23">
-        <f>ABS(W27)/F27</f>
-        <v>0.17002499999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.97894999999999999</v>
       </c>
       <c r="Y27" s="23">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L27*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Z27" s="21">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
@@ -7021,19 +7021,19 @@
       </c>
       <c r="AB27" s="24">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
-        <v>0.17002499999999998</v>
+        <v>0.97894999999999999</v>
       </c>
       <c r="AC27" s="23">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
-        <v>-280.27</v>
+        <v>366.87</v>
       </c>
       <c r="AD27" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
-        <v>-1632.71</v>
+        <v>-985.57</v>
       </c>
       <c r="AE27" s="23">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
-        <v>-2289.5200000000004</v>
+        <v>-1642.38</v>
       </c>
       <c r="AF27" s="23">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="AK27" s="28">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
-        <v>-1632.71</v>
+        <v>-985.57</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
@@ -7090,14 +7090,14 @@
       <c r="X28" s="31"/>
       <c r="Y28" s="23">
         <f>SUBTOTAL(109,NC[IRRF])</f>
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="Z28" s="23"/>
       <c r="AA28" s="31"/>
       <c r="AB28" s="31"/>
       <c r="AC28" s="23">
         <f>SUBTOTAL(109,NC[LUCRO P/ OP])</f>
-        <v>-1811.0100000000002</v>
+        <v>-1163.8700000000003</v>
       </c>
       <c r="AD28" s="23"/>
       <c r="AE28" s="23"/>
@@ -7108,7 +7108,7 @@
       <c r="AJ28" s="33"/>
       <c r="AK28" s="35">
         <f>SUBTOTAL(109,NC[LUCRO LÍQUIDO])</f>
-        <v>-1910.8300000000004</v>
+        <v>-1263.6900000000003</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">

--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -7,15 +7,11 @@
     <workbookView xWindow="0" yWindow="180" windowWidth="16380" windowHeight="8010" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan3" sheetId="6" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="NOTAS" sheetId="1" r:id="rId1"/>
+    <sheet name="TENDENCIA" sheetId="3" r:id="rId2"/>
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-  </pivotCaches>
 </workbook>
 </file>
 
@@ -47,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
   <si>
     <t>ATIVO</t>
   </si>
@@ -67,15 +63,9 @@
     <t>LÍQUIDO</t>
   </si>
   <si>
-    <t>MNDL4</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>INET3</t>
-  </si>
-  <si>
     <t>NORMAL</t>
   </si>
   <si>
@@ -100,42 +90,9 @@
     <t>D</t>
   </si>
   <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>GFSA3</t>
-  </si>
-  <si>
-    <t>KLBN4</t>
-  </si>
-  <si>
-    <t>RSID3</t>
-  </si>
-  <si>
-    <t>AGEN11</t>
-  </si>
-  <si>
-    <t>INEP4</t>
-  </si>
-  <si>
-    <t>(vazio)</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Soma de VALOR P/ OPERAÇÃO</t>
-  </si>
-  <si>
     <t>DATA</t>
   </si>
   <si>
@@ -272,6 +229,60 @@
   </si>
   <si>
     <t>VALED42</t>
+  </si>
+  <si>
+    <t>PAPEL</t>
+  </si>
+  <si>
+    <t>EXERCÍCIO</t>
+  </si>
+  <si>
+    <t>PREÇO OPÇÃO</t>
+  </si>
+  <si>
+    <t>PREÇO AÇÃO</t>
+  </si>
+  <si>
+    <t>PETRE22</t>
+  </si>
+  <si>
+    <t>TARGET 100%</t>
+  </si>
+  <si>
+    <t>ALTA 100%</t>
+  </si>
+  <si>
+    <t>TARGET 5%</t>
+  </si>
+  <si>
+    <t>ALTA 5%</t>
+  </si>
+  <si>
+    <t>VALOR 5%</t>
+  </si>
+  <si>
+    <t>APLICAÇÃO</t>
+  </si>
+  <si>
+    <t>LUCRO 100%</t>
+  </si>
+  <si>
+    <t>LUCRO 5%</t>
+  </si>
+  <si>
+    <t>QTDE TMP</t>
+  </si>
+  <si>
+    <t>OGXPE14</t>
+  </si>
+  <si>
+    <t>OGXPE15</t>
+  </si>
+  <si>
+    <t>VALEE43</t>
+  </si>
+  <si>
+    <t>BVMFE11</t>
   </si>
 </sst>
 </file>
@@ -344,7 +355,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -361,84 +372,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -446,14 +386,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -494,12 +426,546 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="106">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -535,42 +1001,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -590,6 +1020,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -605,7 +1053,43 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FFFF0000"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -629,7 +1113,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -667,57 +1151,21 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -741,25 +1189,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -781,6 +1211,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -815,24 +1248,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -852,348 +1267,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1250,6 +1323,194 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1270,7 +1531,211 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1292,7 +1757,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1329,6 +1809,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1348,7 +1846,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1367,7 +1864,62 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1405,6 +1957,135 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1424,216 +2105,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1671,7 +2142,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1691,7 +2161,25 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1728,7 +2216,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1766,7 +2253,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1804,26 +2290,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1906,842 +2372,148 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40969.946527199078" createdVersion="1" refreshedVersion="4" recordCount="28" upgradeOnRefresh="1">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q65531" sheet="Planilha1"/>
-  </cacheSource>
-  <cacheFields count="18">
-    <cacheField name="Nº NOTA" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2763455" maxValue="3002965"/>
-    </cacheField>
-    <cacheField name="ATIVO" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
-        <s v="GOLL4"/>
-        <s v="MRFG3"/>
-        <s v="JBSS3"/>
-        <s v="GFSA3"/>
-        <s v="KLBN4"/>
-        <s v="RSID3"/>
-        <s v="MNDL4"/>
-        <s v="AGEN11"/>
-        <s v="INEP4"/>
-        <s v="INET3"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[C/V]" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="DATA" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-12-05T00:00:00" maxDate="2012-03-06T00:00:00"/>
-    </cacheField>
-    <cacheField name="QTDE" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="3700"/>
-    </cacheField>
-    <cacheField name="PREÇO" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.17" maxValue="16"/>
-    </cacheField>
-    <cacheField name="[D/N]" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="VALOR" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="152" maxValue="2829"/>
-    </cacheField>
-    <cacheField name="VL LÍQUIDO" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-3818" maxValue="3823.9999999999995"/>
-    </cacheField>
-    <cacheField name="TX LIQUID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.04" maxValue="1.33"/>
-    </cacheField>
-    <cacheField name="EMOL" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.01" maxValue="0.34"/>
-    </cacheField>
-    <cacheField name="CORR. BASE" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="14.9" maxValue="44.7"/>
-    </cacheField>
-    <cacheField name="ISS" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.28999999999999998" maxValue="0.89"/>
-    </cacheField>
-    <cacheField name="OUTRAS TMP" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.57999999999999996" maxValue="0.57999999999999996"/>
-    </cacheField>
-    <cacheField name="OUTRAS" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.57999999999999996" maxValue="1.7399999999999998"/>
-    </cacheField>
-    <cacheField name="LÍQUIDO" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-3850.8500000000004" maxValue="3791.139999999999"/>
-    </cacheField>
-    <cacheField name="VALOR P/ OPERAÇÃO" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-2845.73" maxValue="2695.31"/>
-    </cacheField>
-    <cacheField name="SALDO" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-4873.55" maxValue="481.52999999999975"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="28">
-  <r>
-    <n v="2763455"/>
-    <x v="0"/>
-    <s v="C"/>
-    <d v="2011-12-05T00:00:00"/>
-    <n v="100"/>
-    <n v="13.62"/>
-    <s v="N"/>
-    <n v="1362"/>
-    <n v="-1362"/>
-    <n v="0.37"/>
-    <n v="0.09"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="-1378.2299999999998"/>
-    <n v="-1378.2299999999998"/>
-    <n v="-1378.2299999999998"/>
-  </r>
-  <r>
-    <n v="2779377"/>
-    <x v="1"/>
-    <s v="C"/>
-    <d v="2011-12-09T00:00:00"/>
-    <n v="100"/>
-    <n v="8.4499999999999993"/>
-    <s v="N"/>
-    <n v="844.99999999999989"/>
-    <n v="-844.99999999999989"/>
-    <n v="0.23"/>
-    <n v="0.05"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="-861.04999999999984"/>
-    <n v="-861.04999999999984"/>
-    <n v="-2239.2799999999997"/>
-  </r>
-  <r>
-    <n v="2783172"/>
-    <x v="0"/>
-    <s v="V"/>
-    <d v="2011-12-12T00:00:00"/>
-    <n v="100"/>
-    <n v="16"/>
-    <s v="N"/>
-    <n v="1600"/>
-    <n v="1600"/>
-    <n v="0.44"/>
-    <n v="0.11"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="1583.68"/>
-    <n v="1583.68"/>
-    <n v="-655.59999999999968"/>
-  </r>
-  <r>
-    <n v="2797072"/>
-    <x v="2"/>
-    <s v="C"/>
-    <d v="2011-12-16T00:00:00"/>
-    <n v="200"/>
-    <n v="5.66"/>
-    <s v="D"/>
-    <n v="1132"/>
-    <n v="-1132"/>
-    <n v="0.2"/>
-    <n v="7.0000000000000007E-2"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="-1148.04"/>
-    <n v="-1148.04"/>
-    <n v="-1803.6399999999996"/>
-  </r>
-  <r>
-    <n v="2797072"/>
-    <x v="2"/>
-    <s v="V"/>
-    <d v="2011-12-16T00:00:00"/>
-    <n v="200"/>
-    <n v="5.64"/>
-    <s v="D"/>
-    <n v="1128"/>
-    <n v="-4"/>
-    <n v="0.4"/>
-    <n v="0.15"/>
-    <n v="29.8"/>
-    <n v="0.59"/>
-    <n v="0.57999999999999996"/>
-    <n v="1.1599999999999999"/>
-    <n v="-36.1"/>
-    <n v="1111.94"/>
-    <n v="-691.69999999999959"/>
-  </r>
-  <r>
-    <n v="2797072"/>
-    <x v="2"/>
-    <s v="C"/>
-    <d v="2011-12-16T00:00:00"/>
-    <n v="200"/>
-    <n v="5.65"/>
-    <s v="N"/>
-    <n v="1130"/>
-    <n v="-1134"/>
-    <n v="0.71"/>
-    <n v="0.23"/>
-    <n v="44.7"/>
-    <n v="0.89"/>
-    <n v="0.57999999999999996"/>
-    <n v="1.7399999999999998"/>
-    <n v="-1182.2700000000002"/>
-    <n v="-1146.1700000000003"/>
-    <n v="-1837.87"/>
-  </r>
-  <r>
-    <n v="2815630"/>
-    <x v="3"/>
-    <s v="V"/>
-    <d v="2011-12-23T00:00:00"/>
-    <n v="200"/>
-    <n v="4.2699999999999996"/>
-    <s v="N"/>
-    <n v="853.99999999999989"/>
-    <n v="853.99999999999989"/>
-    <n v="0.23"/>
-    <n v="0.05"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="837.94999999999993"/>
-    <n v="837.94999999999993"/>
-    <n v="-999.92"/>
-  </r>
-  <r>
-    <n v="2825056"/>
-    <x v="4"/>
-    <s v="C"/>
-    <d v="2011-12-28T00:00:00"/>
-    <n v="300"/>
-    <n v="7.86"/>
-    <s v="N"/>
-    <n v="2358"/>
-    <n v="-2358"/>
-    <n v="0.64"/>
-    <n v="0.16"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="-2374.5699999999997"/>
-    <n v="-2374.5699999999997"/>
-    <n v="-3374.49"/>
-  </r>
-  <r>
-    <n v="2826799"/>
-    <x v="2"/>
-    <s v="V"/>
-    <d v="2011-12-29T00:00:00"/>
-    <n v="100"/>
-    <n v="6.9"/>
-    <s v="N"/>
-    <n v="690"/>
-    <n v="690"/>
-    <n v="0.18"/>
-    <n v="0.04"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="674.0100000000001"/>
-    <n v="674.0100000000001"/>
-    <n v="-2700.4799999999996"/>
-  </r>
-  <r>
-    <n v="2836312"/>
-    <x v="2"/>
-    <s v="V"/>
-    <d v="2012-01-05T00:00:00"/>
-    <n v="100"/>
-    <n v="5.83"/>
-    <s v="N"/>
-    <n v="583"/>
-    <n v="583"/>
-    <n v="0.16"/>
-    <n v="0.04"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="567.03000000000009"/>
-    <n v="567.03000000000009"/>
-    <n v="-2133.4499999999994"/>
-  </r>
-  <r>
-    <n v="2840144"/>
-    <x v="2"/>
-    <s v="C"/>
-    <d v="2012-01-06T00:00:00"/>
-    <n v="200"/>
-    <n v="5.8"/>
-    <s v="N"/>
-    <n v="1160"/>
-    <n v="-1160"/>
-    <n v="0.31"/>
-    <n v="0.08"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="-1176.1599999999999"/>
-    <n v="-1176.1599999999999"/>
-    <n v="-3309.6099999999992"/>
-  </r>
-  <r>
-    <n v="2864808"/>
-    <x v="5"/>
-    <s v="V"/>
-    <d v="2012-01-17T00:00:00"/>
-    <n v="300"/>
-    <n v="9.0399999999999991"/>
-    <s v="N"/>
-    <n v="2711.9999999999995"/>
-    <n v="2711.9999999999995"/>
-    <n v="0.74"/>
-    <n v="0.18"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="2695.31"/>
-    <n v="2695.31"/>
-    <n v="-614.29999999999927"/>
-  </r>
-  <r>
-    <n v="2864808"/>
-    <x v="2"/>
-    <s v="V"/>
-    <d v="2012-01-17T00:00:00"/>
-    <n v="200"/>
-    <n v="5.56"/>
-    <s v="N"/>
-    <n v="1112"/>
-    <n v="3823.9999999999995"/>
-    <n v="1.05"/>
-    <n v="0.26"/>
-    <n v="29.8"/>
-    <n v="0.59"/>
-    <n v="0.57999999999999996"/>
-    <n v="1.1599999999999999"/>
-    <n v="3791.139999999999"/>
-    <n v="1095.829999999999"/>
-    <n v="481.52999999999975"/>
-  </r>
-  <r>
-    <n v="2886886"/>
-    <x v="6"/>
-    <s v="C"/>
-    <d v="2012-01-24T00:00:00"/>
-    <n v="2000"/>
-    <n v="0.5"/>
-    <s v="N"/>
-    <n v="1000"/>
-    <n v="-1000"/>
-    <n v="0.27"/>
-    <n v="7.0000000000000007E-2"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="-1016.11"/>
-    <n v="-1016.11"/>
-    <n v="-534.58000000000027"/>
-  </r>
-  <r>
-    <n v="2899138"/>
-    <x v="1"/>
-    <s v="V"/>
-    <d v="2012-01-30T00:00:00"/>
-    <n v="100"/>
-    <n v="7.89"/>
-    <s v="N"/>
-    <n v="789"/>
-    <n v="789"/>
-    <n v="0.21"/>
-    <n v="0.05"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="772.97"/>
-    <n v="772.97"/>
-    <n v="238.38999999999976"/>
-  </r>
-  <r>
-    <n v="2904206"/>
-    <x v="5"/>
-    <s v="C"/>
-    <d v="2012-01-31T00:00:00"/>
-    <n v="300"/>
-    <n v="9.43"/>
-    <s v="N"/>
-    <n v="2829"/>
-    <n v="-2829"/>
-    <n v="0.77"/>
-    <n v="0.19"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="-2845.73"/>
-    <n v="-2845.73"/>
-    <n v="-2607.34"/>
-  </r>
-  <r>
-    <n v="2904206"/>
-    <x v="7"/>
-    <s v="C"/>
-    <d v="2012-01-31T00:00:00"/>
-    <n v="2300"/>
-    <n v="0.43"/>
-    <s v="N"/>
-    <n v="989"/>
-    <n v="-3818"/>
-    <n v="1.04"/>
-    <n v="0.26"/>
-    <n v="29.8"/>
-    <n v="0.59"/>
-    <n v="0.57999999999999996"/>
-    <n v="1.1599999999999999"/>
-    <n v="-3850.8500000000004"/>
-    <n v="-1005.1200000000003"/>
-    <n v="-3612.4600000000005"/>
-  </r>
-  <r>
-    <n v="2916301"/>
-    <x v="3"/>
-    <s v="C"/>
-    <d v="2012-02-03T00:00:00"/>
-    <n v="200"/>
-    <n v="4.76"/>
-    <s v="N"/>
-    <n v="952"/>
-    <n v="-952"/>
-    <n v="0.26"/>
-    <n v="0.06"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="-968.08999999999992"/>
-    <n v="-968.08999999999992"/>
-    <n v="-4580.55"/>
-  </r>
-  <r>
-    <n v="2935127"/>
-    <x v="4"/>
-    <s v="V"/>
-    <d v="2012-02-09T00:00:00"/>
-    <n v="300"/>
-    <n v="7.7"/>
-    <s v="N"/>
-    <n v="2310"/>
-    <n v="2310"/>
-    <n v="0.63"/>
-    <n v="0.16"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="2293.44"/>
-    <n v="2293.44"/>
-    <n v="-2287.11"/>
-  </r>
-  <r>
-    <n v="2935127"/>
-    <x v="7"/>
-    <s v="C"/>
-    <d v="2012-02-09T00:00:00"/>
-    <n v="3700"/>
-    <n v="0.37"/>
-    <s v="N"/>
-    <n v="1369"/>
-    <n v="941"/>
-    <n v="1.01"/>
-    <n v="0.25"/>
-    <n v="29.8"/>
-    <n v="0.59"/>
-    <n v="0.57999999999999996"/>
-    <n v="1.1599999999999999"/>
-    <n v="908.19"/>
-    <n v="-1385.25"/>
-    <n v="-3672.36"/>
-  </r>
-  <r>
-    <n v="2935127"/>
-    <x v="8"/>
-    <s v="C"/>
-    <d v="2012-02-09T00:00:00"/>
-    <n v="500"/>
-    <n v="2.37"/>
-    <s v="N"/>
-    <n v="1185"/>
-    <n v="-244"/>
-    <n v="1.33"/>
-    <n v="0.34"/>
-    <n v="44.7"/>
-    <n v="0.89"/>
-    <n v="0.57999999999999996"/>
-    <n v="1.7399999999999998"/>
-    <n v="-293"/>
-    <n v="-1201.19"/>
-    <n v="-4873.55"/>
-  </r>
-  <r>
-    <n v="2948844"/>
-    <x v="6"/>
-    <s v="V"/>
-    <d v="2012-02-14T00:00:00"/>
-    <n v="1600"/>
-    <n v="0.4"/>
-    <s v="N"/>
-    <n v="640"/>
-    <n v="640"/>
-    <n v="0.17"/>
-    <n v="0.04"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="624.0200000000001"/>
-    <n v="624.0200000000001"/>
-    <n v="-4249.53"/>
-  </r>
-  <r>
-    <n v="2948844"/>
-    <x v="9"/>
-    <s v="C"/>
-    <d v="2012-02-14T00:00:00"/>
-    <n v="3000"/>
-    <n v="0.2"/>
-    <s v="N"/>
-    <n v="600"/>
-    <n v="40"/>
-    <n v="0.34"/>
-    <n v="0.08"/>
-    <n v="29.8"/>
-    <n v="0.59"/>
-    <n v="0.57999999999999996"/>
-    <n v="1.1599999999999999"/>
-    <n v="8.0299999999999976"/>
-    <n v="-615.99000000000012"/>
-    <n v="-4865.5199999999995"/>
-  </r>
-  <r>
-    <n v="2985169"/>
-    <x v="6"/>
-    <s v="V"/>
-    <d v="2012-02-28T00:00:00"/>
-    <n v="400"/>
-    <n v="0.38"/>
-    <s v="N"/>
-    <n v="152"/>
-    <n v="152"/>
-    <n v="0.04"/>
-    <n v="0.01"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="136.18"/>
-    <n v="136.18"/>
-    <n v="-4729.3399999999992"/>
-  </r>
-  <r>
-    <n v="2998380"/>
-    <x v="9"/>
-    <s v="V"/>
-    <d v="2012-03-02T00:00:00"/>
-    <n v="3000"/>
-    <n v="0.17"/>
-    <s v="N"/>
-    <n v="510.00000000000006"/>
-    <n v="510.00000000000006"/>
-    <n v="0.14000000000000001"/>
-    <n v="0.03"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="494.06000000000012"/>
-    <n v="494.06000000000012"/>
-    <n v="-4235.2799999999988"/>
-  </r>
-  <r>
-    <n v="2998380"/>
-    <x v="7"/>
-    <s v="V"/>
-    <d v="2012-03-02T00:00:00"/>
-    <n v="3000"/>
-    <n v="0.27"/>
-    <s v="N"/>
-    <n v="810"/>
-    <n v="1320"/>
-    <n v="0.36"/>
-    <n v="0.09"/>
-    <n v="29.8"/>
-    <n v="0.59"/>
-    <n v="0.57999999999999996"/>
-    <n v="1.1599999999999999"/>
-    <n v="1288.0000000000002"/>
-    <n v="793.94"/>
-    <n v="-3441.3399999999988"/>
-  </r>
-  <r>
-    <n v="3002965"/>
-    <x v="7"/>
-    <s v="V"/>
-    <d v="2012-03-05T00:00:00"/>
-    <n v="3000"/>
-    <n v="0.25"/>
-    <s v="N"/>
-    <n v="750"/>
-    <n v="750"/>
-    <n v="0.2"/>
-    <n v="0.05"/>
-    <n v="14.9"/>
-    <n v="0.28999999999999998"/>
-    <n v="0.57999999999999996"/>
-    <n v="0.57999999999999996"/>
-    <n v="733.98"/>
-    <n v="733.98"/>
-    <n v="-2707.3599999999988"/>
-  </r>
-  <r>
-    <m/>
-    <x v="10"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <location ref="A3:B16" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="12">
-        <item x="7"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de VALOR P/ OPERAÇÃO" fld="16" baseField="1" baseItem="3"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AK28" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AK28" totalsRowCount="1" headerRowDxfId="105" dataDxfId="104" totalsRowDxfId="103">
   <autoFilter ref="A1:AK27"/>
   <sortState ref="A2:AG8">
     <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="37">
-    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="72" totalsRowDxfId="36"/>
-    <tableColumn id="36" name="U" dataDxfId="71" totalsRowDxfId="35"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="70" totalsRowDxfId="34"/>
-    <tableColumn id="3" name="T" dataDxfId="69" totalsRowDxfId="33"/>
-    <tableColumn id="4" name="DATA" dataDxfId="68" totalsRowDxfId="32"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="67" totalsRowDxfId="31"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="66" totalsRowDxfId="30"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="65" totalsRowDxfId="29"/>
-    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="64" totalsRowDxfId="28">
+    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="36" name="U" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="3" name="T" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="4" name="DATA" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="86" totalsRowDxfId="85">
       <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="DATA BASE" dataDxfId="63" totalsRowDxfId="27">
+    <tableColumn id="31" name="DATA BASE" dataDxfId="84" totalsRowDxfId="83">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="62" totalsRowDxfId="26">
+    <tableColumn id="21" name="PAR" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="61" totalsRowDxfId="25">
+    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="60" totalsRowDxfId="24">
+    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="78" totalsRowDxfId="77">
       <calculatedColumnFormula>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="59" totalsRowDxfId="23">
+    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="58" totalsRowDxfId="22">
+    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="74" totalsRowDxfId="73">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="57" totalsRowDxfId="21">
+    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="72" totalsRowDxfId="71">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORRETAGEM" dataDxfId="56" totalsRowDxfId="20">
+    <tableColumn id="12" name="CORRETAGEM" dataDxfId="70" totalsRowDxfId="69">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="55" totalsRowDxfId="19">
+    <tableColumn id="13" name="ISS" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="54" totalsRowDxfId="18">
+    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="53" totalsRowDxfId="17">
+    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="IRRF FONTE" dataDxfId="52" totalsRowDxfId="16">
+    <tableColumn id="33" name="IRRF FONTE" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="LÍQUIDO" totalsRowDxfId="15">
+    <tableColumn id="35" name="LÍQUIDO" totalsRowDxfId="60">
       <calculatedColumnFormula>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="51" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="50" totalsRowDxfId="13">
+    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>ABS(W2)/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="12">
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="48" totalsRowDxfId="11">
+    <tableColumn id="24" name="SALDO" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="47" totalsRowDxfId="10">
+    <tableColumn id="22" name="MED CP" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="46" totalsRowDxfId="9">
+    <tableColumn id="23" name="MED VD" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="8">
+    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="LUCRO [N]" dataDxfId="44" totalsRowDxfId="7">
+    <tableColumn id="1" name="LUCRO [N]" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name=" TRIB. [N]" dataDxfId="43" totalsRowDxfId="6">
+    <tableColumn id="37" name=" TRIB. [N]" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="42" totalsRowDxfId="5">
+    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="IR [N]" dataDxfId="41" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="32" name="IR [N]" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="40" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="IR DEVIDO" dataDxfId="39" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="14" name="IR DEVIDO" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[IR '[N']] + NC[IR DEVIDO DT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="RESGATE" dataDxfId="38" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="26" name="RESGATE" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="LUCRO LÍQUIDO" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="27" name="LUCRO LÍQUIDO" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Moeda">
       <calculatedColumnFormula>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:N7" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:N6"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="PAPEL" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="13"/>
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="20" totalsRowDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="EXERCÍCIO" dataDxfId="26" totalsRowDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="PREÇO OPÇÃO" dataDxfId="25" totalsRowDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="PREÇO AÇÃO" dataDxfId="19" totalsRowDxfId="9" dataCellStyle="Moeda"/>
+    <tableColumn id="11" name="QTDE TMP" dataDxfId="17" totalsRowDxfId="8" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="QTDE" dataDxfId="14" totalsRowDxfId="7" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="TARGET 100%" dataDxfId="18" totalsRowDxfId="6" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="ALTA 100%" dataDxfId="24" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="LUCRO 100%" dataDxfId="16" totalsRowDxfId="4" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="TARGET 5%" dataDxfId="23" totalsRowDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela2[PREÇO AÇÃO] * 105%</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="VALOR 5%" dataDxfId="22" totalsRowDxfId="2" dataCellStyle="Moeda">
+      <calculatedColumnFormula>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="ALTA 5%" dataDxfId="21" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="LUCRO 5%" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3119,4000 +2891,3868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Plan1"/>
-  <dimension ref="A3:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12">
-        <v>-862.45000000000027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13">
-        <v>-130.13999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13">
-        <v>205.45000000000027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="13">
-        <v>-1201.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13">
-        <v>-121.93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13">
-        <v>-21.560000000000855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="13">
-        <v>-81.129999999999654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="13">
-        <v>-255.90999999999991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="13">
-        <v>-88.079999999999814</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="13">
-        <v>-150.42000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="14">
-        <v>-2707.36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan2"/>
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="16" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="15" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="15" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="15" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" style="15" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="15" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12" style="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9" style="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="11.5703125" style="15"/>
+    <col min="1" max="1" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="7" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" style="9" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="7" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="7" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="7" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" style="7" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" style="7" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18" t="s">
+    <row r="1" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="AH1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="14">
         <v>40980</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="13">
         <v>600</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="22">
+      <c r="H2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40981</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>168.00000000000003</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-168.00000000000003</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.06</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.11</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-183.98000000000005</v>
       </c>
-      <c r="U2" s="23">
+      <c r="U2" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V2" s="23">
+      <c r="V2" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-183.98000000000005</v>
       </c>
-      <c r="W2" s="23">
+      <c r="W2" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-183.98000000000005</v>
       </c>
-      <c r="X2" s="23">
+      <c r="X2" s="15">
         <f t="shared" ref="X2:X8" si="0">ABS(W2)/F2</f>
         <v>0.30663333333333342</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Y2" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L2*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="21">
+      <c r="Z2" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>600</v>
       </c>
-      <c r="AA2" s="24">
+      <c r="AA2" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.30663333333333342</v>
       </c>
-      <c r="AB2" s="24">
+      <c r="AB2" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AC2" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AD2" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="23">
+      <c r="AE2" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="23">
+      <c r="AF2" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG2" s="27">
+      <c r="AG2" s="19">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="27">
+      <c r="AH2" s="19">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI2" s="27">
+      <c r="AI2" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ2" s="27">
+      <c r="AJ2" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK2" s="27">
+      <c r="AK2" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14">
         <v>40980</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="13">
         <v>400</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="15">
         <v>0.4</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="22">
+      <c r="H3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40981</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>160</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-328</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.09</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.12</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.22</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-359.98</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-359.98</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-175.99999999999997</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X3" s="15">
         <f t="shared" si="0"/>
         <v>0.43999999999999995</v>
       </c>
-      <c r="Y3" s="23">
+      <c r="Y3" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L3*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z3" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>400</v>
       </c>
-      <c r="AA3" s="24">
+      <c r="AA3" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.43999999999999995</v>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB3" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="23">
+      <c r="AC3" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="23">
+      <c r="AD3" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="23">
+      <c r="AE3" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="23">
+      <c r="AF3" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="27">
+      <c r="AG3" s="19">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="27">
+      <c r="AH3" s="19">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="27">
+      <c r="AI3" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="27">
+      <c r="AJ3" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="27">
+      <c r="AK3" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="14">
         <v>40981</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="13">
         <v>1200</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="15">
         <v>0.19</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="22">
+      <c r="H4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40982</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>228</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-228</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.02</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.03</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-243.28</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="23">
+      <c r="V4" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-245.25</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-245.25</v>
       </c>
-      <c r="X4" s="23">
+      <c r="X4" s="15">
         <f t="shared" si="0"/>
         <v>0.204375</v>
       </c>
-      <c r="Y4" s="23">
+      <c r="Y4" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L4*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="24">
+      <c r="AA4" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.204375</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="23">
+      <c r="AC4" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AD4" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="23">
+      <c r="AE4" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="23">
+      <c r="AF4" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="28">
+      <c r="AG4" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="28">
+      <c r="AH4" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="27">
+      <c r="AI4" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ4" s="27">
+      <c r="AJ4" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="27">
+      <c r="AK4" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="14">
         <v>40981</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="13">
         <v>1200</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="15">
         <v>0.38</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="22">
+      <c r="H5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40982</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>456</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>228</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.12</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.08</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.1</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>197.30999999999997</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>1.97</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>195.33999999999997</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>440.59</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="15">
         <f t="shared" si="0"/>
         <v>0.36715833333333331</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L5*SETUP!$H$3,     0),2)</f>
         <v>0.02</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="Z5" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AA5" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.204375</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0.36715833333333331</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>197.30999999999997</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AD5" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="23">
+      <c r="AE5" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="23">
+      <c r="AF5" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="28">
+      <c r="AG5" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="28">
+      <c r="AH5" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="27">
+      <c r="AI5" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="27">
+      <c r="AJ5" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="27">
+      <c r="AK5" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="14">
         <v>40981</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="13">
         <v>400</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="15">
         <v>0.8</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="22">
+      <c r="H6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40982</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>320</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>548</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.21</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.2</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.32</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>499.93999999999988</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V6" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>497.96999999999986</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>302.62999999999988</v>
       </c>
-      <c r="X6" s="23">
+      <c r="X6" s="15">
         <f t="shared" si="0"/>
         <v>0.75657499999999966</v>
       </c>
-      <c r="Y6" s="23">
+      <c r="Y6" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L6*SETUP!$H$3,     0),2)</f>
         <v>0.01</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="Z6" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.43999999999999995</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0.75657499999999966</v>
       </c>
-      <c r="AC6" s="23">
+      <c r="AC6" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>126.62999999999988</v>
       </c>
-      <c r="AD6" s="23">
+      <c r="AD6" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="23">
+      <c r="AE6" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="23">
+      <c r="AF6" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="28">
+      <c r="AG6" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="28">
+      <c r="AH6" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="27">
+      <c r="AI6" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="27">
+      <c r="AJ6" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="27">
+      <c r="AK6" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14">
         <v>40981</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="13">
         <v>200</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="15">
         <v>0.8</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="22">
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40982</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>160</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>388</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.25</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.25</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.43</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>59.6</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>1.19</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>323.95999999999998</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>321.98999999999995</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-175.9799999999999</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="15">
         <f t="shared" si="0"/>
         <v>0.87989999999999957</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Y7" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L7*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="21">
+      <c r="Z7" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>200</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AA7" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.87989999999999957</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AC7" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="23">
+      <c r="AD7" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="23">
+      <c r="AE7" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="23">
+      <c r="AF7" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="28">
+      <c r="AG7" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="28">
+      <c r="AH7" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="27">
+      <c r="AI7" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="27">
+      <c r="AJ7" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="27">
+      <c r="AK7" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14">
         <v>40981</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="13">
         <v>600</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="22">
+      <c r="H8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40982</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>336.00000000000006</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>724</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.34</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.38</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.66</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>74.5</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>1.49</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>2.91</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>643.72</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>641.75</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>319.76000000000005</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="15">
         <f t="shared" si="0"/>
         <v>0.53293333333333337</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Y8" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L8*SETUP!$H$3,     0),2)</f>
         <v>0.01</v>
       </c>
-      <c r="Z8" s="21">
+      <c r="Z8" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="24">
+      <c r="AA8" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.30663333333333342</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0.53293333333333337</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AC8" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>135.77999999999997</v>
       </c>
-      <c r="AD8" s="23">
+      <c r="AD8" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="23">
+      <c r="AE8" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="23">
+      <c r="AF8" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="28">
+      <c r="AG8" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="28">
+      <c r="AH8" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="27">
+      <c r="AI8" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="27">
+      <c r="AJ8" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="27">
+      <c r="AK8" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="14">
         <v>40982</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="13">
         <v>2400</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="15">
         <v>0.13</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="H9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40983</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>0</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>312</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-312</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.05</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.03</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.04</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-327.31</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V9" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-330.12</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W9" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-330.12</v>
       </c>
-      <c r="X9" s="23">
+      <c r="X9" s="15">
         <f t="shared" ref="X9:X14" si="1">ABS(W9)/F9</f>
         <v>0.13755000000000001</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Y9" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L9*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AA9" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.13755000000000001</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="23">
+      <c r="AD9" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="23">
+      <c r="AE9" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="23">
+      <c r="AF9" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="28">
+      <c r="AG9" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="27">
+      <c r="AH9" s="19">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="27">
+      <c r="AI9" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="27">
+      <c r="AJ9" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="27">
+      <c r="AK9" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="14">
         <v>40982</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="13">
         <v>2400</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="15">
         <v>0.26</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="22">
+      <c r="H10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40983</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>624</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>312</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.16</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.11</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>281.2</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>2.81</v>
       </c>
-      <c r="V10" s="23">
+      <c r="V10" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>278.39</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>608.51</v>
       </c>
-      <c r="X10" s="23">
+      <c r="X10" s="15">
         <f t="shared" si="1"/>
         <v>0.2535458333333333</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Y10" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L10*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="Z10" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="24">
+      <c r="AA10" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.13755000000000001</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0.2535458333333333</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AC10" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>281.19999999999993</v>
       </c>
-      <c r="AD10" s="23">
+      <c r="AD10" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="23">
+      <c r="AE10" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="23">
+      <c r="AF10" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="28">
+      <c r="AG10" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="27">
+      <c r="AH10" s="19">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="27">
+      <c r="AI10" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ10" s="27">
+      <c r="AJ10" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK10" s="27">
+      <c r="AK10" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="14">
         <v>40982</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="13">
         <v>800</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="15">
         <v>0.39</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="22">
+      <c r="H11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40983</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>312</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.25</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.22</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.35</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-48.150000000000006</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="23">
+      <c r="V11" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-50.960000000000008</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-329.35</v>
       </c>
-      <c r="X11" s="23">
+      <c r="X11" s="15">
         <f t="shared" si="1"/>
         <v>0.41168750000000004</v>
       </c>
-      <c r="Y11" s="23">
+      <c r="Y11" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L11*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="21">
+      <c r="Z11" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>800</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AA11" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.41168750000000004</v>
       </c>
-      <c r="AB11" s="24">
+      <c r="AB11" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="23">
+      <c r="AC11" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="23">
+      <c r="AD11" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="23">
+      <c r="AE11" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="23">
+      <c r="AF11" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="27">
+      <c r="AG11" s="19">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="27">
+      <c r="AH11" s="19">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="27">
+      <c r="AI11" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="27">
+      <c r="AJ11" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="27">
+      <c r="AK11" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="14">
         <v>40983</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="13">
         <v>500</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="15">
         <v>0.72</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="H12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40984</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>360</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-360</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.09</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.13</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.25</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-376.23999999999995</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="23">
+      <c r="V12" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-376.23999999999995</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="15">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-376.23999999999995</v>
       </c>
-      <c r="X12" s="23">
+      <c r="X12" s="15">
         <f t="shared" si="1"/>
         <v>0.75247999999999993</v>
       </c>
-      <c r="Y12" s="23">
+      <c r="Y12" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L12*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>500</v>
       </c>
-      <c r="AA12" s="24">
+      <c r="AA12" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.75247999999999993</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="23">
+      <c r="AC12" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="23">
+      <c r="AD12" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="23">
+      <c r="AE12" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="23">
+      <c r="AF12" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="28">
+      <c r="AG12" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="28">
+      <c r="AH12" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="27">
+      <c r="AI12" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ12" s="27">
+      <c r="AJ12" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK12" s="27">
+      <c r="AK12" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="14">
         <v>40984</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="13">
         <v>800</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="15">
         <v>0.21</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="H13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40987</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>168</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>168</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.06</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.11</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T13" s="23">
+      <c r="T13" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>152.01999999999998</v>
       </c>
-      <c r="U13" s="23">
+      <c r="U13" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="23">
+      <c r="V13" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>152.01999999999998</v>
       </c>
-      <c r="W13" s="28">
+      <c r="W13" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>152.01999999999998</v>
       </c>
-      <c r="X13" s="23">
+      <c r="X13" s="15">
         <f t="shared" si="1"/>
         <v>0.19002499999999997</v>
       </c>
-      <c r="Y13" s="23">
+      <c r="Y13" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L13*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="21">
+      <c r="Z13" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="24">
+      <c r="AA13" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.41168750000000004</v>
       </c>
-      <c r="AB13" s="24">
+      <c r="AB13" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0.19002499999999997</v>
       </c>
-      <c r="AC13" s="23">
+      <c r="AC13" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>-177.33000000000004</v>
       </c>
-      <c r="AD13" s="23">
+      <c r="AD13" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="23">
+      <c r="AE13" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="23">
+      <c r="AF13" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="28">
+      <c r="AG13" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="28">
+      <c r="AH13" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="27">
+      <c r="AI13" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="27">
+      <c r="AJ13" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="27">
+      <c r="AK13" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="14">
         <v>40984</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="13">
         <v>500</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="15">
         <v>0.64</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="H14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40987</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>320</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>488</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.13</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.18</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.33</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>455.81</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="23">
+      <c r="V14" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>455.81</v>
       </c>
-      <c r="W14" s="28">
+      <c r="W14" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>303.79000000000002</v>
       </c>
-      <c r="X14" s="23">
+      <c r="X14" s="15">
         <f t="shared" si="1"/>
         <v>0.60758000000000001</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Y14" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L14*SETUP!$H$3,     0),2)</f>
         <v>0.01</v>
       </c>
-      <c r="Z14" s="21">
+      <c r="Z14" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="24">
+      <c r="AA14" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.75247999999999993</v>
       </c>
-      <c r="AB14" s="24">
+      <c r="AB14" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0.60758000000000001</v>
       </c>
-      <c r="AC14" s="23">
+      <c r="AC14" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>-72.44999999999996</v>
       </c>
-      <c r="AD14" s="23">
+      <c r="AD14" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="23">
+      <c r="AE14" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="23">
+      <c r="AF14" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="28">
+      <c r="AG14" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="28">
+      <c r="AH14" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="27">
+      <c r="AI14" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="27">
+      <c r="AJ14" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="27">
+      <c r="AK14" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="22">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="14">
         <v>40984</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="13">
         <v>100</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="15">
         <v>1.06</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="22">
+      <c r="H15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40987</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>106</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>594</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.16</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.21</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.41</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
-      <c r="T15" s="23">
+      <c r="T15" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>545.89</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="23">
+      <c r="V15" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>545.89</v>
       </c>
-      <c r="W15" s="28">
+      <c r="W15" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>90.079999999999984</v>
       </c>
-      <c r="X15" s="23">
+      <c r="X15" s="15">
         <f t="shared" ref="X15:X20" si="2">ABS(W15)/F15</f>
         <v>0.90079999999999982</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="Y15" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L15*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z15" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>100</v>
       </c>
-      <c r="AA15" s="24">
+      <c r="AA15" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.87989999999999957</v>
       </c>
-      <c r="AB15" s="24">
+      <c r="AB15" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0.90079999999999982</v>
       </c>
-      <c r="AC15" s="23">
+      <c r="AC15" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>2.0900000000000252</v>
       </c>
-      <c r="AD15" s="23">
+      <c r="AD15" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="23">
+      <c r="AE15" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="23">
+      <c r="AF15" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="28">
+      <c r="AG15" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="28">
+      <c r="AH15" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="27">
+      <c r="AI15" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="27">
+      <c r="AJ15" s="19">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="27">
+      <c r="AK15" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="14">
         <v>40990</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="13">
         <v>700</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="15">
         <v>0.6</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="22">
+      <c r="H16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40991</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>420</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-420</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.11</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.15</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-436.32</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="23">
+      <c r="V16" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-436.32</v>
       </c>
-      <c r="W16" s="28">
+      <c r="W16" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-436.32</v>
       </c>
-      <c r="X16" s="23">
+      <c r="X16" s="15">
         <f t="shared" si="2"/>
         <v>0.62331428571428571</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Y16" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L16*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="21">
+      <c r="Z16" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>700</v>
       </c>
-      <c r="AA16" s="24">
+      <c r="AA16" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.62331428571428571</v>
       </c>
-      <c r="AB16" s="24">
+      <c r="AB16" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="23">
+      <c r="AC16" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="23">
+      <c r="AD16" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="23">
+      <c r="AE16" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="23">
+      <c r="AF16" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="28">
+      <c r="AG16" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="28">
+      <c r="AH16" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="27">
+      <c r="AI16" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="28">
+      <c r="AJ16" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="27">
+      <c r="AK16" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="14">
         <v>40991</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="13">
         <v>1700</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="15">
         <v>0.26</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="H17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40994</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>442</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-442</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.12</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.16</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.3</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-458.35</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="23">
+      <c r="V17" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-458.35</v>
       </c>
-      <c r="W17" s="28">
+      <c r="W17" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-458.35</v>
       </c>
-      <c r="X17" s="23">
+      <c r="X17" s="15">
         <f t="shared" si="2"/>
         <v>0.26961764705882352</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Y17" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L17*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="21">
+      <c r="Z17" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>1700</v>
       </c>
-      <c r="AA17" s="24">
+      <c r="AA17" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.26961764705882352</v>
       </c>
-      <c r="AB17" s="24">
+      <c r="AB17" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="23">
+      <c r="AC17" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="23">
+      <c r="AD17" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="23">
+      <c r="AE17" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="23">
+      <c r="AF17" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="28">
+      <c r="AG17" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="28">
+      <c r="AH17" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI17" s="27">
+      <c r="AI17" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="28">
+      <c r="AJ17" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="27">
+      <c r="AK17" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="14">
         <v>40994</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="13">
         <v>700</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="15">
         <v>0.17</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="22">
+      <c r="H18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40995</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>119.00000000000001</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>119.00000000000001</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.03</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.04</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.08</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T18" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>103.08</v>
       </c>
-      <c r="U18" s="23">
+      <c r="U18" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V18" s="23">
+      <c r="V18" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>103.08</v>
       </c>
-      <c r="W18" s="28">
+      <c r="W18" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>103.08</v>
       </c>
-      <c r="X18" s="23">
+      <c r="X18" s="15">
         <f t="shared" si="2"/>
         <v>0.14725714285714286</v>
       </c>
-      <c r="Y18" s="23">
+      <c r="Y18" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L18*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="21">
+      <c r="Z18" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="24">
+      <c r="AA18" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.62331428571428571</v>
       </c>
-      <c r="AB18" s="24">
+      <c r="AB18" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0.14725714285714286</v>
       </c>
-      <c r="AC18" s="23">
+      <c r="AC18" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>-333.24</v>
       </c>
-      <c r="AD18" s="23">
+      <c r="AD18" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="23">
+      <c r="AE18" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="23">
+      <c r="AF18" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="28">
+      <c r="AG18" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="28">
+      <c r="AH18" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI18" s="27">
+      <c r="AI18" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ18" s="28">
+      <c r="AJ18" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK18" s="27">
+      <c r="AK18" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="22">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="14">
         <v>40997</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="13">
         <v>1700</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="15">
         <v>0.08</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="22">
+      <c r="H19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40998</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>136</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>136</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.03</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.05</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.09</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T19" s="23">
+      <c r="T19" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>120.05999999999997</v>
       </c>
-      <c r="U19" s="23">
+      <c r="U19" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V19" s="23">
+      <c r="V19" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>120.05999999999997</v>
       </c>
-      <c r="W19" s="28">
+      <c r="W19" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>120.05999999999997</v>
       </c>
-      <c r="X19" s="23">
+      <c r="X19" s="15">
         <f t="shared" si="2"/>
         <v>7.0623529411764696E-2</v>
       </c>
-      <c r="Y19" s="23">
+      <c r="Y19" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L19*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="21">
+      <c r="Z19" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="24">
+      <c r="AA19" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.26961764705882352</v>
       </c>
-      <c r="AB19" s="24">
+      <c r="AB19" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>7.0623529411764696E-2</v>
       </c>
-      <c r="AC19" s="23">
+      <c r="AC19" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>-338.29</v>
       </c>
-      <c r="AD19" s="23">
+      <c r="AD19" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE19" s="23">
+      <c r="AE19" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="23">
+      <c r="AF19" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG19" s="28">
+      <c r="AG19" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH19" s="28">
+      <c r="AH19" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI19" s="27">
+      <c r="AI19" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ19" s="28">
+      <c r="AJ19" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK19" s="27">
+      <c r="AK19" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="B20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="14">
         <v>40997</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="13">
         <v>1900</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="15">
         <v>0.24</v>
       </c>
-      <c r="H20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="H20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>40998</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>40999</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>456</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-320</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.16</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.21</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.41</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-352.33000000000004</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="23">
+      <c r="V20" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-352.33000000000004</v>
       </c>
-      <c r="W20" s="28">
+      <c r="W20" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-472.39</v>
       </c>
-      <c r="X20" s="23">
+      <c r="X20" s="15">
         <f t="shared" si="2"/>
         <v>0.24862631578947367</v>
       </c>
-      <c r="Y20" s="23">
+      <c r="Y20" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L20*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="21">
+      <c r="Z20" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>1900</v>
       </c>
-      <c r="AA20" s="24">
+      <c r="AA20" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.24862631578947367</v>
       </c>
-      <c r="AB20" s="24">
+      <c r="AB20" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="23">
+      <c r="AC20" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="23">
+      <c r="AD20" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>-656.81000000000017</v>
       </c>
-      <c r="AE20" s="23">
+      <c r="AE20" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>-656.81000000000017</v>
       </c>
-      <c r="AF20" s="23">
+      <c r="AF20" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>478.50999999999988</v>
       </c>
-      <c r="AG20" s="28">
+      <c r="AG20" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH20" s="28">
+      <c r="AH20" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>90.92</v>
       </c>
-      <c r="AI20" s="27">
+      <c r="AI20" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>90.92</v>
       </c>
-      <c r="AJ20" s="28">
+      <c r="AJ20" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>99.820000000000007</v>
       </c>
-      <c r="AK20" s="27">
+      <c r="AK20" s="19">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>-278.12000000000029</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="14">
         <v>40998</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="13">
         <v>1200</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="15">
         <v>0.38</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="H21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>41001</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>41029</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>456</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-456</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.12</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.16</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.31</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-472.36</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="23">
+      <c r="V21" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-472.36</v>
       </c>
-      <c r="W21" s="28">
+      <c r="W21" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-472.36</v>
       </c>
-      <c r="X21" s="23">
+      <c r="X21" s="15">
         <f t="shared" ref="X21:X27" si="3">ABS(W21)/F21</f>
         <v>0.39363333333333334</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y21" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L21*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="21">
+      <c r="Z21" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>1300</v>
       </c>
-      <c r="AA21" s="24">
+      <c r="AA21" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.46309999999999996</v>
       </c>
-      <c r="AB21" s="24">
+      <c r="AB21" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="23">
+      <c r="AC21" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="23">
+      <c r="AD21" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="23">
+      <c r="AE21" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="23">
+      <c r="AF21" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG21" s="28">
+      <c r="AG21" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="28">
+      <c r="AH21" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="27">
+      <c r="AI21" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ21" s="28">
+      <c r="AJ21" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK21" s="28">
+      <c r="AK21" s="20">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="14">
         <v>41001</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="13">
         <v>3000</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="15">
         <v>0.16</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="H22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>41002</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>41029</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>3</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>480</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-480</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.13</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.17</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.33</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T22" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-496.4</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="23">
+      <c r="V22" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-496.4</v>
       </c>
-      <c r="W22" s="28">
+      <c r="W22" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-496.4</v>
       </c>
-      <c r="X22" s="23">
+      <c r="X22" s="15">
         <f t="shared" si="3"/>
         <v>0.16546666666666665</v>
       </c>
-      <c r="Y22" s="23">
+      <c r="Y22" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L22*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="21">
+      <c r="Z22" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>3000</v>
       </c>
-      <c r="AA22" s="24">
+      <c r="AA22" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.16546666666666665</v>
       </c>
-      <c r="AB22" s="24">
+      <c r="AB22" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="23">
+      <c r="AC22" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="23">
+      <c r="AD22" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="23">
+      <c r="AE22" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="23">
+      <c r="AF22" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="28">
+      <c r="AG22" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="28">
+      <c r="AH22" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI22" s="27">
+      <c r="AI22" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ22" s="28">
+      <c r="AJ22" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK22" s="28">
+      <c r="AK22" s="20">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="22">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="14">
         <v>41002</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="13">
         <v>1900</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="15">
         <v>0.09</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="22">
+      <c r="H23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>41003</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>41029</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>171</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>171</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.06</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.11</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T23" s="23">
+      <c r="T23" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>155.01999999999998</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U23" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V23" s="23">
+      <c r="V23" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>155.01999999999998</v>
       </c>
-      <c r="W23" s="28">
+      <c r="W23" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>155.01999999999998</v>
       </c>
-      <c r="X23" s="23">
+      <c r="X23" s="15">
         <f t="shared" si="3"/>
         <v>8.1589473684210517E-2</v>
       </c>
-      <c r="Y23" s="23">
+      <c r="Y23" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L23*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="Z23" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="24">
+      <c r="AA23" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.24862631578947367</v>
       </c>
-      <c r="AB23" s="24">
+      <c r="AB23" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>8.1589473684210517E-2</v>
       </c>
-      <c r="AC23" s="23">
+      <c r="AC23" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>-317.37</v>
       </c>
-      <c r="AD23" s="23">
+      <c r="AD23" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="23">
+      <c r="AE23" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="23">
+      <c r="AF23" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="28">
+      <c r="AG23" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="28">
+      <c r="AH23" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI23" s="27">
+      <c r="AI23" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ23" s="28">
+      <c r="AJ23" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK23" s="28">
+      <c r="AK23" s="20">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="22">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="14">
         <v>41003</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="13">
         <v>1300</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="15">
         <v>0.05</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="22">
+      <c r="H24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>41004</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>41029</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>65</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>65</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.01</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.02</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.04</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T24" s="23">
+      <c r="T24" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>49.16</v>
       </c>
-      <c r="U24" s="23">
+      <c r="U24" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V24" s="23">
+      <c r="V24" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>49.16</v>
       </c>
-      <c r="W24" s="28">
+      <c r="W24" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>49.16</v>
       </c>
-      <c r="X24" s="23">
+      <c r="X24" s="15">
         <f t="shared" si="3"/>
         <v>3.7815384615384612E-2</v>
       </c>
-      <c r="Y24" s="23">
+      <c r="Y24" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L24*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="21">
+      <c r="Z24" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="24">
+      <c r="AA24" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.46309999999999996</v>
       </c>
-      <c r="AB24" s="24">
+      <c r="AB24" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>3.7815384615384612E-2</v>
       </c>
-      <c r="AC24" s="23">
+      <c r="AC24" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>-552.87</v>
       </c>
-      <c r="AD24" s="23">
+      <c r="AD24" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="23">
+      <c r="AE24" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF24" s="23">
+      <c r="AF24" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG24" s="28">
+      <c r="AG24" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH24" s="28">
+      <c r="AH24" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI24" s="27">
+      <c r="AI24" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ24" s="28">
+      <c r="AJ24" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK24" s="28">
+      <c r="AK24" s="20">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="22">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="14">
         <v>41004</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="13">
         <v>800</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="15">
         <v>0.5</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="H25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>41005</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>41029</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>400</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>-400</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.11</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.27</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q25" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T25" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>-416.28999999999996</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U25" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V25" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>-416.28999999999996</v>
       </c>
-      <c r="W25" s="28">
+      <c r="W25" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-416.28999999999996</v>
       </c>
-      <c r="X25" s="23">
+      <c r="X25" s="15">
         <f t="shared" si="3"/>
         <v>0.52036249999999995</v>
       </c>
-      <c r="Y25" s="23">
+      <c r="Y25" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L25*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="21">
+      <c r="Z25" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>800</v>
       </c>
-      <c r="AA25" s="24">
+      <c r="AA25" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.52036249999999995</v>
       </c>
-      <c r="AB25" s="24">
+      <c r="AB25" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="23">
+      <c r="AC25" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="23">
+      <c r="AD25" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="23">
+      <c r="AE25" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="23">
+      <c r="AF25" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG25" s="28">
+      <c r="AG25" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="28">
+      <c r="AH25" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI25" s="27">
+      <c r="AI25" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ25" s="28">
+      <c r="AJ25" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK25" s="28">
+      <c r="AK25" s="20">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="22">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="14">
         <v>41010</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="13">
         <v>3000</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="15">
         <v>0.01</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="22">
+      <c r="H26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>41011</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>41029</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>3</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>30</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>30</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.01</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.02</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>14.2</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="23">
+      <c r="V26" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>14.2</v>
       </c>
-      <c r="W26" s="28">
+      <c r="W26" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>14.2</v>
       </c>
-      <c r="X26" s="23">
+      <c r="X26" s="15">
         <f t="shared" si="3"/>
         <v>4.7333333333333333E-3</v>
       </c>
-      <c r="Y26" s="23">
+      <c r="Y26" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L26*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="21">
+      <c r="Z26" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA26" s="24">
+      <c r="AA26" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.16546666666666665</v>
       </c>
-      <c r="AB26" s="24">
+      <c r="AB26" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>4.7333333333333333E-3</v>
       </c>
-      <c r="AC26" s="23">
+      <c r="AC26" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>-482.19999999999993</v>
       </c>
-      <c r="AD26" s="23">
+      <c r="AD26" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="23">
+      <c r="AE26" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="23">
+      <c r="AF26" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG26" s="28">
+      <c r="AG26" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="28">
+      <c r="AH26" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI26" s="27">
+      <c r="AI26" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ26" s="28">
+      <c r="AJ26" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK26" s="28">
+      <c r="AK26" s="20">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="B27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="14">
         <v>41010</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="13">
         <v>800</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="15">
         <v>1</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="H27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
         <v>41011</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>41029</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="13">
         <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="15">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>800</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="15">
         <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
         <v>830</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.22</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.3</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="15">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="15">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="15">
         <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="15">
         <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T27" s="15">
         <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
         <v>797.36</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U27" s="15">
         <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V27" s="15">
         <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
         <v>797.36</v>
       </c>
-      <c r="W27" s="28">
+      <c r="W27" s="20">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>783.16</v>
       </c>
-      <c r="X27" s="23">
+      <c r="X27" s="15">
         <f t="shared" si="3"/>
         <v>0.97894999999999999</v>
       </c>
-      <c r="Y27" s="23">
+      <c r="Y27" s="15">
         <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L27*SETUP!$H$3,     0),2)</f>
         <v>0.04</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z27" s="13">
         <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="24">
+      <c r="AA27" s="16">
         <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
         <v>0.52036249999999995</v>
       </c>
-      <c r="AB27" s="24">
+      <c r="AB27" s="16">
         <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
         <v>0.97894999999999999</v>
       </c>
-      <c r="AC27" s="23">
+      <c r="AC27" s="15">
         <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
         <v>366.87</v>
       </c>
-      <c r="AD27" s="23">
+      <c r="AD27" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
         <v>-985.57</v>
       </c>
-      <c r="AE27" s="23">
+      <c r="AE27" s="15">
         <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
         <v>-1642.38</v>
       </c>
-      <c r="AF27" s="23">
+      <c r="AF27" s="15">
         <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG27" s="28">
+      <c r="AG27" s="20">
         <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH27" s="28">
+      <c r="AH27" s="20">
         <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI27" s="27">
+      <c r="AI27" s="19">
         <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ27" s="28">
+      <c r="AJ27" s="20">
         <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK27" s="28">
+      <c r="AK27" s="20">
         <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
         <v>-985.57</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A28" s="31">
+      <c r="A28" s="23">
         <f>SUBTOTAL(104,NC[ID])</f>
         <v>26</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="23">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="15">
         <f>SUBTOTAL(109,NC[IRRF])</f>
         <v>0.12</v>
       </c>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="23">
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="15">
         <f>SUBTOTAL(109,NC[LUCRO P/ OP])</f>
         <v>-1163.8700000000003</v>
       </c>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="35">
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="27">
         <f>SUBTOTAL(109,NC[LUCRO LÍQUIDO])</f>
         <v>-1263.6900000000003</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="AE29" s="34"/>
+      <c r="AE29" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -7125,6 +6765,378 @@
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan4"/>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="32">
+        <v>100</v>
+      </c>
+      <c r="C2" s="32">
+        <v>21.88</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E2" s="32">
+        <v>21.24</v>
+      </c>
+      <c r="F2" s="35">
+        <f>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</f>
+        <v>344</v>
+      </c>
+      <c r="G2" s="35">
+        <f>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</f>
+        <v>300</v>
+      </c>
+      <c r="H2" s="32">
+        <f>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</f>
+        <v>22.459999999999997</v>
+      </c>
+      <c r="I2" s="34">
+        <f>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</f>
+        <v>5.7438794726930364E-2</v>
+      </c>
+      <c r="J2" s="32">
+        <f>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</f>
+        <v>73.95</v>
+      </c>
+      <c r="K2" s="32">
+        <f>Tabela2[PREÇO AÇÃO] * 105%</f>
+        <v>22.302</v>
+      </c>
+      <c r="L2" s="32">
+        <f>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</f>
+        <v>0.4220000000000006</v>
+      </c>
+      <c r="M2" s="34">
+        <f>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</f>
+        <v>0.45517241379310569</v>
+      </c>
+      <c r="N2" s="32">
+        <f>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</f>
+        <v>33.66000000000016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="32">
+        <v>100</v>
+      </c>
+      <c r="C3" s="32">
+        <v>14</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E3" s="32">
+        <v>13.98</v>
+      </c>
+      <c r="F3" s="35">
+        <f>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</f>
+        <v>175</v>
+      </c>
+      <c r="G3" s="35">
+        <f>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</f>
+        <v>100</v>
+      </c>
+      <c r="H3" s="32">
+        <f>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</f>
+        <v>15.14</v>
+      </c>
+      <c r="I3" s="34">
+        <f>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</f>
+        <v>8.2975679542203196E-2</v>
+      </c>
+      <c r="J3" s="32">
+        <f>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</f>
+        <v>48.449999999999996</v>
+      </c>
+      <c r="K3" s="32">
+        <f>Tabela2[PREÇO AÇÃO] * 105%</f>
+        <v>14.679</v>
+      </c>
+      <c r="L3" s="32">
+        <f>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</f>
+        <v>0.67900000000000027</v>
+      </c>
+      <c r="M3" s="34">
+        <f>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</f>
+        <v>0.19122807017543919</v>
+      </c>
+      <c r="N3" s="32">
+        <f>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</f>
+        <v>9.2650000000000272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="32">
+        <v>100</v>
+      </c>
+      <c r="C4" s="32">
+        <v>15</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="32">
+        <v>13.98</v>
+      </c>
+      <c r="F4" s="35">
+        <f>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</f>
+        <v>500</v>
+      </c>
+      <c r="G4" s="35">
+        <f>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</f>
+        <v>500</v>
+      </c>
+      <c r="H4" s="32">
+        <f>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</f>
+        <v>15.4</v>
+      </c>
+      <c r="I4" s="34">
+        <f>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</f>
+        <v>0.10157367668097272</v>
+      </c>
+      <c r="J4" s="32">
+        <f>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</f>
+        <v>85</v>
+      </c>
+      <c r="K4" s="32">
+        <f>Tabela2[PREÇO AÇÃO] * 105%</f>
+        <v>14.679</v>
+      </c>
+      <c r="L4" s="32">
+        <f>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</f>
+        <v>-0.32099999999999973</v>
+      </c>
+      <c r="M4" s="34">
+        <f>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</f>
+        <v>-2.6049999999999986</v>
+      </c>
+      <c r="N4" s="32">
+        <f>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</f>
+        <v>-221.42499999999984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="32">
+        <v>100</v>
+      </c>
+      <c r="C5" s="32">
+        <v>42.09</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.86</v>
+      </c>
+      <c r="E5" s="32">
+        <v>41.78</v>
+      </c>
+      <c r="F5" s="35">
+        <f>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</f>
+        <v>116</v>
+      </c>
+      <c r="G5" s="35">
+        <f>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="32">
+        <f>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</f>
+        <v>43.81</v>
+      </c>
+      <c r="I5" s="34">
+        <f>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</f>
+        <v>4.8587841072283311E-2</v>
+      </c>
+      <c r="J5" s="32">
+        <f>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</f>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="K5" s="32">
+        <f>Tabela2[PREÇO AÇÃO] * 105%</f>
+        <v>43.869</v>
+      </c>
+      <c r="L5" s="32">
+        <f>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</f>
+        <v>1.7789999999999964</v>
+      </c>
+      <c r="M5" s="34">
+        <f>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</f>
+        <v>1.0686046511627865</v>
+      </c>
+      <c r="N5" s="32">
+        <f>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</f>
+        <v>78.114999999999682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="32">
+        <v>100</v>
+      </c>
+      <c r="C6" s="32">
+        <v>10.88</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.39</v>
+      </c>
+      <c r="E6" s="32">
+        <v>10.91</v>
+      </c>
+      <c r="F6" s="35">
+        <f>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</f>
+        <v>256</v>
+      </c>
+      <c r="G6" s="35">
+        <f>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</f>
+        <v>200</v>
+      </c>
+      <c r="H6" s="32">
+        <f>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</f>
+        <v>11.66</v>
+      </c>
+      <c r="I6" s="34">
+        <f>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</f>
+        <v>6.8744271310724026E-2</v>
+      </c>
+      <c r="J6" s="32">
+        <f>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</f>
+        <v>66.3</v>
+      </c>
+      <c r="K6" s="32">
+        <f>Tabela2[PREÇO AÇÃO] * 105%</f>
+        <v>11.455500000000001</v>
+      </c>
+      <c r="L6" s="32">
+        <f>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</f>
+        <v>0.5754999999999999</v>
+      </c>
+      <c r="M6" s="34">
+        <f>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</f>
+        <v>0.47564102564102528</v>
+      </c>
+      <c r="N6" s="32">
+        <f>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</f>
+        <v>31.534999999999982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f>SUBTOTAL(103,Tabela2[LUCRO 5%])</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7152,48 +7164,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38" t="s">
+      <c r="F1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>37</v>
+      <c r="I1" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+        <v>13</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -7220,50 +7232,50 @@
       <c r="H3" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="17">
         <v>6765.77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="A4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="A5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>41</v>
+      <c r="A6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -7308,23 +7320,4 @@
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Plan4"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="16380" windowHeight="8010" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="16380" windowHeight="8010" tabRatio="211"/>
   </bookViews>
   <sheets>
     <sheet name="NOTAS" sheetId="1" r:id="rId1"/>
     <sheet name="TENDENCIA" sheetId="3" r:id="rId2"/>
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>ATIVO</t>
   </si>
@@ -273,31 +273,32 @@
     <t>QTDE TMP</t>
   </si>
   <si>
-    <t>OGXPE14</t>
-  </si>
-  <si>
-    <t>OGXPE15</t>
-  </si>
-  <si>
     <t>VALEE43</t>
   </si>
   <si>
-    <t>BVMFE11</t>
+    <t>VALEE41</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>VC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -341,9 +342,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -375,48 +380,61 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,19 +444,732 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="107">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -473,6 +1204,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -491,6 +1239,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -509,6 +1275,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -527,6 +1310,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -545,6 +1345,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -563,6 +1380,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -581,6 +1416,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -671,6 +1523,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -741,23 +1610,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -827,127 +1679,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -982,405 +1713,143 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1399,528 +1868,254 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1939,99 +2134,45 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2050,62 +2191,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2124,62 +2229,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2198,25 +2267,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2235,25 +2286,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2272,25 +2305,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2309,21 +2324,21 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2342,7 +2357,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2360,7 +2375,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2373,106 +2388,106 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AK28" totalsRowCount="1" headerRowDxfId="105" dataDxfId="104" totalsRowDxfId="103">
-  <autoFilter ref="A1:AK27"/>
-  <sortState ref="A2:AG8">
-    <sortCondition ref="A1:A8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AK33" totalsRowCount="1" headerRowDxfId="106" dataDxfId="105" totalsRowDxfId="104">
+  <autoFilter ref="A1:AK32"/>
+  <sortState ref="A2:AK27">
+    <sortCondition ref="E1:E27"/>
   </sortState>
   <tableColumns count="37">
-    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="36" name="U" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="3" name="T" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="4" name="DATA" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="86" totalsRowDxfId="85">
+    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="103" totalsRowDxfId="37"/>
+    <tableColumn id="36" name="U" dataDxfId="102" totalsRowDxfId="36"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="101" totalsRowDxfId="35"/>
+    <tableColumn id="3" name="T" dataDxfId="100" totalsRowDxfId="34"/>
+    <tableColumn id="4" name="DATA" dataDxfId="99" totalsRowDxfId="33"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="98" totalsRowDxfId="32"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="97" totalsRowDxfId="31"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="96" totalsRowDxfId="30"/>
+    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="95" totalsRowDxfId="29">
       <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="DATA BASE" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="31" name="DATA BASE" dataDxfId="94" totalsRowDxfId="28">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="82" totalsRowDxfId="81">
-      <calculatedColumnFormula>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</calculatedColumnFormula>
+    <tableColumn id="21" name="PAR" dataDxfId="93" totalsRowDxfId="27">
+      <calculatedColumnFormula>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="80" totalsRowDxfId="79">
-      <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
+    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="92" totalsRowDxfId="26">
+      <calculatedColumnFormula>[QTDE]*[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="78" totalsRowDxfId="77">
-      <calculatedColumnFormula>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
+    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="91" totalsRowDxfId="25">
+      <calculatedColumnFormula>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="76" totalsRowDxfId="75">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
+    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="90" totalsRowDxfId="24">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="74" totalsRowDxfId="73">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
+    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="89" totalsRowDxfId="23">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="72" totalsRowDxfId="71">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
+    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="88" totalsRowDxfId="22">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORRETAGEM" dataDxfId="70" totalsRowDxfId="69">
-      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
+    <tableColumn id="12" name="CORRETAGEM" dataDxfId="87" totalsRowDxfId="21">
+      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="68" totalsRowDxfId="67">
-      <calculatedColumnFormula>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
+    <tableColumn id="13" name="ISS" dataDxfId="86" totalsRowDxfId="20">
+      <calculatedColumnFormula>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="66" totalsRowDxfId="65">
-      <calculatedColumnFormula>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
+    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="85" totalsRowDxfId="19">
+      <calculatedColumnFormula>ROUND([CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="64" totalsRowDxfId="63">
-      <calculatedColumnFormula>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</calculatedColumnFormula>
+    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="84" totalsRowDxfId="18">
+      <calculatedColumnFormula>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="IRRF FONTE" dataDxfId="62" totalsRowDxfId="61">
-      <calculatedColumnFormula>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</calculatedColumnFormula>
+    <tableColumn id="33" name="IRRF FONTE" dataDxfId="83" totalsRowDxfId="17">
+      <calculatedColumnFormula>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="LÍQUIDO" totalsRowDxfId="60">
-      <calculatedColumnFormula>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</calculatedColumnFormula>
+    <tableColumn id="35" name="LÍQUIDO" dataDxfId="0" totalsRowDxfId="16">
+      <calculatedColumnFormula>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Moeda">
-      <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="82" totalsRowDxfId="15" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="81" totalsRowDxfId="14">
       <calculatedColumnFormula>ABS(W2)/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
-      <calculatedColumnFormula>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="13">
+      <calculatedColumnFormula>TRUNC(IF(OR([T]="CV",[T]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="53" totalsRowDxfId="52">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</calculatedColumnFormula>
+    <tableColumn id="24" name="SALDO" dataDxfId="79" totalsRowDxfId="12">
+      <calculatedColumnFormula>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="51" totalsRowDxfId="50">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
+    <tableColumn id="22" name="MED CP" dataDxfId="78" totalsRowDxfId="11">
+      <calculatedColumnFormula>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="49" totalsRowDxfId="48">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</calculatedColumnFormula>
+    <tableColumn id="23" name="MED VD" dataDxfId="39" totalsRowDxfId="10">
+      <calculatedColumnFormula>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46">
-      <calculatedColumnFormula>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</calculatedColumnFormula>
+    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="9">
+      <calculatedColumnFormula xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="LUCRO [N]" dataDxfId="45" totalsRowDxfId="44">
-      <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
+    <tableColumn id="1" name="LUCRO [N]" dataDxfId="77" totalsRowDxfId="8">
+      <calculatedColumnFormula>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name=" TRIB. [N]" dataDxfId="43" totalsRowDxfId="42">
-      <calculatedColumnFormula>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</calculatedColumnFormula>
+    <tableColumn id="37" name=" TRIB. [N]" dataDxfId="76" totalsRowDxfId="7">
+      <calculatedColumnFormula>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="41" totalsRowDxfId="40">
-      <calculatedColumnFormula>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</calculatedColumnFormula>
+    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="75" totalsRowDxfId="6">
+      <calculatedColumnFormula>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="IR [N]" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</calculatedColumnFormula>
+    <tableColumn id="32" name="IR [N]" dataDxfId="74" totalsRowDxfId="5" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</calculatedColumnFormula>
+    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="73" totalsRowDxfId="4" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="IR DEVIDO" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Moeda">
-      <calculatedColumnFormula>NC[IR '[N']] + NC[IR DEVIDO DT]</calculatedColumnFormula>
+    <tableColumn id="14" name="IR DEVIDO" dataDxfId="72" totalsRowDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[IR '[N']] + [IR DEVIDO DT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="RESGATE" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</calculatedColumnFormula>
+    <tableColumn id="26" name="RESGATE" dataDxfId="71" totalsRowDxfId="2" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="LUCRO LÍQUIDO" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Moeda">
-      <calculatedColumnFormula>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</calculatedColumnFormula>
+    <tableColumn id="27" name="LUCRO LÍQUIDO" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2480,40 +2495,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:N7" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:N6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:N3" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="A1:N2"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="PAPEL" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="20" totalsRowDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="EXERCÍCIO" dataDxfId="26" totalsRowDxfId="11" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="PREÇO OPÇÃO" dataDxfId="25" totalsRowDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="PREÇO AÇÃO" dataDxfId="19" totalsRowDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="11" name="QTDE TMP" dataDxfId="17" totalsRowDxfId="8" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</calculatedColumnFormula>
+    <tableColumn id="1" name="PAPEL" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="EXERCÍCIO" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="PREÇO OPÇÃO" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="PREÇO AÇÃO" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Moeda"/>
+    <tableColumn id="11" name="QTDE TMP" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUNDDOWN([APLICAÇÃO]/[PREÇO OPÇÃO], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="QTDE" dataDxfId="14" totalsRowDxfId="7" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</calculatedColumnFormula>
+    <tableColumn id="14" name="QTDE" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="TARGET 100%" dataDxfId="18" totalsRowDxfId="6" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</calculatedColumnFormula>
+    <tableColumn id="5" name="TARGET 100%" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[EXERCÍCIO] + ([PREÇO OPÇÃO] * 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="ALTA 100%" dataDxfId="24" totalsRowDxfId="5" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</calculatedColumnFormula>
+    <tableColumn id="6" name="ALTA 100%" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[TARGET 100%] / [PREÇO AÇÃO] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="LUCRO 100%" dataDxfId="16" totalsRowDxfId="4" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</calculatedColumnFormula>
+    <tableColumn id="12" name="LUCRO 100%" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PREÇO OPÇÃO] * [QTDE] * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TARGET 5%" dataDxfId="23" totalsRowDxfId="3" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela2[PREÇO AÇÃO] * 105%</calculatedColumnFormula>
+    <tableColumn id="7" name="TARGET 5%" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PREÇO AÇÃO] * 105%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR 5%" dataDxfId="22" totalsRowDxfId="2" dataCellStyle="Moeda">
-      <calculatedColumnFormula>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</calculatedColumnFormula>
+    <tableColumn id="8" name="VALOR 5%" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Moeda">
+      <calculatedColumnFormula>([TARGET 5%] - [EXERCÍCIO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ALTA 5%" dataDxfId="21" totalsRowDxfId="1" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</calculatedColumnFormula>
+    <tableColumn id="9" name="ALTA 5%" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[VALOR 5%] / [PREÇO OPÇÃO] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LUCRO 5%" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="0" dataCellStyle="Moeda">
-      <calculatedColumnFormula>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</calculatedColumnFormula>
+    <tableColumn id="13" name="LUCRO 5%" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Moeda">
+      <calculatedColumnFormula>([VALOR 5%] - [PREÇO OPÇÃO]) * [QTDE] * 0.85</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2830,7 +2845,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2872,7 +2887,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2891,18 +2906,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan2"/>
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -2925,8 +2940,7 @@
     <col min="20" max="20" width="10.42578125" style="7" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" style="7" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="11.85546875" style="7" customWidth="1"/>
     <col min="25" max="25" width="8.5703125" style="7" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="9.85546875" style="7" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="11.140625" style="7" hidden="1" customWidth="1"/>
@@ -2943,7 +2957,7 @@
     <col min="38" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
@@ -3056,7 +3070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3088,115 +3102,115 @@
         <v>40999</v>
       </c>
       <c r="K2" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L2" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>168.00000000000003</v>
       </c>
       <c r="M2" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-168.00000000000003</v>
       </c>
       <c r="N2" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
       <c r="O2" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.06</v>
       </c>
       <c r="P2" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.11</v>
       </c>
       <c r="Q2" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R2" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S2" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T2" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-183.98000000000005</v>
       </c>
       <c r="U2" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V2" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-183.98000000000005</v>
       </c>
       <c r="W2" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-183.98000000000005</v>
       </c>
       <c r="X2" s="15">
-        <f t="shared" ref="X2:X8" si="0">ABS(W2)/F2</f>
+        <f t="shared" ref="X2:X32" si="0">ABS(W2)/F2</f>
         <v>0.30663333333333342</v>
       </c>
       <c r="Y2" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L2*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L2*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>600</v>
       </c>
       <c r="AA2" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.30663333333333342</v>
       </c>
       <c r="AB2" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD2" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF2" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="19">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH2" s="19">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK2" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -3228,55 +3242,55 @@
         <v>40999</v>
       </c>
       <c r="K3" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L3" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>160</v>
       </c>
       <c r="M3" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-328</v>
       </c>
       <c r="N3" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.09</v>
       </c>
       <c r="O3" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.12</v>
       </c>
       <c r="P3" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.22</v>
       </c>
       <c r="Q3" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="R3" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="S3" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="T3" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-359.98</v>
       </c>
       <c r="U3" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V3" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-359.98</v>
       </c>
       <c r="W3" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-175.99999999999997</v>
       </c>
       <c r="X3" s="15">
@@ -3284,59 +3298,59 @@
         <v>0.43999999999999995</v>
       </c>
       <c r="Y3" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L3*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L3*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>400</v>
       </c>
       <c r="AA3" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.43999999999999995</v>
       </c>
       <c r="AB3" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD3" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="19">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH3" s="19">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK3" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3368,55 +3382,55 @@
         <v>40999</v>
       </c>
       <c r="K4" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>0</v>
       </c>
       <c r="L4" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>228</v>
       </c>
       <c r="M4" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-228</v>
       </c>
       <c r="N4" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
       <c r="O4" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.02</v>
       </c>
       <c r="P4" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.03</v>
       </c>
       <c r="Q4" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R4" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S4" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T4" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-243.28</v>
       </c>
       <c r="U4" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V4" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-245.25</v>
       </c>
       <c r="W4" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-245.25</v>
       </c>
       <c r="X4" s="15">
@@ -3424,59 +3438,59 @@
         <v>0.204375</v>
       </c>
       <c r="Y4" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L4*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L4*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA4" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.204375</v>
       </c>
       <c r="AB4" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD4" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG4" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK4" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -3508,55 +3522,55 @@
         <v>40999</v>
       </c>
       <c r="K5" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>456</v>
       </c>
       <c r="M5" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>228</v>
       </c>
       <c r="N5" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.12</v>
       </c>
       <c r="O5" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.08</v>
       </c>
       <c r="P5" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.1</v>
       </c>
       <c r="Q5" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="R5" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="S5" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="T5" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>197.30999999999997</v>
       </c>
       <c r="U5" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>1.97</v>
       </c>
       <c r="V5" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>195.33999999999997</v>
       </c>
       <c r="W5" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>440.59</v>
       </c>
       <c r="X5" s="15">
@@ -3564,59 +3578,59 @@
         <v>0.36715833333333331</v>
       </c>
       <c r="Y5" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L5*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L5*SETUP!$H$3,     0),2)</f>
         <v>0.02</v>
       </c>
       <c r="Z5" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.204375</v>
       </c>
       <c r="AB5" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.36715833333333331</v>
       </c>
       <c r="AC5" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>197.30999999999997</v>
       </c>
       <c r="AD5" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH5" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI5" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK5" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3648,55 +3662,55 @@
         <v>40999</v>
       </c>
       <c r="K6" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L6" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>320</v>
       </c>
       <c r="M6" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>548</v>
       </c>
       <c r="N6" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.21</v>
       </c>
       <c r="O6" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.2</v>
       </c>
       <c r="P6" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.32</v>
       </c>
       <c r="Q6" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
       <c r="R6" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
       <c r="S6" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
       <c r="T6" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>499.93999999999988</v>
       </c>
       <c r="U6" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V6" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>497.96999999999986</v>
       </c>
       <c r="W6" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>302.62999999999988</v>
       </c>
       <c r="X6" s="15">
@@ -3704,59 +3718,59 @@
         <v>0.75657499999999966</v>
       </c>
       <c r="Y6" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L6*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L6*SETUP!$H$3,     0),2)</f>
         <v>0.01</v>
       </c>
       <c r="Z6" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA6" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.43999999999999995</v>
       </c>
       <c r="AB6" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.75657499999999966</v>
       </c>
       <c r="AC6" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>126.62999999999988</v>
       </c>
       <c r="AD6" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG6" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH6" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI6" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK6" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3788,55 +3802,55 @@
         <v>40999</v>
       </c>
       <c r="K7" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L7" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>160</v>
       </c>
       <c r="M7" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>388</v>
       </c>
       <c r="N7" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.25</v>
       </c>
       <c r="O7" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.25</v>
       </c>
       <c r="P7" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.43</v>
       </c>
       <c r="Q7" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>59.6</v>
       </c>
       <c r="R7" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>1.19</v>
       </c>
       <c r="S7" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>2.3199999999999998</v>
       </c>
       <c r="T7" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>323.95999999999998</v>
       </c>
       <c r="U7" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V7" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>321.98999999999995</v>
       </c>
       <c r="W7" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-175.9799999999999</v>
       </c>
       <c r="X7" s="15">
@@ -3844,59 +3858,59 @@
         <v>0.87989999999999957</v>
       </c>
       <c r="Y7" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L7*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L7*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>200</v>
       </c>
       <c r="AA7" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.87989999999999957</v>
       </c>
       <c r="AB7" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC7" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD7" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE7" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF7" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG7" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH7" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI7" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK7" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -3928,55 +3942,55 @@
         <v>40999</v>
       </c>
       <c r="K8" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L8" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>336.00000000000006</v>
       </c>
       <c r="M8" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>724</v>
       </c>
       <c r="N8" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.34</v>
       </c>
       <c r="O8" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.38</v>
       </c>
       <c r="P8" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.66</v>
       </c>
       <c r="Q8" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>74.5</v>
       </c>
       <c r="R8" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>1.49</v>
       </c>
       <c r="S8" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>2.91</v>
       </c>
       <c r="T8" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>643.72</v>
       </c>
       <c r="U8" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V8" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>641.75</v>
       </c>
       <c r="W8" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>319.76000000000005</v>
       </c>
       <c r="X8" s="15">
@@ -3984,59 +3998,59 @@
         <v>0.53293333333333337</v>
       </c>
       <c r="Y8" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L8*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L8*SETUP!$H$3,     0),2)</f>
         <v>0.01</v>
       </c>
       <c r="Z8" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA8" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.30663333333333342</v>
       </c>
       <c r="AB8" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.53293333333333337</v>
       </c>
       <c r="AC8" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>135.77999999999997</v>
       </c>
       <c r="AD8" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG8" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH8" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -4068,115 +4082,115 @@
         <v>40999</v>
       </c>
       <c r="K9" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>312</v>
       </c>
       <c r="M9" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-312</v>
       </c>
       <c r="N9" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.05</v>
       </c>
       <c r="O9" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.03</v>
       </c>
       <c r="P9" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.04</v>
       </c>
       <c r="Q9" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R9" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S9" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T9" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-327.31</v>
       </c>
       <c r="U9" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-330.12</v>
       </c>
       <c r="W9" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-330.12</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" ref="X9:X14" si="1">ABS(W9)/F9</f>
+        <f t="shared" si="0"/>
         <v>0.13755000000000001</v>
       </c>
       <c r="Y9" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L9*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L9*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z9" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA9" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.13755000000000001</v>
       </c>
       <c r="AB9" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD9" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG9" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH9" s="19">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI9" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK9" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -4208,115 +4222,115 @@
         <v>40999</v>
       </c>
       <c r="K10" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>624</v>
       </c>
       <c r="M10" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>312</v>
       </c>
       <c r="N10" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.16</v>
       </c>
       <c r="O10" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.11</v>
       </c>
       <c r="P10" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="Q10" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="R10" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="S10" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="T10" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>281.2</v>
       </c>
       <c r="U10" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>2.81</v>
       </c>
       <c r="V10" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>278.39</v>
       </c>
       <c r="W10" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>608.51</v>
       </c>
       <c r="X10" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.2535458333333333</v>
       </c>
       <c r="Y10" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L10*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L10*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
       <c r="Z10" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA10" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.13755000000000001</v>
       </c>
       <c r="AB10" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.2535458333333333</v>
       </c>
       <c r="AC10" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>281.19999999999993</v>
       </c>
       <c r="AD10" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF10" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG10" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH10" s="19">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI10" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK10" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -4348,115 +4362,115 @@
         <v>40999</v>
       </c>
       <c r="K11" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L11" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>312</v>
       </c>
       <c r="M11" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>0</v>
       </c>
       <c r="N11" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.25</v>
       </c>
       <c r="O11" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.22</v>
       </c>
       <c r="P11" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.35</v>
       </c>
       <c r="Q11" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
       <c r="R11" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
       <c r="S11" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
       <c r="T11" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-48.150000000000006</v>
       </c>
       <c r="U11" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V11" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-50.960000000000008</v>
       </c>
       <c r="W11" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-329.35</v>
       </c>
       <c r="X11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.41168750000000004</v>
       </c>
       <c r="Y11" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L11*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L11*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>800</v>
       </c>
       <c r="AA11" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.41168750000000004</v>
       </c>
       <c r="AB11" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD11" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE11" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG11" s="19">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH11" s="19">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI11" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK11" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -4488,115 +4502,115 @@
         <v>40999</v>
       </c>
       <c r="K12" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L12" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>360</v>
       </c>
       <c r="M12" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-360</v>
       </c>
       <c r="N12" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.09</v>
       </c>
       <c r="O12" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.13</v>
       </c>
       <c r="P12" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.25</v>
       </c>
       <c r="Q12" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R12" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S12" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T12" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-376.23999999999995</v>
       </c>
       <c r="U12" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V12" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-376.23999999999995</v>
       </c>
       <c r="W12" s="15">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-376.23999999999995</v>
       </c>
       <c r="X12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.75247999999999993</v>
       </c>
       <c r="Y12" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L12*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L12*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>500</v>
       </c>
       <c r="AA12" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.75247999999999993</v>
       </c>
       <c r="AB12" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC12" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD12" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG12" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH12" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI12" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK12" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -4628,115 +4642,115 @@
         <v>40999</v>
       </c>
       <c r="K13" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L13" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>168</v>
       </c>
       <c r="M13" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>168</v>
       </c>
       <c r="N13" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
       <c r="O13" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.06</v>
       </c>
       <c r="P13" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.11</v>
       </c>
       <c r="Q13" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R13" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S13" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T13" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>152.01999999999998</v>
       </c>
       <c r="U13" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V13" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>152.01999999999998</v>
       </c>
       <c r="W13" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>152.01999999999998</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.19002499999999997</v>
       </c>
       <c r="Y13" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L13*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L13*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA13" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.41168750000000004</v>
       </c>
       <c r="AB13" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.19002499999999997</v>
       </c>
       <c r="AC13" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>-177.33000000000004</v>
       </c>
       <c r="AD13" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG13" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH13" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI13" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK13" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -4768,115 +4782,115 @@
         <v>40999</v>
       </c>
       <c r="K14" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L14" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>320</v>
       </c>
       <c r="M14" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>488</v>
       </c>
       <c r="N14" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.13</v>
       </c>
       <c r="O14" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.18</v>
       </c>
       <c r="P14" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.33</v>
       </c>
       <c r="Q14" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="R14" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="S14" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="T14" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>455.81</v>
       </c>
       <c r="U14" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V14" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>455.81</v>
       </c>
       <c r="W14" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>303.79000000000002</v>
       </c>
       <c r="X14" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.60758000000000001</v>
       </c>
       <c r="Y14" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L14*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L14*SETUP!$H$3,     0),2)</f>
         <v>0.01</v>
       </c>
       <c r="Z14" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA14" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.75247999999999993</v>
       </c>
       <c r="AB14" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.60758000000000001</v>
       </c>
       <c r="AC14" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>-72.44999999999996</v>
       </c>
       <c r="AD14" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE14" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG14" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH14" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI14" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK14" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -4908,115 +4922,115 @@
         <v>40999</v>
       </c>
       <c r="K15" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L15" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>106</v>
       </c>
       <c r="M15" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>594</v>
       </c>
       <c r="N15" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.16</v>
       </c>
       <c r="O15" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.21</v>
       </c>
       <c r="P15" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.41</v>
       </c>
       <c r="Q15" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
       <c r="R15" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
       <c r="S15" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
       <c r="T15" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>545.89</v>
       </c>
       <c r="U15" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V15" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>545.89</v>
       </c>
       <c r="W15" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>90.079999999999984</v>
       </c>
       <c r="X15" s="15">
-        <f t="shared" ref="X15:X20" si="2">ABS(W15)/F15</f>
+        <f t="shared" si="0"/>
         <v>0.90079999999999982</v>
       </c>
       <c r="Y15" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L15*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L15*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z15" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>100</v>
       </c>
       <c r="AA15" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.87989999999999957</v>
       </c>
       <c r="AB15" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.90079999999999982</v>
       </c>
       <c r="AC15" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>2.0900000000000252</v>
       </c>
       <c r="AD15" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE15" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF15" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG15" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH15" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI15" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="19">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK15" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -5048,115 +5062,115 @@
         <v>40999</v>
       </c>
       <c r="K16" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L16" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>420</v>
       </c>
       <c r="M16" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-420</v>
       </c>
       <c r="N16" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.11</v>
       </c>
       <c r="O16" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.15</v>
       </c>
       <c r="P16" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="Q16" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R16" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S16" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T16" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-436.32</v>
       </c>
       <c r="U16" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V16" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-436.32</v>
       </c>
       <c r="W16" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-436.32</v>
       </c>
       <c r="X16" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.62331428571428571</v>
       </c>
       <c r="Y16" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L16*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L16*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z16" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>700</v>
       </c>
       <c r="AA16" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.62331428571428571</v>
       </c>
       <c r="AB16" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC16" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD16" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE16" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG16" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH16" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI16" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK16" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -5188,115 +5202,115 @@
         <v>40999</v>
       </c>
       <c r="K17" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L17" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>442</v>
       </c>
       <c r="M17" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-442</v>
       </c>
       <c r="N17" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.12</v>
       </c>
       <c r="O17" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.16</v>
       </c>
       <c r="P17" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.3</v>
       </c>
       <c r="Q17" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R17" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S17" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T17" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-458.35</v>
       </c>
       <c r="U17" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V17" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-458.35</v>
       </c>
       <c r="W17" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-458.35</v>
       </c>
       <c r="X17" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.26961764705882352</v>
       </c>
       <c r="Y17" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L17*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L17*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>1700</v>
       </c>
       <c r="AA17" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.26961764705882352</v>
       </c>
       <c r="AB17" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD17" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE17" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH17" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI17" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK17" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -5328,115 +5342,115 @@
         <v>40999</v>
       </c>
       <c r="K18" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L18" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>119.00000000000001</v>
       </c>
       <c r="M18" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>119.00000000000001</v>
       </c>
       <c r="N18" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.03</v>
       </c>
       <c r="O18" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.04</v>
       </c>
       <c r="P18" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.08</v>
       </c>
       <c r="Q18" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R18" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S18" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T18" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>103.08</v>
       </c>
       <c r="U18" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V18" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>103.08</v>
       </c>
       <c r="W18" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>103.08</v>
       </c>
       <c r="X18" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.14725714285714286</v>
       </c>
       <c r="Y18" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L18*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L18*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z18" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA18" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.62331428571428571</v>
       </c>
       <c r="AB18" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.14725714285714286</v>
       </c>
       <c r="AC18" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>-333.24</v>
       </c>
       <c r="AD18" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE18" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG18" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH18" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI18" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ18" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK18" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -5468,115 +5482,115 @@
         <v>40999</v>
       </c>
       <c r="K19" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L19" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>136</v>
       </c>
       <c r="M19" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>136</v>
       </c>
       <c r="N19" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.03</v>
       </c>
       <c r="O19" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.05</v>
       </c>
       <c r="P19" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.09</v>
       </c>
       <c r="Q19" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R19" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S19" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T19" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>120.05999999999997</v>
       </c>
       <c r="U19" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V19" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>120.05999999999997</v>
       </c>
       <c r="W19" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>120.05999999999997</v>
       </c>
       <c r="X19" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.0623529411764696E-2</v>
       </c>
       <c r="Y19" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L19*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L19*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA19" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.26961764705882352</v>
       </c>
       <c r="AB19" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>7.0623529411764696E-2</v>
       </c>
       <c r="AC19" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>-338.29</v>
       </c>
       <c r="AD19" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE19" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG19" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH19" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI19" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ19" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK19" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -5610,115 +5624,115 @@
         <v>40999</v>
       </c>
       <c r="K20" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L20" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>456</v>
       </c>
       <c r="M20" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-320</v>
       </c>
       <c r="N20" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.16</v>
       </c>
       <c r="O20" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.21</v>
       </c>
       <c r="P20" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.41</v>
       </c>
       <c r="Q20" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="R20" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="S20" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="T20" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-352.33000000000004</v>
       </c>
       <c r="U20" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V20" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-352.33000000000004</v>
       </c>
       <c r="W20" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-472.39</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.24862631578947367</v>
       </c>
       <c r="Y20" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L20*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L20*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z20" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>1900</v>
       </c>
       <c r="AA20" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.24862631578947367</v>
       </c>
       <c r="AB20" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC20" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD20" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>-656.81000000000017</v>
       </c>
       <c r="AE20" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>-656.81000000000017</v>
       </c>
       <c r="AF20" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>478.50999999999988</v>
       </c>
       <c r="AG20" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH20" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>90.92</v>
       </c>
       <c r="AI20" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>90.92</v>
       </c>
       <c r="AJ20" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>99.820000000000007</v>
       </c>
       <c r="AK20" s="19">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>-278.12000000000029</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -5750,115 +5764,115 @@
         <v>41029</v>
       </c>
       <c r="K21" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L21" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>456</v>
       </c>
       <c r="M21" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-456</v>
       </c>
       <c r="N21" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.12</v>
       </c>
       <c r="O21" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.16</v>
       </c>
       <c r="P21" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.31</v>
       </c>
       <c r="Q21" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R21" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S21" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T21" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-472.36</v>
       </c>
       <c r="U21" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V21" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-472.36</v>
       </c>
       <c r="W21" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-472.36</v>
       </c>
       <c r="X21" s="15">
-        <f t="shared" ref="X21:X27" si="3">ABS(W21)/F21</f>
+        <f t="shared" si="0"/>
         <v>0.39363333333333334</v>
       </c>
       <c r="Y21" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L21*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L21*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z21" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>1300</v>
       </c>
       <c r="AA21" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.46309999999999996</v>
       </c>
       <c r="AB21" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC21" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD21" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE21" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG21" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH21" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI21" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ21" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK21" s="20">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -5890,115 +5904,115 @@
         <v>41029</v>
       </c>
       <c r="K22" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>3</v>
       </c>
       <c r="L22" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>480</v>
       </c>
       <c r="M22" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-480</v>
       </c>
       <c r="N22" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.13</v>
       </c>
       <c r="O22" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.17</v>
       </c>
       <c r="P22" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.33</v>
       </c>
       <c r="Q22" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R22" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S22" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T22" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-496.4</v>
       </c>
       <c r="U22" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V22" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-496.4</v>
       </c>
       <c r="W22" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-496.4</v>
       </c>
       <c r="X22" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.16546666666666665</v>
       </c>
       <c r="Y22" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L22*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L22*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z22" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>3000</v>
       </c>
       <c r="AA22" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.16546666666666665</v>
       </c>
       <c r="AB22" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC22" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD22" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE22" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG22" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH22" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI22" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK22" s="20">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -6030,115 +6044,115 @@
         <v>41029</v>
       </c>
       <c r="K23" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L23" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>171</v>
       </c>
       <c r="M23" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>171</v>
       </c>
       <c r="N23" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
       <c r="O23" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.06</v>
       </c>
       <c r="P23" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.11</v>
       </c>
       <c r="Q23" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R23" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S23" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T23" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>155.01999999999998</v>
       </c>
       <c r="U23" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V23" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>155.01999999999998</v>
       </c>
       <c r="W23" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>155.01999999999998</v>
       </c>
       <c r="X23" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8.1589473684210517E-2</v>
       </c>
       <c r="Y23" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L23*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L23*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA23" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.24862631578947367</v>
       </c>
       <c r="AB23" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>8.1589473684210517E-2</v>
       </c>
       <c r="AC23" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>-317.37</v>
       </c>
       <c r="AD23" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE23" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF23" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG23" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH23" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI23" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ23" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK23" s="20">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -6170,115 +6184,115 @@
         <v>41029</v>
       </c>
       <c r="K24" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L24" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>65</v>
       </c>
       <c r="M24" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>65</v>
       </c>
       <c r="N24" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.01</v>
       </c>
       <c r="O24" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.02</v>
       </c>
       <c r="P24" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.04</v>
       </c>
       <c r="Q24" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R24" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S24" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T24" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>49.16</v>
       </c>
       <c r="U24" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V24" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>49.16</v>
       </c>
       <c r="W24" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>49.16</v>
       </c>
       <c r="X24" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.7815384615384612E-2</v>
       </c>
       <c r="Y24" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L24*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L24*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z24" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA24" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.46309999999999996</v>
       </c>
       <c r="AB24" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>3.7815384615384612E-2</v>
       </c>
       <c r="AC24" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>-552.87</v>
       </c>
       <c r="AD24" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE24" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF24" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG24" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH24" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ24" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK24" s="20">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -6310,121 +6324,121 @@
         <v>41029</v>
       </c>
       <c r="K25" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L25" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>400</v>
       </c>
       <c r="M25" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
         <v>-400</v>
       </c>
       <c r="N25" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
         <v>0.11</v>
       </c>
       <c r="O25" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="P25" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.27</v>
       </c>
       <c r="Q25" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R25" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S25" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T25" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
         <v>-416.28999999999996</v>
       </c>
       <c r="U25" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V25" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
         <v>-416.28999999999996</v>
       </c>
       <c r="W25" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-416.28999999999996</v>
       </c>
       <c r="X25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.52036249999999995</v>
       </c>
       <c r="Y25" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L25*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L25*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="Z25" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>800</v>
       </c>
       <c r="AA25" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.52036249999999995</v>
       </c>
       <c r="AB25" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
       <c r="AC25" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD25" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE25" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG25" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH25" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK25" s="20">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37">
       <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>26</v>
@@ -6433,10 +6447,10 @@
         <v>41010</v>
       </c>
       <c r="F26" s="13">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="G26" s="15">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>6</v>
@@ -6450,309 +6464,1009 @@
         <v>41029</v>
       </c>
       <c r="K26" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
-        <v>3</v>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
       </c>
       <c r="L26" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
-        <v>30</v>
+        <f>[QTDE]*[PREÇO]</f>
+        <v>800</v>
       </c>
       <c r="M26" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
-        <v>30</v>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>800</v>
       </c>
       <c r="N26" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
-        <v>0</v>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.22</v>
       </c>
       <c r="O26" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
-        <v>0.01</v>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P26" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
-        <v>0.02</v>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q26" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R26" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S26" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T26" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
-        <v>14.2</v>
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>783.17000000000007</v>
       </c>
       <c r="U26" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
         <v>0</v>
       </c>
       <c r="V26" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
-        <v>14.2</v>
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
+        <v>783.17000000000007</v>
       </c>
       <c r="W26" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
-        <v>14.2</v>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>783.17000000000007</v>
       </c>
       <c r="X26" s="15">
-        <f t="shared" si="3"/>
-        <v>4.7333333333333333E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.97896250000000007</v>
       </c>
       <c r="Y26" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L26*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L26*SETUP!$H$3,     0),2)</f>
+        <v>0.04</v>
       </c>
       <c r="Z26" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
-        <v>0.16546666666666665</v>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.52036249999999995</v>
       </c>
       <c r="AB26" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
-        <v>4.7333333333333333E-3</v>
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
+        <v>0.97896250000000007</v>
       </c>
       <c r="AC26" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
-        <v>-482.19999999999993</v>
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
+        <v>366.88000000000011</v>
       </c>
       <c r="AD26" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AE26" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
       <c r="AG26" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
       <c r="AH26" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
       <c r="AI26" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
       <c r="AJ26" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
       <c r="AK26" s="20">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37">
       <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="14">
-        <v>41010</v>
+        <v>41016</v>
       </c>
       <c r="F27" s="13">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="G27" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I27" s="14">
         <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
-        <v>41011</v>
+        <v>41017</v>
       </c>
       <c r="J27" s="22">
         <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
         <v>41029</v>
       </c>
       <c r="K27" s="13">
-        <f>IF(OR(NC[T]="CC",NC[T]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[T]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>3</v>
+      </c>
+      <c r="L27" s="15">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="15">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="15">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="15">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R27" s="15">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S27" s="15">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T27" s="15">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>-15.77</v>
+      </c>
+      <c r="U27" s="15">
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="15">
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="20">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="15">
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L27*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="13">
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16">
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.16546666666666665</v>
+      </c>
+      <c r="AB27" s="16">
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="15">
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
+        <v>-496.4</v>
+      </c>
+      <c r="AD27" s="15">
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="15">
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="15">
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="20">
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="20">
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="19">
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="20">
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="20">
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="36">
+        <v>41022</v>
+      </c>
+      <c r="F28" s="35">
+        <v>100</v>
+      </c>
+      <c r="G28" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="36">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41023</v>
+      </c>
+      <c r="J28" s="37">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41029</v>
+      </c>
+      <c r="K28" s="35">
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="L27" s="15">
-        <f>NC[QTDE]*NC[PREÇO]</f>
-        <v>800</v>
-      </c>
-      <c r="M27" s="15">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CV"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VV"),NC[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="CC"),NC[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[T]="VC"),NC[VALOR DAS OPERAÇÕES]))</f>
-        <v>830</v>
-      </c>
-      <c r="N27" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="O27" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="P27" s="15">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q27" s="15">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="L28" s="31">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>75</v>
+      </c>
+      <c r="M28" s="31">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>-75</v>
+      </c>
+      <c r="N28" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="O28" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="P28" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="Q28" s="31">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R28" s="31">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S28" s="31">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T28" s="31">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>-90.86</v>
+      </c>
+      <c r="U28" s="31">
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
+        <v>-90.86</v>
+      </c>
+      <c r="W28" s="38">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>-90.86</v>
+      </c>
+      <c r="X28" s="31">
+        <f t="shared" si="0"/>
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="Y28" s="31">
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L28*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="35">
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>100</v>
+      </c>
+      <c r="AA28" s="39">
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="AB28" s="39">
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="31">
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="31">
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="15">
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="31">
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="38">
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="38">
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="40">
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="38">
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="38">
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="36">
+        <v>41022</v>
+      </c>
+      <c r="F29" s="35">
+        <v>100</v>
+      </c>
+      <c r="G29" s="31">
+        <v>1.93</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="36">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41023</v>
+      </c>
+      <c r="J29" s="37">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41029</v>
+      </c>
+      <c r="K29" s="35">
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L29" s="31">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>193</v>
+      </c>
+      <c r="M29" s="31">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>118</v>
+      </c>
+      <c r="N29" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O29" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="P29" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="Q29" s="31">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="R27" s="15">
-        <f>TRUNC(NC[CORRETAGEM]*SETUP!$F$3,2)</f>
+      <c r="R29" s="31">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="S27" s="15">
-        <f>ROUND(NC[CORRETAGEM]*SETUP!$G$3,2)</f>
+      <c r="S29" s="31">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="T27" s="15">
-        <f>NC[VALOR LÍQUIDO DAS OPERAÇÕES]-NC[TAXA DE LIQUIDAÇÃO]-NC[EMOLUMENTOS]-NC[TAXA DE REGISTRO]-NC[CORRETAGEM]-NC[ISS]-IF(NC['[D/N']]="D",    0,    NC[OUTRAS BOVESPA])</f>
-        <v>797.36</v>
-      </c>
-      <c r="U27" s="15">
-        <f>IF(AND(NC['[D/N']]="D",    NC[T]="CV"),    ROUND(NC[LÍQUIDO BASE]*0.01, 2),    0)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="15">
-        <f>NC[LÍQUIDO BASE]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),    NC[IRRF FONTE])</f>
-        <v>797.36</v>
-      </c>
-      <c r="W27" s="20">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
-        <v>783.16</v>
-      </c>
-      <c r="X27" s="15">
-        <f t="shared" si="3"/>
-        <v>0.97894999999999999</v>
-      </c>
-      <c r="Y27" s="15">
-        <f>TRUNC(IF(OR(NC[T]="CV",NC[T]="VV"),     L27*SETUP!$H$3,     0),2)</f>
+      <c r="T29" s="31">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>86.11</v>
+      </c>
+      <c r="U29" s="31">
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
+        <v>86.11</v>
+      </c>
+      <c r="W29" s="38">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>176.97</v>
+      </c>
+      <c r="X29" s="31">
+        <f t="shared" si="0"/>
+        <v>1.7697000000000001</v>
+      </c>
+      <c r="Y29" s="31">
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L29*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="35">
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>-100</v>
+      </c>
+      <c r="AA29" s="39">
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="39">
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
+        <v>1.7697000000000001</v>
+      </c>
+      <c r="AC29" s="31">
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="31">
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="15">
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="31">
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="38">
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="38">
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="40">
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="38">
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="38">
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="36">
+        <v>41026</v>
+      </c>
+      <c r="F30" s="35">
+        <v>300</v>
+      </c>
+      <c r="G30" s="31">
+        <v>0.32</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="36">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41029</v>
+      </c>
+      <c r="J30" s="37">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41029</v>
+      </c>
+      <c r="K30" s="35">
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="31">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>96</v>
+      </c>
+      <c r="M30" s="31">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>-96</v>
+      </c>
+      <c r="N30" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="O30" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="P30" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q30" s="31">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R30" s="31">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S30" s="31">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T30" s="31">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>-111.88000000000001</v>
+      </c>
+      <c r="U30" s="31">
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
+        <v>-111.88000000000001</v>
+      </c>
+      <c r="W30" s="38">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>-111.88000000000001</v>
+      </c>
+      <c r="X30" s="31">
+        <f t="shared" si="0"/>
+        <v>0.37293333333333334</v>
+      </c>
+      <c r="Y30" s="31">
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L30*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="35">
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>300</v>
+      </c>
+      <c r="AA30" s="39">
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.37293333333333334</v>
+      </c>
+      <c r="AB30" s="39">
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="31">
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="31">
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
+        <v>-999.75999999999988</v>
+      </c>
+      <c r="AE30" s="15">
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
+        <v>-1656.5700000000002</v>
+      </c>
+      <c r="AF30" s="31">
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="38">
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="38">
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="40">
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="38">
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="38">
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
+        <v>-999.75999999999988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="36">
+        <v>41029</v>
+      </c>
+      <c r="F31" s="35">
+        <v>100</v>
+      </c>
+      <c r="G31" s="31">
+        <v>0.64</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="36">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41030</v>
+      </c>
+      <c r="J31" s="37">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41060</v>
+      </c>
+      <c r="K31" s="35">
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="31">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>64</v>
+      </c>
+      <c r="M31" s="31">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>64</v>
+      </c>
+      <c r="N31" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="O31" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="P31" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
         <v>0.04</v>
       </c>
-      <c r="Z27" s="13">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[T]="CC",NC[T]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="16">
-        <f>IF(NC['[D/N']]="D",      IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="CC",NC[T]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="VC",NC[MEDIO P/ OP],0)))</f>
-        <v>0.52036249999999995</v>
-      </c>
-      <c r="AB27" s="16">
-        <f>IF(NC['[D/N']]="D",     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="D"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)),     IF(OR(NC[T]="VV",NC[T]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[T]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[T]="CV",NC[MEDIO P/ OP],0)))</f>
-        <v>0.97894999999999999</v>
-      </c>
-      <c r="AC27" s="15">
-        <f>IF(AND(NC[MED CP] &gt; 0, NC[MED VD] &gt; 0), (NC[MED VD] - NC[MED CP]) * NC[QTDE], 0) + NC[IRRF FONTE]</f>
-        <v>366.87</v>
-      </c>
-      <c r="AD27" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "N"),    NC[LUCRO P/ OP]), 0)</f>
-        <v>-985.57</v>
-      </c>
-      <c r="AE27" s="15">
-        <f>IF(NC[U] = "U",NC[LUCRO '[N']] + SUMPRODUCT(N(MONTH(NC[DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), NC[LUCRO '[N']]),0)</f>
-        <v>-1642.38</v>
-      </c>
-      <c r="AF27" s="15">
-        <f>IF(NC[U] = "U", SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]), N(NC['[D/N']] = "D"),    NC[LUCRO P/ OP]), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="20">
-        <f>IF(NC[ TRIB. '[N']] &gt; 0,     ROUND(NC[ TRIB. '[N']]*0.15,    2),    0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="20">
-        <f>IF(NC[LUCRO TRIB. DT] &gt; 0,     ROUND(NC[LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N(NC[DATA BASE]=NC[[#This Row],[DATA BASE]]),    NC[IRRF FONTE]),    0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="19">
-        <f>NC[IR '[N']] + NC[IR DEVIDO DT]</f>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="20">
-        <f>IF(AND(NC[U] = "U",NC[IR DEVIDO] &gt; 0), NC[IR DEVIDO] + 8.9, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="20">
-        <f>NC[LUCRO '[N']]  + NC[LUCRO TRIB. DT] - NC[RESGATE]</f>
-        <v>-985.57</v>
+      <c r="Q31" s="31">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R31" s="31">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S31" s="31">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T31" s="31">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>48.160000000000004</v>
+      </c>
+      <c r="U31" s="31">
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
+        <v>48.160000000000004</v>
+      </c>
+      <c r="W31" s="38">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>48.160000000000004</v>
+      </c>
+      <c r="X31" s="31">
+        <f t="shared" si="0"/>
+        <v>0.48160000000000003</v>
+      </c>
+      <c r="Y31" s="31">
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L31*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="35">
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="39">
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="AB31" s="39">
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
+        <v>0.48160000000000003</v>
+      </c>
+      <c r="AC31" s="31">
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
+        <v>-42.699999999999996</v>
+      </c>
+      <c r="AD31" s="31">
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="15">
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="31">
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="38">
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="38">
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="40">
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="38">
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="38">
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <f>SUBTOTAL(104,NC[ID])</f>
-        <v>26</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="15">
-        <f>SUBTOTAL(109,NC[IRRF])</f>
+    <row r="32" spans="1:37">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="36">
+        <v>41029</v>
+      </c>
+      <c r="F32" s="35">
+        <v>100</v>
+      </c>
+      <c r="G32" s="31">
+        <v>1.84</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="36">
+        <f>WORKDAY(NC[[#This Row],[DATA]],1,0)</f>
+        <v>41030</v>
+      </c>
+      <c r="J32" s="37">
+        <f>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</f>
+        <v>41060</v>
+      </c>
+      <c r="K32" s="35">
+        <f>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="31">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>184</v>
+      </c>
+      <c r="M32" s="31">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</f>
+        <v>-120</v>
+      </c>
+      <c r="N32" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="O32" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="P32" s="31">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="Q32" s="31">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>29.8</v>
+      </c>
+      <c r="R32" s="31">
+        <f>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="S32" s="31">
+        <f>ROUND([CORRETAGEM]*SETUP!$G$3,2)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="T32" s="31">
+        <f>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</f>
+        <v>-151.87</v>
+      </c>
+      <c r="U32" s="31">
+        <f>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="15">
+        <f>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</f>
+        <v>-151.87</v>
+      </c>
+      <c r="W32" s="38">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>-200.03</v>
+      </c>
+      <c r="X32" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0003000000000002</v>
+      </c>
+      <c r="Y32" s="31">
+        <f>TRUNC(IF(OR([T]="CV",[T]="VV"),     L32*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="35">
+        <f>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="39">
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <v>2.0003000000000002</v>
+      </c>
+      <c r="AB32" s="39">
+        <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
+        <v>1.7697000000000001</v>
+      </c>
+      <c r="AC32" s="31">
+        <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
+        <v>-23.060000000000013</v>
+      </c>
+      <c r="AD32" s="31">
+        <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="15">
+        <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="31">
+        <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="38">
+        <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="38">
+        <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="40">
+        <f>[IR '[N']] + [IR DEVIDO DT]</f>
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="38">
+        <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="38">
+        <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="30">
+        <f>SUBTOTAL(104,[ID])</f>
+        <v>31</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="31">
+        <f>SUBTOTAL(109,[IRRF])</f>
         <v>0.12</v>
       </c>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="15">
-        <f>SUBTOTAL(109,NC[LUCRO P/ OP])</f>
-        <v>-1163.8700000000003</v>
-      </c>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="27">
-        <f>SUBTOTAL(109,NC[LUCRO LÍQUIDO])</f>
-        <v>-1263.6900000000003</v>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="31">
+        <f>SUBTOTAL(109,[LUCRO P/ OP])</f>
+        <v>-1243.82</v>
+      </c>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="34">
+        <f>SUBTOTAL(109,[LUCRO LÍQUIDO])</f>
+        <v>-1277.8800000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="AE29" s="26"/>
+    <row r="34" spans="1:37">
+      <c r="AE34" s="23"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6770,20 +7484,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan4"/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -6797,334 +7511,122 @@
     <col min="15" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="25">
         <v>100</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="25">
         <v>21.88</v>
       </c>
-      <c r="D2" s="32">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E2" s="32">
-        <v>21.24</v>
-      </c>
-      <c r="F2" s="35">
-        <f>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</f>
-        <v>344</v>
-      </c>
-      <c r="G2" s="35">
-        <f>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</f>
+      <c r="D2" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="E2" s="25">
+        <v>21.09</v>
+      </c>
+      <c r="F2" s="28">
+        <f>ROUNDDOWN([APLICAÇÃO]/[PREÇO OPÇÃO], 0)</f>
+        <v>312</v>
+      </c>
+      <c r="G2" s="28">
+        <f>[QTDE TMP] - MOD([QTDE TMP], 100)</f>
         <v>300</v>
       </c>
-      <c r="H2" s="32">
-        <f>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</f>
-        <v>22.459999999999997</v>
-      </c>
-      <c r="I2" s="34">
-        <f>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</f>
-        <v>5.7438794726930364E-2</v>
-      </c>
-      <c r="J2" s="32">
-        <f>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</f>
-        <v>73.95</v>
-      </c>
-      <c r="K2" s="32">
-        <f>Tabela2[PREÇO AÇÃO] * 105%</f>
-        <v>22.302</v>
-      </c>
-      <c r="L2" s="32">
-        <f>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</f>
-        <v>0.4220000000000006</v>
-      </c>
-      <c r="M2" s="34">
-        <f>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</f>
-        <v>0.45517241379310569</v>
-      </c>
-      <c r="N2" s="32">
-        <f>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</f>
-        <v>33.66000000000016</v>
+      <c r="H2" s="25">
+        <f>[EXERCÍCIO] + ([PREÇO OPÇÃO] * 2)</f>
+        <v>22.52</v>
+      </c>
+      <c r="I2" s="27">
+        <f>[TARGET 100%] / [PREÇO AÇÃO] - 1</f>
+        <v>6.7804646752015252E-2</v>
+      </c>
+      <c r="J2" s="25">
+        <f>[PREÇO OPÇÃO] * [QTDE] * 0.85</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="K2" s="25">
+        <f>[PREÇO AÇÃO] * 105%</f>
+        <v>22.144500000000001</v>
+      </c>
+      <c r="L2" s="25">
+        <f>([TARGET 5%] - [EXERCÍCIO])</f>
+        <v>0.26450000000000173</v>
+      </c>
+      <c r="M2" s="27">
+        <f>[VALOR 5%] / [PREÇO OPÇÃO] - 1</f>
+        <v>-0.17343749999999458</v>
+      </c>
+      <c r="N2" s="25">
+        <f>([VALOR 5%] - [PREÇO OPÇÃO]) * [QTDE] * 0.85</f>
+        <v>-14.152499999999561</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="32">
-        <v>100</v>
-      </c>
-      <c r="C3" s="32">
-        <v>14</v>
-      </c>
-      <c r="D3" s="32">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E3" s="32">
-        <v>13.98</v>
-      </c>
-      <c r="F3" s="35">
-        <f>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</f>
-        <v>175</v>
-      </c>
-      <c r="G3" s="35">
-        <f>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</f>
-        <v>100</v>
-      </c>
-      <c r="H3" s="32">
-        <f>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</f>
-        <v>15.14</v>
-      </c>
-      <c r="I3" s="34">
-        <f>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</f>
-        <v>8.2975679542203196E-2</v>
-      </c>
-      <c r="J3" s="32">
-        <f>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</f>
-        <v>48.449999999999996</v>
-      </c>
-      <c r="K3" s="32">
-        <f>Tabela2[PREÇO AÇÃO] * 105%</f>
-        <v>14.679</v>
-      </c>
-      <c r="L3" s="32">
-        <f>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</f>
-        <v>0.67900000000000027</v>
-      </c>
-      <c r="M3" s="34">
-        <f>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</f>
-        <v>0.19122807017543919</v>
-      </c>
-      <c r="N3" s="32">
-        <f>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</f>
-        <v>9.2650000000000272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="32">
-        <v>100</v>
-      </c>
-      <c r="C4" s="32">
         <v>15</v>
       </c>
-      <c r="D4" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="32">
-        <v>13.98</v>
-      </c>
-      <c r="F4" s="35">
-        <f>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</f>
-        <v>500</v>
-      </c>
-      <c r="G4" s="35">
-        <f>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</f>
-        <v>500</v>
-      </c>
-      <c r="H4" s="32">
-        <f>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</f>
-        <v>15.4</v>
-      </c>
-      <c r="I4" s="34">
-        <f>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</f>
-        <v>0.10157367668097272</v>
-      </c>
-      <c r="J4" s="32">
-        <f>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</f>
-        <v>85</v>
-      </c>
-      <c r="K4" s="32">
-        <f>Tabela2[PREÇO AÇÃO] * 105%</f>
-        <v>14.679</v>
-      </c>
-      <c r="L4" s="32">
-        <f>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</f>
-        <v>-0.32099999999999973</v>
-      </c>
-      <c r="M4" s="34">
-        <f>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</f>
-        <v>-2.6049999999999986</v>
-      </c>
-      <c r="N4" s="32">
-        <f>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</f>
-        <v>-221.42499999999984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="32">
-        <v>100</v>
-      </c>
-      <c r="C5" s="32">
-        <v>42.09</v>
-      </c>
-      <c r="D5" s="32">
-        <v>0.86</v>
-      </c>
-      <c r="E5" s="32">
-        <v>41.78</v>
-      </c>
-      <c r="F5" s="35">
-        <f>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</f>
-        <v>116</v>
-      </c>
-      <c r="G5" s="35">
-        <f>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</f>
-        <v>100</v>
-      </c>
-      <c r="H5" s="32">
-        <f>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</f>
-        <v>43.81</v>
-      </c>
-      <c r="I5" s="34">
-        <f>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</f>
-        <v>4.8587841072283311E-2</v>
-      </c>
-      <c r="J5" s="32">
-        <f>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</f>
-        <v>73.099999999999994</v>
-      </c>
-      <c r="K5" s="32">
-        <f>Tabela2[PREÇO AÇÃO] * 105%</f>
-        <v>43.869</v>
-      </c>
-      <c r="L5" s="32">
-        <f>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</f>
-        <v>1.7789999999999964</v>
-      </c>
-      <c r="M5" s="34">
-        <f>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</f>
-        <v>1.0686046511627865</v>
-      </c>
-      <c r="N5" s="32">
-        <f>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</f>
-        <v>78.114999999999682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="32">
-        <v>100</v>
-      </c>
-      <c r="C6" s="32">
-        <v>10.88</v>
-      </c>
-      <c r="D6" s="32">
-        <v>0.39</v>
-      </c>
-      <c r="E6" s="32">
-        <v>10.91</v>
-      </c>
-      <c r="F6" s="35">
-        <f>ROUNDDOWN(Tabela2[APLICAÇÃO]/Tabela2[PREÇO OPÇÃO], 0)</f>
-        <v>256</v>
-      </c>
-      <c r="G6" s="35">
-        <f>Tabela2[QTDE TMP] - MOD(Tabela2[QTDE TMP], 100)</f>
-        <v>200</v>
-      </c>
-      <c r="H6" s="32">
-        <f>Tabela2[EXERCÍCIO] + (Tabela2[PREÇO OPÇÃO] * 2)</f>
-        <v>11.66</v>
-      </c>
-      <c r="I6" s="34">
-        <f>Tabela2[TARGET 100%] / Tabela2[PREÇO AÇÃO] - 1</f>
-        <v>6.8744271310724026E-2</v>
-      </c>
-      <c r="J6" s="32">
-        <f>Tabela2[PREÇO OPÇÃO] * Tabela2[QTDE] * 0.85</f>
-        <v>66.3</v>
-      </c>
-      <c r="K6" s="32">
-        <f>Tabela2[PREÇO AÇÃO] * 105%</f>
-        <v>11.455500000000001</v>
-      </c>
-      <c r="L6" s="32">
-        <f>(Tabela2[TARGET 5%] - Tabela2[EXERCÍCIO])</f>
-        <v>0.5754999999999999</v>
-      </c>
-      <c r="M6" s="34">
-        <f>Tabela2[VALOR 5%] / Tabela2[PREÇO OPÇÃO] - 1</f>
-        <v>0.47564102564102528</v>
-      </c>
-      <c r="N6" s="32">
-        <f>(Tabela2[VALOR 5%] - Tabela2[PREÇO OPÇÃO]) * Tabela2[QTDE] * 0.85</f>
-        <v>31.534999999999982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
-        <f>SUBTOTAL(103,Tabela2[LUCRO 5%])</f>
-        <v>5</v>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29">
+        <f>SUBTOTAL(103,[LUCRO 5%])</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7142,7 +7644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -7150,7 +7652,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -7163,32 +7665,32 @@
     <col min="10" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -7201,13 +7703,13 @@
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>7.0000000000000007E-5</v>
       </c>
@@ -7236,29 +7738,29 @@
         <v>6765.77</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -7278,7 +7780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>3.6999999999999999E-4</v>
       </c>

--- a/stocks/nc_xpi_opcoes.xlsx
+++ b/stocks/nc_xpi_opcoes.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="81">
   <si>
     <t>ATIVO</t>
   </si>
@@ -284,6 +284,9 @@
   <si>
     <t>VC</t>
   </si>
+  <si>
+    <t>LUCRO TMP</t>
+  </si>
 </sst>
 </file>
 
@@ -383,7 +386,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -444,15 +447,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="107">
-    <dxf>
+  <dxfs count="109">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -675,6 +697,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1148,6 +1188,44 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1167,6 +1245,668 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="169" formatCode="0.000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1187,515 +1927,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1733,199 +1965,10 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2388,105 +2431,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AK33" totalsRowCount="1" headerRowDxfId="106" dataDxfId="105" totalsRowDxfId="104">
-  <autoFilter ref="A1:AK32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AL33" totalsRowCount="1" headerRowDxfId="108" dataDxfId="107" totalsRowDxfId="106">
+  <autoFilter ref="A1:AL32">
+    <filterColumn colId="28"/>
+  </autoFilter>
   <sortState ref="A2:AK27">
     <sortCondition ref="E1:E27"/>
   </sortState>
-  <tableColumns count="37">
-    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="103" totalsRowDxfId="37"/>
-    <tableColumn id="36" name="U" dataDxfId="102" totalsRowDxfId="36"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="101" totalsRowDxfId="35"/>
-    <tableColumn id="3" name="T" dataDxfId="100" totalsRowDxfId="34"/>
-    <tableColumn id="4" name="DATA" dataDxfId="99" totalsRowDxfId="33"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="98" totalsRowDxfId="32"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="97" totalsRowDxfId="31"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="96" totalsRowDxfId="30"/>
-    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="95" totalsRowDxfId="29">
+  <tableColumns count="38">
+    <tableColumn id="19" name="ID" totalsRowFunction="max" dataDxfId="105" totalsRowDxfId="38"/>
+    <tableColumn id="36" name="U" dataDxfId="104" totalsRowDxfId="37"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="103" totalsRowDxfId="36"/>
+    <tableColumn id="3" name="T" dataDxfId="102" totalsRowDxfId="35"/>
+    <tableColumn id="4" name="DATA" dataDxfId="101" totalsRowDxfId="34"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="100" totalsRowDxfId="33"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="99" totalsRowDxfId="32"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="98" totalsRowDxfId="31"/>
+    <tableColumn id="34" name="DATA DE LIQUIDAÇÃO" dataDxfId="97" totalsRowDxfId="30">
       <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="DATA BASE" dataDxfId="94" totalsRowDxfId="28">
+    <tableColumn id="31" name="DATA BASE" dataDxfId="96" totalsRowDxfId="29">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA DE LIQUIDAÇÃO]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="93" totalsRowDxfId="27">
+    <tableColumn id="21" name="PAR" dataDxfId="95" totalsRowDxfId="28">
       <calculatedColumnFormula>IF(OR([T]="CC",[T]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([T]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="92" totalsRowDxfId="26">
+    <tableColumn id="8" name="VALOR DAS OPERAÇÕES" dataDxfId="94" totalsRowDxfId="27">
       <calculatedColumnFormula>[QTDE]*[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="91" totalsRowDxfId="25">
+    <tableColumn id="9" name="VALOR LÍQUIDO DAS OPERAÇÕES" dataDxfId="93" totalsRowDxfId="26">
       <calculatedColumnFormula>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CV"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VV"),[VALOR DAS OPERAÇÕES]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="CC"),[VALOR DAS OPERAÇÕES])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([T]="VC"),[VALOR DAS OPERAÇÕES]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="90" totalsRowDxfId="24">
+    <tableColumn id="10" name="TAXA DE LIQUIDAÇÃO" dataDxfId="92" totalsRowDxfId="25">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="89" totalsRowDxfId="23">
+    <tableColumn id="11" name="EMOLUMENTOS" dataDxfId="91" totalsRowDxfId="24">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="88" totalsRowDxfId="22">
+    <tableColumn id="28" name="TAXA DE REGISTRO" dataDxfId="90" totalsRowDxfId="23">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR DAS OPERAÇÕES]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR DAS OPERAÇÕES]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORRETAGEM" dataDxfId="87" totalsRowDxfId="21">
+    <tableColumn id="12" name="CORRETAGEM" dataDxfId="89" totalsRowDxfId="22">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="86" totalsRowDxfId="20">
+    <tableColumn id="13" name="ISS" dataDxfId="88" totalsRowDxfId="21">
       <calculatedColumnFormula>TRUNC([CORRETAGEM]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="85" totalsRowDxfId="19">
+    <tableColumn id="15" name="OUTRAS BOVESPA" dataDxfId="87" totalsRowDxfId="20">
       <calculatedColumnFormula>ROUND([CORRETAGEM]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="84" totalsRowDxfId="18">
+    <tableColumn id="16" name="LÍQUIDO BASE" dataDxfId="86" totalsRowDxfId="19">
       <calculatedColumnFormula>[VALOR LÍQUIDO DAS OPERAÇÕES]-[TAXA DE LIQUIDAÇÃO]-[EMOLUMENTOS]-[TAXA DE REGISTRO]-[CORRETAGEM]-[ISS]-IF(['[D/N']]="D",    0,    [OUTRAS BOVESPA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="IRRF FONTE" dataDxfId="83" totalsRowDxfId="17">
+    <tableColumn id="33" name="IRRF FONTE" dataDxfId="85" totalsRowDxfId="18">
       <calculatedColumnFormula>IF(AND(['[D/N']]="D",    [T]="CV"),    ROUND([LÍQUIDO BASE]*0.01, 2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="LÍQUIDO" dataDxfId="0" totalsRowDxfId="16">
+    <tableColumn id="35" name="LÍQUIDO" dataDxfId="84" totalsRowDxfId="17">
       <calculatedColumnFormula>IF([PREÇO] &gt; 0,    [LÍQUIDO BASE]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),    [IRRF FONTE]),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="82" totalsRowDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="83" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="81" totalsRowDxfId="14">
+    <tableColumn id="18" name="MEDIO P/ OP" dataDxfId="82" totalsRowDxfId="15">
       <calculatedColumnFormula>ABS(W2)/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="13">
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="14">
       <calculatedColumnFormula>TRUNC(IF(OR([T]="CV",[T]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="79" totalsRowDxfId="12">
+    <tableColumn id="24" name="SALDO" dataDxfId="81" totalsRowDxfId="13">
       <calculatedColumnFormula>IF(['[D/N']]="D",0,IF(OR([T]="CC",[T]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="78" totalsRowDxfId="11">
-      <calculatedColumnFormula>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</calculatedColumnFormula>
+    <tableColumn id="22" name="MED CP" dataDxfId="40" totalsRowDxfId="12">
+      <calculatedColumnFormula>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="39" totalsRowDxfId="10">
+    <tableColumn id="23" name="MED VD" dataDxfId="80" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="9">
+    <tableColumn id="44" name="LUCRO TMP" dataDxfId="39" totalsRowDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="LUCRO [N]" dataDxfId="77" totalsRowDxfId="8">
+    <tableColumn id="25" name="LUCRO P/ OP" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="9">
+      <calculatedColumnFormula>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" name="LUCRO [N]" dataDxfId="79" totalsRowDxfId="8">
       <calculatedColumnFormula>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name=" TRIB. [N]" dataDxfId="76" totalsRowDxfId="7">
+    <tableColumn id="37" name=" TRIB. [N]" dataDxfId="78" totalsRowDxfId="7">
       <calculatedColumnFormula>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="75" totalsRowDxfId="6">
+    <tableColumn id="39" name="LUCRO TRIB. DT" dataDxfId="77" totalsRowDxfId="6">
       <calculatedColumnFormula>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="IR [N]" dataDxfId="74" totalsRowDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="32" name="IR [N]" dataDxfId="76" totalsRowDxfId="5" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="73" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="38" name="IR DEVIDO DT" dataDxfId="75" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="IR DEVIDO" dataDxfId="72" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="14" name="IR DEVIDO" dataDxfId="74" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>[IR '[N']] + [IR DEVIDO DT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="RESGATE" dataDxfId="71" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="26" name="RESGATE" dataDxfId="73" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="LUCRO LÍQUIDO" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="27" name="LUCRO LÍQUIDO" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2495,39 +2543,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:N3" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:N3" totalsRowCount="1" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:N2"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="PAPEL" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Moeda"/>
-    <tableColumn id="2" name="EXERCÍCIO" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="PREÇO OPÇÃO" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Moeda"/>
-    <tableColumn id="4" name="PREÇO AÇÃO" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Moeda"/>
-    <tableColumn id="11" name="QTDE TMP" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Moeda">
+    <tableColumn id="1" name="PAPEL" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Moeda"/>
+    <tableColumn id="2" name="EXERCÍCIO" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="PREÇO OPÇÃO" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Moeda"/>
+    <tableColumn id="4" name="PREÇO AÇÃO" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Moeda"/>
+    <tableColumn id="11" name="QTDE TMP" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUNDDOWN([APLICAÇÃO]/[PREÇO OPÇÃO], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="QTDE" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Moeda">
+    <tableColumn id="14" name="QTDE" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Moeda">
       <calculatedColumnFormula>[QTDE TMP] - MOD([QTDE TMP], 100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="TARGET 100%" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Moeda">
+    <tableColumn id="5" name="TARGET 100%" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Moeda">
       <calculatedColumnFormula>[EXERCÍCIO] + ([PREÇO OPÇÃO] * 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="ALTA 100%" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="ALTA 100%" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[TARGET 100%] / [PREÇO AÇÃO] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="LUCRO 100%" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Moeda">
+    <tableColumn id="12" name="LUCRO 100%" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Moeda">
       <calculatedColumnFormula>[PREÇO OPÇÃO] * [QTDE] * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="TARGET 5%" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Moeda">
+    <tableColumn id="7" name="TARGET 5%" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Moeda">
       <calculatedColumnFormula>[PREÇO AÇÃO] * 105%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR 5%" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Moeda">
+    <tableColumn id="8" name="VALOR 5%" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Moeda">
       <calculatedColumnFormula>([TARGET 5%] - [EXERCÍCIO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="ALTA 5%" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Porcentagem">
+    <tableColumn id="9" name="ALTA 5%" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[VALOR 5%] / [PREÇO OPÇÃO] - 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LUCRO 5%" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LUCRO 5%" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Moeda">
       <calculatedColumnFormula>([VALOR 5%] - [PREÇO OPÇÃO]) * [QTDE] * 0.85</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2845,7 +2893,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2887,7 +2935,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2908,13 +2956,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan2"/>
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC27" sqref="AC27"/>
+      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2938,26 +2986,26 @@
     <col min="18" max="18" width="15" style="7" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" style="7" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11.85546875" style="7" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" style="7" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="7" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="9.85546875" style="7" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="11.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" style="7" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" style="25" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="10" customFormat="1">
+    <row r="1" spans="1:38" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
@@ -3042,35 +3090,38 @@
       <c r="AB1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:38" ht="11.25" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3166,51 +3217,55 @@
         <v>600</v>
       </c>
       <c r="AA2" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.30663333333333342</v>
       </c>
       <c r="AB2" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AC2" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD2" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="15">
+      <c r="AF2" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="15">
+      <c r="AG2" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG2" s="19">
+      <c r="AH2" s="19">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="19">
+      <c r="AI2" s="19">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI2" s="19">
+      <c r="AJ2" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ2" s="19">
+      <c r="AK2" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK2" s="19">
+      <c r="AL2" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:38" ht="11.25" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -3306,51 +3361,55 @@
         <v>400</v>
       </c>
       <c r="AA3" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.43999999999999995</v>
       </c>
       <c r="AB3" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD3" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AF3" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AG3" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="19">
+      <c r="AH3" s="19">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="19">
+      <c r="AI3" s="19">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="19">
+      <c r="AJ3" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="19">
+      <c r="AK3" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="19">
+      <c r="AL3" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:38" ht="11.25" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3446,51 +3505,55 @@
         <v>0</v>
       </c>
       <c r="AA4" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.204375</v>
       </c>
       <c r="AB4" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC4" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD4" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AF4" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AG4" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="20">
+      <c r="AH4" s="20">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AI4" s="20">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="19">
+      <c r="AJ4" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ4" s="19">
+      <c r="AK4" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="19">
+      <c r="AL4" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:38" ht="11.25" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -3586,51 +3649,55 @@
         <v>0</v>
       </c>
       <c r="AA5" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.204375</v>
       </c>
       <c r="AB5" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.36715833333333331</v>
       </c>
-      <c r="AC5" s="15">
+      <c r="AC5" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>197.30999999999997</v>
       </c>
       <c r="AD5" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>197.30999999999997</v>
+      </c>
+      <c r="AE5" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AF5" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AG5" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="AH5" s="20">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AI5" s="20">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="19">
+      <c r="AJ5" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="19">
+      <c r="AK5" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="19">
+      <c r="AL5" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:38" ht="11.25" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3726,51 +3793,55 @@
         <v>0</v>
       </c>
       <c r="AA6" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.43999999999999995</v>
       </c>
       <c r="AB6" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.75657499999999966</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AC6" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>126.62999999999988</v>
       </c>
       <c r="AD6" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>126.62999999999988</v>
+      </c>
+      <c r="AE6" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AF6" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AG6" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="20">
+      <c r="AH6" s="20">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AI6" s="20">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="19">
+      <c r="AJ6" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="19">
+      <c r="AK6" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="19">
+      <c r="AL6" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:38">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3866,51 +3937,55 @@
         <v>200</v>
       </c>
       <c r="AA7" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.87989999999999957</v>
       </c>
       <c r="AB7" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AC7" s="19">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD7" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AF7" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="15">
+      <c r="AG7" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="20">
+      <c r="AH7" s="20">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AI7" s="20">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="19">
+      <c r="AJ7" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="19">
+      <c r="AK7" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="19">
+      <c r="AL7" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:38" ht="11.25" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -4006,51 +4081,55 @@
         <v>0</v>
       </c>
       <c r="AA8" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.30663333333333342</v>
       </c>
       <c r="AB8" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.53293333333333337</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>135.77999999999997</v>
       </c>
       <c r="AD8" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>135.77999999999997</v>
+      </c>
+      <c r="AE8" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AF8" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AG8" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="20">
+      <c r="AH8" s="20">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AI8" s="20">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="AJ8" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="AK8" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AL8" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:38" ht="11.25" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -4146,51 +4225,55 @@
         <v>0</v>
       </c>
       <c r="AA9" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.13755000000000001</v>
       </c>
       <c r="AB9" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="15">
+      <c r="AC9" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD9" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="15">
+      <c r="AF9" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="15">
+      <c r="AG9" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="20">
+      <c r="AH9" s="20">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AI9" s="19">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AJ9" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AK9" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="19">
+      <c r="AL9" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:38" ht="11.25" customHeight="1">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -4286,51 +4369,55 @@
         <v>0</v>
       </c>
       <c r="AA10" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.13755000000000001</v>
       </c>
       <c r="AB10" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.2535458333333333</v>
       </c>
-      <c r="AC10" s="15">
+      <c r="AC10" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>281.19999999999993</v>
       </c>
       <c r="AD10" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>281.19999999999993</v>
+      </c>
+      <c r="AE10" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="15">
+      <c r="AF10" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="15">
+      <c r="AG10" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="20">
+      <c r="AH10" s="20">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="19">
+      <c r="AI10" s="19">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="19">
+      <c r="AJ10" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ10" s="19">
+      <c r="AK10" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK10" s="19">
+      <c r="AL10" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:38" ht="11.25" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -4426,51 +4513,55 @@
         <v>800</v>
       </c>
       <c r="AA11" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.41168750000000004</v>
       </c>
       <c r="AB11" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="15">
+      <c r="AC11" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD11" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="15">
+      <c r="AF11" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="15">
+      <c r="AG11" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="19">
+      <c r="AH11" s="19">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="19">
+      <c r="AI11" s="19">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="19">
+      <c r="AJ11" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="19">
+      <c r="AK11" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="19">
+      <c r="AL11" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:38" ht="11.25" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -4566,51 +4657,55 @@
         <v>500</v>
       </c>
       <c r="AA12" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.75247999999999993</v>
       </c>
       <c r="AB12" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="15">
+      <c r="AC12" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>0</v>
       </c>
       <c r="AD12" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AF12" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="15">
+      <c r="AG12" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="20">
+      <c r="AH12" s="20">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="20">
+      <c r="AI12" s="20">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="19">
+      <c r="AJ12" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ12" s="19">
+      <c r="AK12" s="19">
         <f>IF(AND([U] = "U",[IR DEVIDO] &gt; 0), [IR DEVIDO] + 8.9, 0)</f>
         <v>0</v>
       </c>
-      <c r="AK12" s="19">
+      <c r="AL12" s="19">
         <f>[LUCRO '[N']]  + [LUCRO TRIB. DT] - [RESGATE]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:38" ht="11.25" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -4706,51 +4801,55 @@
         <v>0</v>
       </c>
       <c r="AA13" s="16">
-        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
+        <f>IF(['[D/N']]="D",      IF(OR([T]="CC",[T]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="VC",[MEDIO P/ OP],0)),     IF(OR([T]="CC",[T]="CV"),     (ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])) - ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP])))  /  (SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]) - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="CV"),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE])),     IF([T]="VC",[MEDIO P/ OP],0)))</f>
         <v>0.41168750000000004</v>
       </c>
       <c r="AB13" s="16">
         <f>IF(NC[[#This Row],[PREÇO]] &gt; 0,    IF(['[D/N']]="D",     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="D"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0)),     IF(OR([T]="VV",[T]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([T]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([T]="CV",[MEDIO P/ OP],0))),    0)</f>
         <v>0.19002499999999997</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AC13" s="16">
         <f xml:space="preserve">  IF([PREÇO] &gt; 0,  IF(AND([MED CP] &gt; 0, [MED VD] &gt; 0), ([MED VD] - [MED CP]) * [QTDE], 0),    IF(AND([MED CP] &gt; 0, [MED VD] = 0), ([MED VD] - [MED CP]) * [QTDE], 0)) + [IRRF FONTE]</f>
         <v>-177.33000000000004</v>
       </c>
       <c r="AD13" s="15">
+        <f>IF([LUCRO TMP] &lt;&gt; 0, [LUCRO TMP] - SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([ID]&lt;NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]), [LUCRO TMP]), 0)</f>
+        <v>-177.33000000000004</v>
+      </c>
+      <c r="AE13" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([ID]&lt;=NC[[#This Row],[ID]]),N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "N"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="15">
+      <c r="AF13" s="15">
         <f>IF([U] = "U",[LUCRO '[N']] + SUMPRODUCT(N(MONTH([DATA BASE])=MONTH(NC[[#This Row],[DATA BASE]]) - 1), [LUCRO '[N']]),0)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="15">
+      <c r="AG13" s="15">
         <f>IF([U] = "U", SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]), N(['[D/N']] = "D"),    [LUCRO P/ OP]), 0)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="20">
+      <c r="AH13" s="20">
         <f>IF([ TRIB. '[N']] &gt; 0,     ROUND([ TRIB. '[N']]*0.15,    2),    0)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="20">
+      <c r="AI13" s="20">
         <f>IF([LUCRO TRIB. DT] &gt; 0,     ROUND([LUCRO TRIB. DT]*0.2,    2)  -  SUMPRODUCT(N([DATA BASE]=NC[[#This Row],[DATA BASE]]),    [IRRF FONTE]),    0)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="19">
+      <c r="AJ13" s="19">
         <f>[IR '[N']] + [IR DEVIDO DT]</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="19